--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025" codeName="{372AB895-14C1-FC20-EB20-F1B4BCFD95AE}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B2F9A-9328-4B07-B4A9-F9FED3EE643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952FA0BF-956B-48F8-A4A4-E25D95611892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29625" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -23,20 +23,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Instructions!#REF!</definedName>
-    <definedName name="exp_assay">Assay!$D$11</definedName>
-    <definedName name="exp_date">Assay!$D$2</definedName>
-    <definedName name="exp_id">Assay!$D$5</definedName>
-    <definedName name="exp_notes">Assay!$D$17</definedName>
-    <definedName name="exp_rxns">Assay!$D$16</definedName>
-    <definedName name="exp_summary">Assay!$D$9</definedName>
+    <definedName name="exp_assay">Assay!$C$11</definedName>
+    <definedName name="exp_date">Assay!$C$2</definedName>
+    <definedName name="exp_id">Assay!$C$5</definedName>
+    <definedName name="exp_notes">Assay!$C$17</definedName>
+    <definedName name="exp_rxns">Assay!$C$16</definedName>
+    <definedName name="exp_summary">Assay!$C$9</definedName>
     <definedName name="exp_type">reference!$B$6</definedName>
-    <definedName name="exp_user">Assay!$D$3</definedName>
+    <definedName name="exp_user">Assay!$C$3</definedName>
     <definedName name="exp_version">reference!$B$7</definedName>
     <definedName name="pcr_dna_source">Assay!#REF!</definedName>
-    <definedName name="pcr_enzyme">Assay!$D$15</definedName>
-    <definedName name="pcr_primers">Assay!$D$13</definedName>
-    <definedName name="pcr_primersource">Assay!$D$14</definedName>
-    <definedName name="pcr_targetpanel">Assay!$D$12</definedName>
+    <definedName name="pcr_enzyme">Assay!$C$15</definedName>
+    <definedName name="pcr_primers">Assay!$C$13</definedName>
+    <definedName name="pcr_primersource">Assay!$C$14</definedName>
+    <definedName name="pcr_targetpanel">Assay!$C$12</definedName>
+    <definedName name="template_vol">Assay!$D$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="284">
   <si>
     <t>Assumptions</t>
   </si>
@@ -1141,12 +1142,6 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>30 sec</t>
-  </si>
-  <si>
-    <t>7 sec</t>
-  </si>
-  <si>
     <t>KAPA HiFi ReadyMix</t>
   </si>
   <si>
@@ -1183,9 +1178,6 @@
     <t>sample_type</t>
   </si>
   <si>
-    <t>Added sample type</t>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -1193,6 +1185,30 @@
   </si>
   <si>
     <t>Negative</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t>x35</t>
+  </si>
+  <si>
+    <t>NOMADS8 and 16</t>
+  </si>
+  <si>
+    <t>Corrections to volumes</t>
+  </si>
+  <si>
+    <t>Selected Primer Set</t>
+  </si>
+  <si>
+    <t>template_vol</t>
+  </si>
+  <si>
+    <t>Selected polymerase</t>
+  </si>
+  <si>
+    <t>KAPA HiFI ReadyMix (2x)</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1502,15 +1518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1521,15 +1528,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1632,7 +1630,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1672,20 +1670,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1703,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1743,7 +1741,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1751,23 +1749,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1777,21 +1775,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1827,21 +1825,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1849,57 +1842,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1924,35 +1880,69 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1960,7 +1950,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1974,7 +1968,72 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{50147B5D-B577-4D84-8D3E-2790725A5EE2}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2360,34 +2419,6 @@
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2402,24 +2433,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:K98" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:K98" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
   <autoFilter ref="A2:K98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="25">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="22">
       <calculatedColumnFormula>IF(OR(H3="",I3=""),"",SUM(H3*I3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2437,21 +2468,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="E2:G8" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}" name="tbl_expt_metadata" displayName="tbl_expt_metadata" ref="A1:N2" totalsRowShown="0">
+  <autoFilter ref="A1:N2" xr:uid="{1F7724E8-27D2-44E9-85B4-57378D47D280}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CF92ACF9-25F8-4BAA-B9F1-567A722EDD10}" name="expt_id">
       <calculatedColumnFormula>IF(LEN(exp_id)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
@@ -2488,6 +2519,9 @@
     <tableColumn id="9" xr3:uid="{5C17D014-189E-43E2-A899-4574390B7A58}" name="pcr_targetpanel">
       <calculatedColumnFormula>IF(LEN(pcr_targetpanel)=0,"",pcr_targetpanel)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="14" xr3:uid="{B1248788-8BBB-4F40-90D1-7B509917F807}" name="template_vol">
+      <calculatedColumnFormula>IF(LEN(template_vol)=0,"",template_vol)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="13" xr3:uid="{4786D324-56A9-420B-A7CB-8083E29E50BD}" name="pcr_enzyme">
       <calculatedColumnFormula>IF(pcr_enzyme=0,"",pcr_enzyme)</calculatedColumnFormula>
     </tableColumn>
@@ -2500,22 +2534,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:G97" totalsRowShown="0">
   <autoFilter ref="A1:G97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="15">
       <calculatedColumnFormula>IF(LEN(PCR!C3),PCR!C3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="14">
       <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="13">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="12">
       <calculatedColumnFormula>IF(LEN(PCR!F3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="11">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="10">
       <calculatedColumnFormula>IF(LEN(PCR!G3),PCR!G3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -2827,1563 +2861,1193 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" hidden="1" customWidth="1"/>
-    <col min="2" max="9" width="9" style="7" customWidth="1"/>
+    <col min="1" max="8" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="94" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="95" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="95"/>
-      <c r="L2" s="91" t="s">
+      <c r="H2" s="82"/>
+      <c r="K2" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="75" t="s">
+      <c r="L2" s="89"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="L3" s="89" t="s">
+      <c r="K3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="89"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="75" t="s">
+      <c r="L3" s="95"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="25" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="90" t="s">
+      <c r="K4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="90"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="73" t="s">
+      <c r="L4" s="96"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="99" t="str">
-        <f>IF(OR(ISBLANK(D3),ISBLANK(D4)),"",CONCATENATE("PC",VLOOKUP(D3,reference!I3:J8,2,FALSE),D4))</f>
-        <v/>
-      </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="15" t="s">
+      <c r="B5" s="83"/>
+      <c r="C5" s="86" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="L5" s="92" t="s">
+      <c r="K5" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="92"/>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+      <c r="L5" s="98"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="100" t="str">
-        <f>IF(OR(ISBLANK(D2),ISBLANK(D3),LEN(D5)=0),"",CONCATENATE(D2,"_PCR_",D5))</f>
-        <v/>
-      </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="22"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="87" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
+        <v/>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="22"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="104" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="102" t="str">
-        <f>IF(OR(LEN(D7)=0, LEN(D8)=0),"",CONCATENATE(D7,"_Batch",D8))</f>
-        <v/>
-      </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="15" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="99" t="str">
+        <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
+        <v/>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105" t="str">
-        <f>IF(OR(LEN(D6)=0,LEN(exp_summary)=0),"",CONCATENATE(D6,"_",exp_summary,".xlsx"))</f>
-        <v/>
-      </c>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80" t="str">
+        <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="72" t="str">
-        <f>IF(ISBLANK(D11),"",VLOOKUP(D11,tbl_Assays[],2,FALSE))</f>
-        <v/>
-      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72" t="str">
+        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D12" s="72"/>
       <c r="E12" s="72"/>
       <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="72" t="str">
-        <f>IF(ISBLANK(D11),"",VLOOKUP(D11,tbl_Assays[],3,FALSE))</f>
-        <v/>
-      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72" t="str">
+        <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
+        <v/>
+      </c>
+      <c r="D13" s="72"/>
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="75" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="15" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="75" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="75" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="62" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="63">
+      <c r="D20" s="63">
         <v>0.1</v>
       </c>
+      <c r="E20" s="64"/>
       <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="1:14" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B21" s="79" t="s">
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80" t="s">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80" t="str">
+      <c r="E21" s="76"/>
+      <c r="F21" s="76" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="8"/>
-      <c r="K21" s="83" t="s">
+      <c r="G21" s="76"/>
+      <c r="H21" s="8"/>
+      <c r="J21" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="83"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="65" t="s">
+        <v>14</v>
+      </c>
       <c r="M21" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" s="65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="78">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="str">
+        <f>reference!E24</f>
+        <v/>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="101"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="91" t="str">
+        <f>reference!E56</f>
+        <v/>
+      </c>
+      <c r="K22" s="91"/>
+      <c r="L22" s="67" t="str">
+        <f>reference!F56</f>
+        <v/>
+      </c>
+      <c r="M22" s="67" t="str">
+        <f>reference!G56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="90" t="str">
+        <f>reference!E25</f>
+        <v/>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="94" t="str">
+        <f>reference!F25</f>
+        <v/>
+      </c>
+      <c r="E23" s="94"/>
+      <c r="F23" s="97" t="str">
+        <f>IFERROR(SUM(D23*exp_rxns*(1+$D$20)),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="97"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="91" t="str">
+        <f>reference!E57</f>
+        <v/>
+      </c>
+      <c r="K23" s="91"/>
+      <c r="L23" s="67" t="str">
+        <f>reference!F57</f>
+        <v/>
+      </c>
+      <c r="M23" s="67" t="str">
+        <f>reference!G57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="str">
+        <f>reference!E26</f>
+        <v/>
+      </c>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="94" t="str">
+        <f>reference!F26</f>
+        <v/>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="97" t="str">
+        <f>IFERROR(SUM(D24*exp_rxns*(1+$D$20)),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="97"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="91" t="str">
+        <f>reference!E58</f>
+        <v/>
+      </c>
+      <c r="K24" s="91"/>
+      <c r="L24" s="67" t="str">
+        <f>reference!F58</f>
+        <v/>
+      </c>
+      <c r="M24" s="67" t="str">
+        <f>reference!G58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="str">
+        <f>reference!E27</f>
+        <v/>
+      </c>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="94" t="str">
+        <f>reference!F27</f>
+        <v/>
+      </c>
+      <c r="E25" s="94"/>
+      <c r="F25" s="97" t="str">
+        <f>IFERROR(SUM(D25*exp_rxns*(1+$D$20)),"")</f>
+        <v/>
+      </c>
+      <c r="G25" s="97"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="91" t="str">
+        <f>reference!E59</f>
+        <v/>
+      </c>
+      <c r="K25" s="91"/>
+      <c r="L25" s="67" t="str">
+        <f>reference!F59</f>
+        <v/>
+      </c>
+      <c r="M25" s="67" t="str">
+        <f>reference!G59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="str">
+        <f>reference!E28</f>
+        <v/>
+      </c>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="94" t="str">
+        <f>reference!F28</f>
+        <v/>
+      </c>
+      <c r="E26" s="94"/>
+      <c r="F26" s="97" t="str">
+        <f>IFERROR(SUM(D26*exp_rxns*(1+$D$20)),"")</f>
+        <v/>
+      </c>
+      <c r="G26" s="97"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="91" t="str">
+        <f>reference!E60</f>
+        <v/>
+      </c>
+      <c r="K26" s="91"/>
+      <c r="L26" s="67" t="str">
+        <f>reference!F60</f>
+        <v/>
+      </c>
+      <c r="M26" s="67" t="str">
+        <f>reference!G60</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="90" t="str">
+        <f>reference!E29</f>
+        <v/>
+      </c>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="94" t="str">
+        <f>reference!F29</f>
+        <v/>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="97" t="str">
+        <f>IFERROR(SUM(D27*exp_rxns*(1+$D$20)),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="97"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="102">
+        <f>SUM(D22:D27)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="69" t="str">
+        <f>CONCATENATE("Add ",SUM(D23:D27)," µl of MM to each well")</f>
+        <v>Add 0 µl of MM to each well</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="K30" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="103"/>
+      <c r="M30" s="103"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="8"/>
+      <c r="K32" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" s="27">
         <v>1</v>
       </c>
-      <c r="F22" s="78"/>
-      <c r="G22" s="82" t="s">
+      <c r="C35" s="27">
+        <v>2</v>
+      </c>
+      <c r="D35" s="27">
+        <v>3</v>
+      </c>
+      <c r="E35" s="27">
+        <v>4</v>
+      </c>
+      <c r="F35" s="27">
+        <v>5</v>
+      </c>
+      <c r="G35" s="27">
+        <v>6</v>
+      </c>
+      <c r="H35" s="27">
+        <v>7</v>
+      </c>
+      <c r="I35" s="27">
+        <v>8</v>
+      </c>
+      <c r="J35" s="27">
         <v>9</v>
       </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="86">
-        <v>93</v>
-      </c>
-      <c r="L22" s="86"/>
-      <c r="M22" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="67"/>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B23" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="78"/>
-      <c r="G23" s="71">
-        <f>SUM(E23*exp_rxns*(1+$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="71"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="84">
-        <v>98</v>
-      </c>
-      <c r="L23" s="84"/>
-      <c r="M23" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="85" t="s">
+      <c r="K35" s="27">
+        <v>10</v>
+      </c>
+      <c r="L35" s="27">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78">
-        <v>2</v>
-      </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="71">
-        <f>IF(E24=0,"",SUM(E24*exp_rxns*(1+$E$20)))</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="78">
-        <v>50</v>
-      </c>
-      <c r="L24" s="78"/>
-      <c r="M24" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="85"/>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B25" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78">
-        <v>5</v>
-      </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="71">
-        <f>IF(E25=0,"",SUM(E25*exp_rxns*(1+$E$20)))</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="81">
-        <v>60</v>
-      </c>
-      <c r="L25" s="81"/>
-      <c r="M25" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="N25" s="85"/>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B26" s="77" t="s">
+      <c r="M35" s="27">
         <v>12</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78">
-        <v>1.5</v>
-      </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="71">
-        <f>IF(E26=0,"",SUM(E26*exp_rxns*(1+$E$20)))</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="71"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="78">
-        <v>60</v>
-      </c>
-      <c r="L26" s="78"/>
-      <c r="M26" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="67"/>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="B27" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77">
-        <v>15.2</v>
-      </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="71">
-        <f>SUM(E27*exp_rxns*(1+$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="8"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-    </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>reference!$E$14</f>
-        <v>KAPA HiFi</v>
-      </c>
-      <c r="E28" s="74">
-        <f>SUM(E22:E27)</f>
-        <v>25</v>
-      </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="69" t="str">
-        <f>CONCATENATE("Add ",SUM(E23:E27)," µl of MM to each well")</f>
-        <v>Add 24 µl of MM to each well</v>
-      </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
-        <f>reference!$E$15</f>
-        <v>KAPA HiFi ReadyMix</v>
-      </c>
-      <c r="B29" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80" t="str">
-        <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
-        <v>MM x (µl)</v>
-      </c>
-      <c r="H29" s="80"/>
-      <c r="I29" s="8"/>
-      <c r="K29" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="83"/>
-      <c r="M29" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>reference!$E$15</f>
-        <v>KAPA HiFi ReadyMix</v>
-      </c>
-      <c r="B30" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="78">
-        <v>1</v>
-      </c>
-      <c r="F30" s="78"/>
-      <c r="G30" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="86">
-        <v>93</v>
-      </c>
-      <c r="L30" s="86"/>
-      <c r="M30" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="N30" s="67"/>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>reference!$E$15</f>
-        <v>KAPA HiFi ReadyMix</v>
-      </c>
-      <c r="B31" s="77" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78">
-        <v>12.5</v>
-      </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="71">
-        <f>SUM(E31*exp_rxns*(1+$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="84">
-        <v>98</v>
-      </c>
-      <c r="L31" s="84"/>
-      <c r="M31" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>reference!$E$15</f>
-        <v>KAPA HiFi ReadyMix</v>
-      </c>
-      <c r="B32" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="78">
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="78"/>
-      <c r="G32" s="71">
-        <f>IF(E32=0,"",SUM(E32*exp_rxns*(1+$E$20)))</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="78">
-        <v>50</v>
-      </c>
-      <c r="L32" s="78"/>
-      <c r="M32" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="85"/>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>reference!$E$15</f>
-        <v>KAPA HiFi ReadyMix</v>
-      </c>
-      <c r="B33" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77">
-        <f>25-SUM(E30:F32)</f>
-        <v>10</v>
-      </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="71">
-        <f>SUM(E33*exp_rxns*(1+$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="81">
-        <v>60</v>
-      </c>
-      <c r="L33" s="81"/>
-      <c r="M33" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" s="85"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>reference!$E$15</f>
-        <v>KAPA HiFi ReadyMix</v>
-      </c>
-      <c r="E34" s="74">
-        <f>SUM(E30:F33)</f>
-        <v>25</v>
-      </c>
-      <c r="F34" s="74"/>
-      <c r="G34" s="69" t="str">
-        <f>CONCATENATE("Add ",SUM(E31:E33)," µl of MM to each well")</f>
-        <v>Add 24 µl of MM to each well</v>
-      </c>
-      <c r="H34" s="67"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="78">
-        <v>60</v>
-      </c>
-      <c r="L34" s="78"/>
-      <c r="M34" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="N34" s="67"/>
-    </row>
-    <row r="35" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f>reference!$E$16</f>
-        <v>Q5</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80" t="str">
-        <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
-        <v>MM x (µl)</v>
-      </c>
-      <c r="H35" s="80"/>
-      <c r="I35" s="8"/>
-      <c r="K35" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="83"/>
-      <c r="M35" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" s="65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>reference!$E$16</f>
-        <v>Q5</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="78">
-        <v>8</v>
-      </c>
-      <c r="F36" s="78"/>
-      <c r="G36" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="82"/>
-      <c r="I36" s="8"/>
-      <c r="K36" s="86">
-        <v>98</v>
-      </c>
-      <c r="L36" s="86"/>
-      <c r="M36" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="N36" s="67"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>reference!$E$16</f>
-        <v>Q5</v>
-      </c>
-      <c r="B37" s="77" t="s">
-        <v>218</v>
-      </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="78">
-        <v>14.5</v>
-      </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="71">
-        <f>SUM(E37*exp_rxns*(1+$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="8"/>
-      <c r="K37" s="84">
-        <v>98</v>
-      </c>
-      <c r="L37" s="84"/>
-      <c r="M37" s="67" t="s">
-        <v>261</v>
-      </c>
-      <c r="N37" s="85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>reference!$E$16</f>
-        <v>Q5</v>
-      </c>
-      <c r="B38" s="77" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="78">
-        <v>2.5</v>
-      </c>
-      <c r="F38" s="78"/>
-      <c r="G38" s="71">
-        <f>IF(E38=0,"",SUM(E38*exp_rxns*(1+$E$20)))</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="71"/>
-      <c r="I38" s="8"/>
-      <c r="K38" s="78">
-        <v>98</v>
-      </c>
-      <c r="L38" s="78"/>
-      <c r="M38" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="85"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>reference!$E$16</f>
-        <v>Q5</v>
-      </c>
-      <c r="B39" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77">
-        <f>SUM(25-SUM(E36:F38))</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="71">
-        <f>SUM(E39*exp_rxns*(1+$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="71"/>
-      <c r="I39" s="8"/>
-      <c r="K39" s="81">
-        <v>64</v>
-      </c>
-      <c r="L39" s="81"/>
-      <c r="M39" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" s="85"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>reference!$E$16</f>
-        <v>Q5</v>
-      </c>
-      <c r="E40" s="74">
-        <f>SUM(E36:E39)</f>
-        <v>25</v>
-      </c>
-      <c r="F40" s="74"/>
-      <c r="G40" s="69" t="str">
-        <f>CONCATENATE("Add ",SUM(E37:E39)," µl of MM to each well")</f>
-        <v>Add 17 µl of MM to each well</v>
-      </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="8"/>
-      <c r="K40" s="78">
-        <v>64</v>
-      </c>
-      <c r="L40" s="78"/>
-      <c r="M40" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" s="67"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="L42" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="8"/>
-      <c r="L44" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-      <c r="C47" s="27">
-        <v>1</v>
-      </c>
-      <c r="D47" s="27">
-        <v>2</v>
-      </c>
-      <c r="E47" s="27">
-        <v>3</v>
-      </c>
-      <c r="F47" s="27">
-        <v>4</v>
-      </c>
-      <c r="G47" s="27">
-        <v>5</v>
-      </c>
-      <c r="H47" s="27">
-        <v>6</v>
-      </c>
-      <c r="I47" s="27">
-        <v>7</v>
-      </c>
-      <c r="J47" s="27">
-        <v>8</v>
-      </c>
-      <c r="K47" s="27">
-        <v>9</v>
-      </c>
-      <c r="L47" s="27">
-        <v>10</v>
-      </c>
-      <c r="M47" s="27">
-        <v>11</v>
-      </c>
-      <c r="N47" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="28" t="s">
+    </row>
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="26" t="str">
+      <c r="B36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D3), "",PCR!D3)</f>
         <v/>
       </c>
-      <c r="D48" s="26" t="str">
+      <c r="C36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D11), "",PCR!D11)</f>
         <v/>
       </c>
-      <c r="E48" s="26" t="str">
+      <c r="D36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D19), "",PCR!D19)</f>
         <v/>
       </c>
-      <c r="F48" s="26" t="str">
+      <c r="E36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D27), "",PCR!D27)</f>
         <v/>
       </c>
-      <c r="G48" s="26" t="str">
+      <c r="F36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D35), "",PCR!D35)</f>
         <v/>
       </c>
-      <c r="H48" s="26" t="str">
+      <c r="G36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D43), "",PCR!D43)</f>
         <v/>
       </c>
-      <c r="I48" s="26" t="str">
+      <c r="H36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D51), "",PCR!D51)</f>
         <v/>
       </c>
-      <c r="J48" s="26" t="str">
+      <c r="I36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D59), "",PCR!D59)</f>
         <v/>
       </c>
-      <c r="K48" s="26" t="str">
+      <c r="J36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D67), "",PCR!D67)</f>
         <v/>
       </c>
-      <c r="L48" s="26" t="str">
+      <c r="K36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D75), "",PCR!D75)</f>
         <v/>
       </c>
-      <c r="M48" s="26" t="str">
+      <c r="L36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D83), "",PCR!D83)</f>
         <v/>
       </c>
-      <c r="N48" s="26" t="str">
+      <c r="M36" s="26" t="str">
         <f>IF(ISBLANK(PCR!D91), "",PCR!D91)</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="28" t="s">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="26" t="str">
+      <c r="B37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D4), "",PCR!D4)</f>
         <v/>
       </c>
-      <c r="D49" s="26" t="str">
+      <c r="C37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D12), "",PCR!D12)</f>
         <v/>
       </c>
-      <c r="E49" s="26" t="str">
+      <c r="D37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D20), "",PCR!D20)</f>
         <v/>
       </c>
-      <c r="F49" s="26" t="str">
+      <c r="E37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D28), "",PCR!D28)</f>
         <v/>
       </c>
-      <c r="G49" s="26" t="str">
+      <c r="F37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D36), "",PCR!D36)</f>
         <v/>
       </c>
-      <c r="H49" s="26" t="str">
+      <c r="G37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D44), "",PCR!D44)</f>
         <v/>
       </c>
-      <c r="I49" s="26" t="str">
+      <c r="H37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D52), "",PCR!D52)</f>
         <v/>
       </c>
-      <c r="J49" s="26" t="str">
+      <c r="I37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D60), "",PCR!D60)</f>
         <v/>
       </c>
-      <c r="K49" s="26" t="str">
+      <c r="J37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D68), "",PCR!D68)</f>
         <v/>
       </c>
-      <c r="L49" s="26" t="str">
+      <c r="K37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D76), "",PCR!D76)</f>
         <v/>
       </c>
-      <c r="M49" s="26" t="str">
+      <c r="L37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D84), "",PCR!D84)</f>
         <v/>
       </c>
-      <c r="N49" s="26" t="str">
+      <c r="M37" s="26" t="str">
         <f>IF(ISBLANK(PCR!D92), "",PCR!D92)</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="28" t="s">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="26" t="str">
+      <c r="B38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D5), "",PCR!D5)</f>
         <v/>
       </c>
-      <c r="D50" s="26" t="str">
+      <c r="C38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D13), "",PCR!D13)</f>
         <v/>
       </c>
-      <c r="E50" s="26" t="str">
+      <c r="D38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D21), "",PCR!D21)</f>
         <v/>
       </c>
-      <c r="F50" s="26" t="str">
+      <c r="E38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D29), "",PCR!D29)</f>
         <v/>
       </c>
-      <c r="G50" s="26" t="str">
+      <c r="F38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D37), "",PCR!D37)</f>
         <v/>
       </c>
-      <c r="H50" s="26" t="str">
+      <c r="G38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D45), "",PCR!D45)</f>
         <v/>
       </c>
-      <c r="I50" s="26" t="str">
+      <c r="H38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D53), "",PCR!D53)</f>
         <v/>
       </c>
-      <c r="J50" s="26" t="str">
+      <c r="I38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D61), "",PCR!D61)</f>
         <v/>
       </c>
-      <c r="K50" s="26" t="str">
+      <c r="J38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D69), "",PCR!D69)</f>
         <v/>
       </c>
-      <c r="L50" s="26" t="str">
+      <c r="K38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D77), "",PCR!D77)</f>
         <v/>
       </c>
-      <c r="M50" s="26" t="str">
+      <c r="L38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D85), "",PCR!D85)</f>
         <v/>
       </c>
-      <c r="N50" s="26" t="str">
+      <c r="M38" s="26" t="str">
         <f>IF(ISBLANK(PCR!D93), "",PCR!D93)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28" t="s">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="26" t="str">
+      <c r="B39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D6), "",PCR!D6)</f>
         <v/>
       </c>
-      <c r="D51" s="26" t="str">
+      <c r="C39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D14), "",PCR!D14)</f>
         <v/>
       </c>
-      <c r="E51" s="26" t="str">
+      <c r="D39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D22), "",PCR!D22)</f>
         <v/>
       </c>
-      <c r="F51" s="26" t="str">
+      <c r="E39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D30), "",PCR!D30)</f>
         <v/>
       </c>
-      <c r="G51" s="26" t="str">
+      <c r="F39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D38), "",PCR!D38)</f>
         <v/>
       </c>
-      <c r="H51" s="26" t="str">
+      <c r="G39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D46), "",PCR!D46)</f>
         <v/>
       </c>
-      <c r="I51" s="26" t="str">
+      <c r="H39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D54), "",PCR!D54)</f>
         <v/>
       </c>
-      <c r="J51" s="26" t="str">
+      <c r="I39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D62), "",PCR!D62)</f>
         <v/>
       </c>
-      <c r="K51" s="26" t="str">
+      <c r="J39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D70), "",PCR!D70)</f>
         <v/>
       </c>
-      <c r="L51" s="26" t="str">
+      <c r="K39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D78), "",PCR!D78)</f>
         <v/>
       </c>
-      <c r="M51" s="26" t="str">
+      <c r="L39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D86), "",PCR!D86)</f>
         <v/>
       </c>
-      <c r="N51" s="26" t="str">
+      <c r="M39" s="26" t="str">
         <f>IF(ISBLANK(PCR!D94), "",PCR!D94)</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28" t="s">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="26" t="str">
+      <c r="B40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D7), "",PCR!D7)</f>
         <v/>
       </c>
-      <c r="D52" s="26" t="str">
+      <c r="C40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D15), "",PCR!D15)</f>
         <v/>
       </c>
-      <c r="E52" s="26" t="str">
+      <c r="D40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D23), "",PCR!D23)</f>
         <v/>
       </c>
-      <c r="F52" s="26" t="str">
+      <c r="E40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D31), "",PCR!D31)</f>
         <v/>
       </c>
-      <c r="G52" s="26" t="str">
+      <c r="F40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D39), "",PCR!D39)</f>
         <v/>
       </c>
-      <c r="H52" s="26" t="str">
+      <c r="G40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D47), "",PCR!D47)</f>
         <v/>
       </c>
-      <c r="I52" s="26" t="str">
+      <c r="H40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D55), "",PCR!D55)</f>
         <v/>
       </c>
-      <c r="J52" s="26" t="str">
+      <c r="I40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D63), "",PCR!D63)</f>
         <v/>
       </c>
-      <c r="K52" s="26" t="str">
+      <c r="J40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D71), "",PCR!D71)</f>
         <v/>
       </c>
-      <c r="L52" s="26" t="str">
+      <c r="K40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D79), "",PCR!D79)</f>
         <v/>
       </c>
-      <c r="M52" s="26" t="str">
+      <c r="L40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D87), "",PCR!D87)</f>
         <v/>
       </c>
-      <c r="N52" s="26" t="str">
+      <c r="M40" s="26" t="str">
         <f>IF(ISBLANK(PCR!D95), "",PCR!D95)</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="28" t="s">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="26" t="str">
+      <c r="B41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D8), "",PCR!D8)</f>
         <v/>
       </c>
-      <c r="D53" s="26" t="str">
+      <c r="C41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D16), "",PCR!D16)</f>
         <v/>
       </c>
-      <c r="E53" s="26" t="str">
+      <c r="D41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D24), "",PCR!D24)</f>
         <v/>
       </c>
-      <c r="F53" s="26" t="str">
+      <c r="E41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D32), "",PCR!D32)</f>
         <v/>
       </c>
-      <c r="G53" s="26" t="str">
+      <c r="F41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D40), "",PCR!D40)</f>
         <v/>
       </c>
-      <c r="H53" s="26" t="str">
+      <c r="G41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D48), "",PCR!D48)</f>
         <v/>
       </c>
-      <c r="I53" s="26" t="str">
+      <c r="H41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D56), "",PCR!D56)</f>
         <v/>
       </c>
-      <c r="J53" s="26" t="str">
+      <c r="I41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D64), "",PCR!D64)</f>
         <v/>
       </c>
-      <c r="K53" s="26" t="str">
+      <c r="J41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D72), "",PCR!D72)</f>
         <v/>
       </c>
-      <c r="L53" s="26" t="str">
+      <c r="K41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D80), "",PCR!D80)</f>
         <v/>
       </c>
-      <c r="M53" s="26" t="str">
+      <c r="L41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D88), "",PCR!D88)</f>
         <v/>
       </c>
-      <c r="N53" s="26" t="str">
+      <c r="M41" s="26" t="str">
         <f>IF(ISBLANK(PCR!D96), "",PCR!D96)</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C54" s="26" t="str">
+      <c r="B42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D9), "",PCR!D9)</f>
         <v/>
       </c>
-      <c r="D54" s="26" t="str">
+      <c r="C42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D17), "",PCR!D17)</f>
         <v/>
       </c>
-      <c r="E54" s="26" t="str">
+      <c r="D42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D25), "",PCR!D25)</f>
         <v/>
       </c>
-      <c r="F54" s="26" t="str">
+      <c r="E42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D33), "",PCR!D33)</f>
         <v/>
       </c>
-      <c r="G54" s="26" t="str">
+      <c r="F42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D41), "",PCR!D41)</f>
         <v/>
       </c>
-      <c r="H54" s="26" t="str">
+      <c r="G42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D49), "",PCR!D49)</f>
         <v/>
       </c>
-      <c r="I54" s="26" t="str">
+      <c r="H42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D57), "",PCR!D57)</f>
         <v/>
       </c>
-      <c r="J54" s="26" t="str">
+      <c r="I42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D65), "",PCR!D65)</f>
         <v/>
       </c>
-      <c r="K54" s="26" t="str">
+      <c r="J42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D73), "",PCR!D73)</f>
         <v/>
       </c>
-      <c r="L54" s="26" t="str">
+      <c r="K42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D81), "",PCR!D81)</f>
         <v/>
       </c>
-      <c r="M54" s="26" t="str">
+      <c r="L42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D89), "",PCR!D89)</f>
         <v/>
       </c>
-      <c r="N54" s="26" t="str">
+      <c r="M42" s="26" t="str">
         <f>IF(ISBLANK(PCR!D97), "",PCR!D97)</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="28" t="s">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C55" s="26" t="str">
+      <c r="B43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D10), "",PCR!D10)</f>
         <v/>
       </c>
-      <c r="D55" s="26" t="str">
+      <c r="C43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D18), "",PCR!D18)</f>
         <v/>
       </c>
-      <c r="E55" s="26" t="str">
+      <c r="D43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D26), "",PCR!D26)</f>
         <v/>
       </c>
-      <c r="F55" s="26" t="str">
+      <c r="E43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D34), "",PCR!D34)</f>
         <v/>
       </c>
-      <c r="G55" s="26" t="str">
+      <c r="F43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D42), "",PCR!D42)</f>
         <v/>
       </c>
-      <c r="H55" s="26" t="str">
+      <c r="G43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D50), "",PCR!D50)</f>
         <v/>
       </c>
-      <c r="I55" s="26" t="str">
+      <c r="H43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D58), "",PCR!D58)</f>
         <v/>
       </c>
-      <c r="J55" s="26" t="str">
+      <c r="I43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D66), "",PCR!D66)</f>
         <v/>
       </c>
-      <c r="K55" s="26" t="str">
+      <c r="J43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D74), "",PCR!D74)</f>
         <v/>
       </c>
-      <c r="L55" s="26" t="str">
+      <c r="K43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D82), "",PCR!D82)</f>
         <v/>
       </c>
-      <c r="M55" s="26" t="str">
+      <c r="L43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D90), "",PCR!D90)</f>
         <v/>
       </c>
-      <c r="N55" s="26" t="str">
+      <c r="M43" s="26" t="str">
         <f>IF(ISBLANK(PCR!D98), "",PCR!D98)</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="117">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B43:H43"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L18"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E21:F21"/>
+  <mergeCells count="69">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="C17:K18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D4 D11 D14:D17">
-    <cfRule type="expression" dxfId="29" priority="11">
-      <formula>COUNTIF(D2,"")</formula>
+  <conditionalFormatting sqref="A25:C27">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>A25="-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D8">
-    <cfRule type="expression" dxfId="28" priority="1">
-      <formula>COUNTIF(D7,"")</formula>
+  <conditionalFormatting sqref="C2:C4 C11 C14:C17">
+    <cfRule type="expression" dxfId="8" priority="17">
+      <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="D10 D9:G9" xr:uid="{B2B8BFB3-0AE7-4ECF-A2D1-0DE481577069}"/>
+  <conditionalFormatting sqref="C7:C8">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>COUNTIF(C7,"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:E22">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(D22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:E27">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>A25="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:G27">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>$A22="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:M26">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>J22=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:M26">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>LEN(M22)&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C10 C9:F9" xr:uid="{B2B8BFB3-0AE7-4ECF-A2D1-0DE481577069}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:F4" xr:uid="{9E3F1EDD-ECC0-4744-B8A4-53A5A89BEC01}">
+      <formula1>LEN(C4)=3</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Numbers should be three digits long" sqref="C5:F5" xr:uid="{3305B6EA-24D3-4F5D-A2AC-BB3F2ACD221C}"/>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4397,25 +4061,25 @@
           <x14:formula1>
             <xm:f>reference!$E$3:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:G11</xm:sqref>
+          <xm:sqref>C11:F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
           <x14:formula1>
             <xm:f>reference!$I$3:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ACDC75C9-791B-4E82-A9A3-D2BDFD36107F}">
           <x14:formula1>
             <xm:f>reference!$L$3:$L$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D7:G7</xm:sqref>
+          <xm:sqref>C7:F7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7DC0BE7F-A938-49D1-8508-05D8BFD25456}">
           <x14:formula1>
             <xm:f>reference!$E$14:$E$16</xm:f>
           </x14:formula1>
-          <xm:sqref>D15:G15</xm:sqref>
+          <xm:sqref>C15:F15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4447,21 +4111,21 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
@@ -4477,7 +4141,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>186</v>
@@ -6827,12 +6491,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C3:E98">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I98 K3:K98 C3:F98">
-    <cfRule type="expression" dxfId="26" priority="10">
+  <conditionalFormatting sqref="C3:F98 H3:I98 K3:K98">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6901,10 +6565,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7012,7 +6676,7 @@
         <v>214</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" s="53" t="s">
         <v>253</v>
@@ -7032,13 +6696,13 @@
         <v>23</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
@@ -7049,16 +6713,16 @@
         <v>172</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
@@ -7085,7 +6749,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
         <v>257</v>
@@ -7126,7 +6790,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -7134,24 +6798,531 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="70" t="str">
+        <f t="shared" ref="E24:E29" si="0">IF(pcr_enzyme=$E$14,E32,IF(pcr_enzyme=$E$15,E40,IF(pcr_enzyme=$E$16,E48,"")))</f>
+        <v/>
+      </c>
+      <c r="F24" s="70" t="str">
+        <f>IF(template_vol="","",template_vol)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="70" t="str">
+        <f>IF(pcr_enzyme=$E$14,F33,IF(pcr_enzyme=$E$15,F41,IF(pcr_enzyme=$E$16,F49,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="70" t="str">
+        <f>IF(pcr_enzyme=$E$14,F34,IF(pcr_enzyme=$E$15,F42,IF(pcr_enzyme=$E$16,F50,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="70" t="str">
+        <f>IF(pcr_enzyme=$E$14,F35,IF(pcr_enzyme=$E$15,F43,IF(pcr_enzyme=$E$16,F51,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="70" t="str">
+        <f>IF(pcr_enzyme=$E$14,F36,IF(pcr_enzyme=$E$15,F44,IF(pcr_enzyme=$E$16,F52,"")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="70" t="str">
+        <f>IF(E29="","",SUM(25-SUM(F24:F28)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32">
+        <f>template_vol</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>217</v>
+      </c>
+      <c r="F40">
+        <f>template_vol</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <f>SUM(25-SUM(F40:F42))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="23"/>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48">
+        <f>template_vol</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E63,IF(exp_assay=$E$5,E70,IF(exp_assay=$E$6,E76,IF(exp_assay=$E$7,E83,""))))</f>
+        <v/>
+      </c>
+      <c r="F56" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!F63,IF(exp_assay=$E$5,F70,IF(exp_assay=$E$6,F76,IF(exp_assay=$E$7,F83,""))))</f>
+        <v/>
+      </c>
+      <c r="G56" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!G63,IF(exp_assay=$E$5,G70,IF(exp_assay=$E$6,G76,IF(exp_assay=$E$7,G83,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E64,IF(exp_assay=$E$5,E71,IF(exp_assay=$E$6,E77,IF(exp_assay=$E$7,E84,""))))</f>
+        <v/>
+      </c>
+      <c r="F57" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!F64,IF(exp_assay=$E$5,F71,IF(exp_assay=$E$6,F77,IF(exp_assay=$E$7,F84,""))))</f>
+        <v/>
+      </c>
+      <c r="G57" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!G64,IF(exp_assay=$E$5,G71,IF(exp_assay=$E$6,G77,IF(exp_assay=$E$7,G84,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E65,IF(exp_assay=$E$5,E72,IF(exp_assay=$E$6,E78,IF(exp_assay=$E$7,E85,""))))</f>
+        <v/>
+      </c>
+      <c r="F58" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!F65,IF(exp_assay=$E$5,F72,IF(exp_assay=$E$6,F78,IF(exp_assay=$E$7,F85,""))))</f>
+        <v/>
+      </c>
+      <c r="G58" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!G65,IF(exp_assay=$E$5,G72,IF(exp_assay=$E$6,G78,IF(exp_assay=$E$7,G85,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E66,IF(exp_assay=$E$5,E73,IF(exp_assay=$E$6,E79,IF(exp_assay=$E$7,E86,""))))</f>
+        <v/>
+      </c>
+      <c r="F59" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!F66,IF(exp_assay=$E$5,F73,IF(exp_assay=$E$6,F79,IF(exp_assay=$E$7,F86,""))))</f>
+        <v/>
+      </c>
+      <c r="G59" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!G66,IF(exp_assay=$E$5,G73,IF(exp_assay=$E$6,G79,IF(exp_assay=$E$7,G86,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E67,IF(exp_assay=$E$5,E74,IF(exp_assay=$E$6,E80,IF(exp_assay=$E$7,E87,""))))</f>
+        <v/>
+      </c>
+      <c r="F60" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!F67,IF(exp_assay=$E$5,F74,IF(exp_assay=$E$6,F80,IF(exp_assay=$E$7,F87,""))))</f>
+        <v/>
+      </c>
+      <c r="G60" s="70" t="str">
+        <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!G67,IF(exp_assay=$E$5,G74,IF(exp_assay=$E$6,G80,IF(exp_assay=$E$7,G87,""))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>93</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>98</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>50</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>60</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="23" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>278</v>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>93</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>60</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>60</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>93</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>50</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>60</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7171,7 +7342,9 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7390,10 +7563,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7402,11 +7575,11 @@
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="7" width="12.125" customWidth="1"/>
     <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -7444,10 +7617,13 @@
         <v>177</v>
       </c>
       <c r="M1" t="s">
+        <v>281</v>
+      </c>
+      <c r="N1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(LEN(exp_id)=0,"",exp_id)</f>
         <v/>
@@ -7466,7 +7642,7 @@
       </c>
       <c r="E2">
         <f>IF(LEN(exp_version)=0,"",exp_version)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_assay)=0,"",exp_assay)</f>
@@ -7497,12 +7673,16 @@
         <v/>
       </c>
       <c r="M2" t="str">
+        <f>IF(LEN(template_vol)=0,"",template_vol)</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
         <f>IF(pcr_enzyme=0,"",pcr_enzyme)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="38/yEmFxISJT1sY8Z2orWimA3cEyEJZ0P1DXv9yg/yio8fwMqxXUFmuz44H2ybJU+WY3aTg/nsN+nWFHZW5RJw==" saltValue="dQEaq+u+fjoGcyZDox/wsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vph7DaMh3SyowaNNd8/hWiOan38yUHTDW1w5tTlbGEdRpJuRTmeOvrHT9rmEAjHGl0Numj/KRrc+UvQhk/Kdtg==" saltValue="/M7Z5DLigzvvgEv+lbbvig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7538,7 +7718,7 @@
         <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D1" t="s">
         <v>168</v>

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D19743-246C-4057-B056-580D6BED0E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B96FEF-95F2-4CF4-A747-AB3CC742A90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -159,30 +159,6 @@
     <t>Overage</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2. Clean-up with 23 µl AMPPure beads (1X ratio), mix and incubate at RT for 5 min. Pellet on magnet for 8 min and wash 2 x 200 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>µ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>l 80%  fresh EtoH, spin, dry, then re-suspend in 15 µl EB and transfer to fresh tube / well</t>
-    </r>
-  </si>
-  <si>
     <t>Look-ups</t>
   </si>
   <si>
@@ -612,9 +588,6 @@
   </si>
   <si>
     <t>NOMADS PCR Worksheet</t>
-  </si>
-  <si>
-    <t>1. Run 2 µl of PCR product on a 1% agarose gel, picture and annotate it</t>
   </si>
   <si>
     <t>(Enter in Gel Image Tab)</t>
@@ -1234,6 +1207,12 @@
   <si>
     <t>Rxn volume</t>
   </si>
+  <si>
+    <t>1. Run 1 µl of PCR product on a 1% agarose gel, picture and annotate it</t>
+  </si>
+  <si>
+    <t>2. Clean-up with 12 µl (0.5X) AMPPure beads per sample, mix and incubate at RT for 5 min. Pellet on magnet for 8 min and wash 2 x 200 µl 80%  fresh EtoH, spin, dry, then re-suspend in 15 µl EB and transfer to fresh tube / well</t>
+  </si>
 </sst>
 </file>
 
@@ -1244,7 +1223,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1300,12 +1279,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1834,7 +1807,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1854,14 +1827,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1888,27 +1861,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1955,7 +1928,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1963,19 +1936,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2051,7 +2024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2112,7 +2085,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2139,7 +2112,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3149,8 +3122,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3160,7 +3133,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -3177,7 +3150,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="93"/>
       <c r="C2" s="105"/>
@@ -3185,17 +3158,17 @@
       <c r="E2" s="105"/>
       <c r="F2" s="105"/>
       <c r="G2" s="103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H2" s="103"/>
       <c r="K2" s="110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L2" s="110"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="93"/>
       <c r="C3" s="106"/>
@@ -3203,7 +3176,7 @@
       <c r="E3" s="106"/>
       <c r="F3" s="106"/>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K3" s="111" t="s">
         <v>3</v>
@@ -3212,7 +3185,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="93"/>
       <c r="C4" s="109"/>
@@ -3220,7 +3193,7 @@
       <c r="E4" s="109"/>
       <c r="F4" s="109"/>
       <c r="G4" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K4" s="112" t="s">
         <v>4</v>
@@ -3229,7 +3202,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="107" t="str">
@@ -3240,16 +3213,16 @@
       <c r="E5" s="107"/>
       <c r="F5" s="107"/>
       <c r="G5" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K5" s="113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="108" t="str">
@@ -3265,7 +3238,7 @@
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="115"/>
       <c r="C7" s="97"/>
@@ -3273,12 +3246,12 @@
       <c r="E7" s="97"/>
       <c r="F7" s="97"/>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="115" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="115"/>
       <c r="C8" s="97"/>
@@ -3286,12 +3259,12 @@
       <c r="E8" s="97"/>
       <c r="F8" s="97"/>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="116"/>
       <c r="C9" s="118" t="str">
@@ -3302,12 +3275,12 @@
       <c r="E9" s="118"/>
       <c r="F9" s="118"/>
       <c r="G9" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="116"/>
       <c r="C10" s="117" t="str">
@@ -3322,7 +3295,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="119"/>
@@ -3330,12 +3303,12 @@
       <c r="E11" s="119"/>
       <c r="F11" s="119"/>
       <c r="G11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B12" s="95"/>
       <c r="C12" s="96" t="str">
@@ -3346,12 +3319,12 @@
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
       <c r="G12" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="95"/>
       <c r="C13" s="96" t="str">
@@ -3362,12 +3335,12 @@
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
       <c r="G13" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B14" s="93"/>
       <c r="C14" s="97"/>
@@ -3375,12 +3348,12 @@
       <c r="E14" s="97"/>
       <c r="F14" s="97"/>
       <c r="G14" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B15" s="93"/>
       <c r="C15" s="97"/>
@@ -3388,12 +3361,12 @@
       <c r="E15" s="97"/>
       <c r="F15" s="97"/>
       <c r="G15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="93"/>
       <c r="C16" s="97"/>
@@ -3404,7 +3377,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" s="93"/>
       <c r="C17" s="100"/>
@@ -3442,7 +3415,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="12" t="s">
@@ -3483,7 +3456,7 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
@@ -3708,7 +3681,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -3718,14 +3691,14 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="K30" s="85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="103" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="B31" s="103"/>
       <c r="C31" s="103"/>
@@ -3742,7 +3715,7 @@
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -3752,7 +3725,7 @@
       <c r="G32" s="15"/>
       <c r="H32" s="8"/>
       <c r="K32" s="94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L32" s="94"/>
       <c r="M32" s="94"/>
@@ -3772,7 +3745,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3822,7 +3795,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="21" t="str">
         <f>PCR!$G3</f>
@@ -3875,7 +3848,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="21" t="str">
         <f>PCR!$G4</f>
@@ -3928,7 +3901,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="21" t="str">
         <f>PCR!$G5</f>
@@ -3981,7 +3954,7 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="21" t="str">
         <f>PCR!$G6</f>
@@ -4034,7 +4007,7 @@
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="21" t="str">
         <f>PCR!$G7</f>
@@ -4087,7 +4060,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="21" t="str">
         <f>PCR!$G8</f>
@@ -4140,7 +4113,7 @@
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B42" s="21" t="str">
         <f>PCR!$G9</f>
@@ -4193,7 +4166,7 @@
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="21" t="str">
         <f>PCR!$G10</f>
@@ -4249,7 +4222,6 @@
       <c r="B44" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A31:M31"/>
@@ -4484,13 +4456,13 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>5</v>
@@ -4499,28 +4471,28 @@
         <v>21</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H2" s="59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J2" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="K2" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="60" t="s">
-        <v>158</v>
-      </c>
       <c r="M2" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4532,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
@@ -4563,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -4594,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -4625,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -4656,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -4687,7 +4659,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -4718,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -4749,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
@@ -4780,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -4811,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -4842,7 +4814,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -4873,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -4904,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -4935,7 +4907,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -4966,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -4997,7 +4969,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
@@ -5028,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
@@ -5059,7 +5031,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -5090,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -5121,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -5152,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -5183,7 +5155,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
@@ -5214,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -5245,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="73"/>
@@ -5276,7 +5248,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
@@ -5307,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -5338,7 +5310,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -5369,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -5400,7 +5372,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -5431,7 +5403,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -5462,7 +5434,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -5493,7 +5465,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="73"/>
       <c r="E34" s="73"/>
@@ -5524,7 +5496,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
@@ -5555,7 +5527,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -5586,7 +5558,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -5617,7 +5589,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -5648,7 +5620,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -5679,7 +5651,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -5710,7 +5682,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -5741,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
@@ -5772,7 +5744,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
@@ -5803,7 +5775,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -5834,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="24"/>
@@ -5865,7 +5837,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -5896,7 +5868,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -5927,7 +5899,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -5958,7 +5930,7 @@
         <v>6</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -5989,7 +5961,7 @@
         <v>6</v>
       </c>
       <c r="C50" s="81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
@@ -6020,7 +5992,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
@@ -6051,7 +6023,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="24"/>
@@ -6082,7 +6054,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -6113,7 +6085,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="24"/>
@@ -6144,7 +6116,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="24"/>
@@ -6175,7 +6147,7 @@
         <v>7</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="24"/>
@@ -6206,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="24"/>
@@ -6237,7 +6209,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="73"/>
       <c r="E58" s="73"/>
@@ -6268,7 +6240,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
@@ -6299,7 +6271,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="24"/>
@@ -6330,7 +6302,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
@@ -6361,7 +6333,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
@@ -6392,7 +6364,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
@@ -6423,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
@@ -6454,7 +6426,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
@@ -6485,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="73"/>
       <c r="E66" s="73"/>
@@ -6516,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
@@ -6547,7 +6519,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="24"/>
@@ -6578,7 +6550,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="24"/>
@@ -6609,7 +6581,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="24"/>
@@ -6640,7 +6612,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="24"/>
       <c r="E71" s="24"/>
@@ -6671,7 +6643,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
@@ -6702,7 +6674,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
@@ -6733,7 +6705,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
@@ -6764,7 +6736,7 @@
         <v>10</v>
       </c>
       <c r="C75" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
@@ -6795,7 +6767,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="24"/>
@@ -6826,7 +6798,7 @@
         <v>10</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="24"/>
@@ -6857,7 +6829,7 @@
         <v>10</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="24"/>
@@ -6888,7 +6860,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="24"/>
@@ -6919,7 +6891,7 @@
         <v>10</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D80" s="24"/>
       <c r="E80" s="24"/>
@@ -6950,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="24"/>
       <c r="E81" s="24"/>
@@ -6981,7 +6953,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
@@ -7012,7 +6984,7 @@
         <v>11</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
@@ -7043,7 +7015,7 @@
         <v>11</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="24"/>
@@ -7074,7 +7046,7 @@
         <v>11</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="24"/>
@@ -7105,7 +7077,7 @@
         <v>11</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="24"/>
@@ -7136,7 +7108,7 @@
         <v>11</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24"/>
@@ -7167,7 +7139,7 @@
         <v>11</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="24"/>
@@ -7198,7 +7170,7 @@
         <v>11</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="24"/>
@@ -7229,7 +7201,7 @@
         <v>11</v>
       </c>
       <c r="C90" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90" s="73"/>
       <c r="E90" s="73"/>
@@ -7260,7 +7232,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
@@ -7291,7 +7263,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="24"/>
@@ -7322,7 +7294,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D93" s="24"/>
       <c r="E93" s="24"/>
@@ -7353,7 +7325,7 @@
         <v>12</v>
       </c>
       <c r="C94" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
@@ -7384,7 +7356,7 @@
         <v>12</v>
       </c>
       <c r="C95" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D95" s="24"/>
       <c r="E95" s="24"/>
@@ -7415,7 +7387,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D96" s="24"/>
       <c r="E96" s="24"/>
@@ -7446,7 +7418,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D97" s="24"/>
       <c r="E97" s="24"/>
@@ -7477,7 +7449,7 @@
         <v>12</v>
       </c>
       <c r="C98" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" s="73"/>
       <c r="E98" s="73"/>
@@ -7689,10 +7661,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -7710,7 +7682,7 @@
   </sheetPr>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -7731,11 +7703,11 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="4"/>
       <c r="I1" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -7745,107 +7717,107 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="E2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G2" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="I2" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>153</v>
-      </c>
       <c r="L2" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" s="6"/>
       <c r="E3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="I3" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L3" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="G4" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="29" t="s">
-        <v>149</v>
-      </c>
       <c r="I4" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L5" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
@@ -7853,19 +7825,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
@@ -7881,95 +7853,95 @@
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I12" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="53" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F24" s="53" t="str">
         <f>IF(pcr_enzyme=$E$14,F32,IF(pcr_enzyme=$E$15,F42,IF(pcr_enzyme=$E$16,F52,"")))</f>
@@ -8028,13 +8000,13 @@
     </row>
     <row r="31" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F31" s="18"/>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -8042,7 +8014,7 @@
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F33">
         <f>SUM(F35:F38)</f>
@@ -8051,7 +8023,7 @@
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F34">
         <v>25</v>
@@ -8059,7 +8031,7 @@
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F35">
         <v>0.3</v>
@@ -8067,7 +8039,7 @@
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F36">
         <v>0.75</v>
@@ -8075,7 +8047,7 @@
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -8101,13 +8073,13 @@
     </row>
     <row r="41" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F41" s="18"/>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -8115,7 +8087,7 @@
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F43">
         <f>SUM(F45:F46)</f>
@@ -8124,7 +8096,7 @@
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F44">
         <v>25</v>
@@ -8132,7 +8104,7 @@
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F45">
         <v>15.5</v>
@@ -8167,13 +8139,13 @@
     </row>
     <row r="51" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F51" s="18"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -8181,7 +8153,7 @@
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F53">
         <f>SUM(F55:F56)</f>
@@ -8190,7 +8162,7 @@
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -8198,7 +8170,7 @@
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F55">
         <v>14.5</v>
@@ -8233,7 +8205,7 @@
     </row>
     <row r="61" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -8338,7 +8310,7 @@
     </row>
     <row r="70" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -8348,7 +8320,7 @@
         <v>93</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G71" s="54"/>
     </row>
@@ -8406,12 +8378,12 @@
         <v>8</v>
       </c>
       <c r="F77" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -8421,7 +8393,7 @@
         <v>95</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.25">
@@ -8440,7 +8412,7 @@
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.25">
@@ -8451,7 +8423,7 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.25">
@@ -8467,7 +8439,7 @@
         <v>8</v>
       </c>
       <c r="F84" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.25">
@@ -8475,7 +8447,7 @@
     </row>
     <row r="86" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
@@ -8485,7 +8457,7 @@
         <v>93</v>
       </c>
       <c r="F87" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G87" s="54"/>
     </row>
@@ -8543,12 +8515,12 @@
         <v>8</v>
       </c>
       <c r="F93" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E94" s="18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
@@ -8558,7 +8530,7 @@
         <v>93</v>
       </c>
       <c r="F95" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G95" s="54"/>
     </row>
@@ -8616,12 +8588,12 @@
         <v>8</v>
       </c>
       <c r="F101" s="54" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.25">
@@ -8651,7 +8623,7 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8668,14 +8640,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8687,24 +8659,24 @@
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" s="31"/>
     </row>
@@ -8713,49 +8685,49 @@
         <v>23</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C11" s="31"/>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -8767,70 +8739,70 @@
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
     </row>
     <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
     </row>
     <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -8842,21 +8814,21 @@
     </row>
     <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -8890,46 +8862,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" t="s">
         <v>175</v>
       </c>
-      <c r="E1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" t="s">
-        <v>177</v>
-      </c>
       <c r="M1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9021,25 +8993,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B96FEF-95F2-4CF4-A747-AB3CC742A90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4212B21-876E-4C5C-A705-5C5A97B76FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="23280" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -3122,16 +3122,16 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="102" t="s">
         <v>160</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="L1" s="102"/>
       <c r="M1" s="102"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>134</v>
       </c>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="L2" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="92" t="s">
         <v>150</v>
       </c>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="L3" s="111"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="92" t="s">
         <v>158</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="L4" s="112"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>153</v>
       </c>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="L5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
         <v>135</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="K6" s="113"/>
       <c r="L6" s="113"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
         <v>198</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="115" t="s">
         <v>199</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="116" t="s">
         <v>194</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="116" t="s">
         <v>203</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="G10" s="117"/>
       <c r="H10" s="117"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="92" t="s">
         <v>149</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
         <v>164</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
         <v>165</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="92" t="s">
         <v>190</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="92" t="s">
         <v>261</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="92" t="s">
         <v>136</v>
       </c>
@@ -3375,7 +3375,7 @@
       <c r="F16" s="97"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="92" t="s">
         <v>188</v>
       </c>
@@ -3390,7 +3390,7 @@
       <c r="J17" s="100"/>
       <c r="K17" s="100"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
       <c r="C18" s="100"/>
@@ -3403,7 +3403,7 @@
       <c r="J18" s="100"/>
       <c r="K18" s="100"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
@@ -3413,7 +3413,7 @@
       <c r="H19"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="82" t="s">
         <v>159</v>
       </c>
@@ -3427,7 +3427,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="99" t="s">
         <v>6</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="86" t="s">
         <v>215</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="str">
         <f>reference!E25</f>
         <v/>
@@ -3515,7 +3515,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="86" t="str">
         <f>reference!E26</f>
         <v/>
@@ -3548,7 +3548,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="str">
         <f>reference!E27</f>
         <v/>
@@ -3581,7 +3581,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="86" t="str">
         <f>reference!E28</f>
         <v/>
@@ -3614,7 +3614,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="86" t="str">
         <f>reference!E29</f>
         <v/>
@@ -3646,7 +3646,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="84" t="str">
         <f>IF(SUM(D22:E27)=0,"",SUM(D22:E27))</f>
         <v/>
@@ -3672,14 +3672,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
       <c r="F29" s="52"/>
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>290</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="L30" s="85"/>
       <c r="M30" s="85"/>
     </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="103" t="s">
         <v>291</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="L31" s="103"/>
       <c r="M31" s="103"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
         <v>137</v>
       </c>
@@ -3730,7 +3730,7 @@
       <c r="L32" s="94"/>
       <c r="M32" s="94"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3740,7 +3740,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>23</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="G34" s="114"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35" s="22">
         <v>1</v>
@@ -3793,7 +3793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>26</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>27</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>28</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23" t="s">
         <v>29</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
         <v>30</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>31</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23" t="s">
         <v>32</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>33</v>
       </c>
@@ -4217,11 +4217,12 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A31:M31"/>
@@ -4421,19 +4422,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="6.625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.59765625" customWidth="1"/>
+    <col min="4" max="5" width="11.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -4454,7 +4455,7 @@
       <c r="L1" s="123"/>
       <c r="M1" s="124"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>34</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61">
         <v>1</v>
       </c>
@@ -4526,7 +4527,7 @@
       </c>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69">
         <v>2</v>
       </c>
@@ -4557,7 +4558,7 @@
       </c>
       <c r="M4" s="70"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69">
         <v>3</v>
       </c>
@@ -4588,7 +4589,7 @@
       </c>
       <c r="M5" s="70"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69">
         <v>4</v>
       </c>
@@ -4619,7 +4620,7 @@
       </c>
       <c r="M6" s="70"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69">
         <v>5</v>
       </c>
@@ -4650,7 +4651,7 @@
       </c>
       <c r="M7" s="70"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69">
         <v>6</v>
       </c>
@@ -4681,7 +4682,7 @@
       </c>
       <c r="M8" s="70"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69">
         <v>7</v>
       </c>
@@ -4712,7 +4713,7 @@
       </c>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71">
         <v>8</v>
       </c>
@@ -4743,7 +4744,7 @@
       </c>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="M11" s="68"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69">
         <v>10</v>
       </c>
@@ -4805,7 +4806,7 @@
       </c>
       <c r="M12" s="70"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="69">
         <v>11</v>
       </c>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="M13" s="70"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69">
         <v>12</v>
       </c>
@@ -4867,7 +4868,7 @@
       </c>
       <c r="M14" s="70"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69">
         <v>13</v>
       </c>
@@ -4898,7 +4899,7 @@
       </c>
       <c r="M15" s="70"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69">
         <v>14</v>
       </c>
@@ -4929,7 +4930,7 @@
       </c>
       <c r="M16" s="70"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69">
         <v>15</v>
       </c>
@@ -4960,7 +4961,7 @@
       </c>
       <c r="M17" s="70"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="71">
         <v>16</v>
       </c>
@@ -4991,7 +4992,7 @@
       </c>
       <c r="M18" s="79"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61">
         <v>17</v>
       </c>
@@ -5022,7 +5023,7 @@
       </c>
       <c r="M19" s="68"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="69">
         <v>18</v>
       </c>
@@ -5053,7 +5054,7 @@
       </c>
       <c r="M20" s="70"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="69">
         <v>19</v>
       </c>
@@ -5084,7 +5085,7 @@
       </c>
       <c r="M21" s="70"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="69">
         <v>20</v>
       </c>
@@ -5115,7 +5116,7 @@
       </c>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="69">
         <v>21</v>
       </c>
@@ -5146,7 +5147,7 @@
       </c>
       <c r="M23" s="70"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="69">
         <v>22</v>
       </c>
@@ -5177,7 +5178,7 @@
       </c>
       <c r="M24" s="70"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="69">
         <v>23</v>
       </c>
@@ -5208,7 +5209,7 @@
       </c>
       <c r="M25" s="70"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71">
         <v>24</v>
       </c>
@@ -5239,7 +5240,7 @@
       </c>
       <c r="M26" s="79"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61">
         <v>25</v>
       </c>
@@ -5270,7 +5271,7 @@
       </c>
       <c r="M27" s="68"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="69">
         <v>26</v>
       </c>
@@ -5301,7 +5302,7 @@
       </c>
       <c r="M28" s="70"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="69">
         <v>27</v>
       </c>
@@ -5332,7 +5333,7 @@
       </c>
       <c r="M29" s="70"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="69">
         <v>28</v>
       </c>
@@ -5363,7 +5364,7 @@
       </c>
       <c r="M30" s="70"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="69">
         <v>29</v>
       </c>
@@ -5394,7 +5395,7 @@
       </c>
       <c r="M31" s="70"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="69">
         <v>30</v>
       </c>
@@ -5425,7 +5426,7 @@
       </c>
       <c r="M32" s="70"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69">
         <v>31</v>
       </c>
@@ -5456,7 +5457,7 @@
       </c>
       <c r="M33" s="70"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="71">
         <v>32</v>
       </c>
@@ -5487,7 +5488,7 @@
       </c>
       <c r="M34" s="79"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="61">
         <v>33</v>
       </c>
@@ -5518,7 +5519,7 @@
       </c>
       <c r="M35" s="68"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="69">
         <v>34</v>
       </c>
@@ -5549,7 +5550,7 @@
       </c>
       <c r="M36" s="70"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="69">
         <v>35</v>
       </c>
@@ -5580,7 +5581,7 @@
       </c>
       <c r="M37" s="70"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69">
         <v>36</v>
       </c>
@@ -5611,7 +5612,7 @@
       </c>
       <c r="M38" s="70"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69">
         <v>37</v>
       </c>
@@ -5642,7 +5643,7 @@
       </c>
       <c r="M39" s="70"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69">
         <v>38</v>
       </c>
@@ -5673,7 +5674,7 @@
       </c>
       <c r="M40" s="70"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="69">
         <v>39</v>
       </c>
@@ -5704,7 +5705,7 @@
       </c>
       <c r="M41" s="70"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="71">
         <v>40</v>
       </c>
@@ -5735,7 +5736,7 @@
       </c>
       <c r="M42" s="79"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61">
         <v>41</v>
       </c>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="M43" s="68"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="69">
         <v>42</v>
       </c>
@@ -5797,7 +5798,7 @@
       </c>
       <c r="M44" s="70"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="69">
         <v>43</v>
       </c>
@@ -5828,7 +5829,7 @@
       </c>
       <c r="M45" s="70"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="69">
         <v>44</v>
       </c>
@@ -5859,7 +5860,7 @@
       </c>
       <c r="M46" s="70"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="69">
         <v>45</v>
       </c>
@@ -5890,7 +5891,7 @@
       </c>
       <c r="M47" s="70"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="69">
         <v>46</v>
       </c>
@@ -5921,7 +5922,7 @@
       </c>
       <c r="M48" s="70"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="69">
         <v>47</v>
       </c>
@@ -5952,7 +5953,7 @@
       </c>
       <c r="M49" s="70"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="71">
         <v>48</v>
       </c>
@@ -5983,7 +5984,7 @@
       </c>
       <c r="M50" s="79"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61">
         <v>49</v>
       </c>
@@ -6014,7 +6015,7 @@
       </c>
       <c r="M51" s="68"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="69">
         <v>50</v>
       </c>
@@ -6045,7 +6046,7 @@
       </c>
       <c r="M52" s="70"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="69">
         <v>51</v>
       </c>
@@ -6076,7 +6077,7 @@
       </c>
       <c r="M53" s="70"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="69">
         <v>52</v>
       </c>
@@ -6107,7 +6108,7 @@
       </c>
       <c r="M54" s="70"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="69">
         <v>53</v>
       </c>
@@ -6138,7 +6139,7 @@
       </c>
       <c r="M55" s="70"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="69">
         <v>54</v>
       </c>
@@ -6169,7 +6170,7 @@
       </c>
       <c r="M56" s="70"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="69">
         <v>55</v>
       </c>
@@ -6200,7 +6201,7 @@
       </c>
       <c r="M57" s="70"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="71">
         <v>56</v>
       </c>
@@ -6231,7 +6232,7 @@
       </c>
       <c r="M58" s="79"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="61">
         <v>57</v>
       </c>
@@ -6262,7 +6263,7 @@
       </c>
       <c r="M59" s="68"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="69">
         <v>58</v>
       </c>
@@ -6293,7 +6294,7 @@
       </c>
       <c r="M60" s="70"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="69">
         <v>59</v>
       </c>
@@ -6324,7 +6325,7 @@
       </c>
       <c r="M61" s="70"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="69">
         <v>60</v>
       </c>
@@ -6355,7 +6356,7 @@
       </c>
       <c r="M62" s="70"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="69">
         <v>61</v>
       </c>
@@ -6386,7 +6387,7 @@
       </c>
       <c r="M63" s="70"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="69">
         <v>62</v>
       </c>
@@ -6417,7 +6418,7 @@
       </c>
       <c r="M64" s="70"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="69">
         <v>63</v>
       </c>
@@ -6448,7 +6449,7 @@
       </c>
       <c r="M65" s="70"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="71">
         <v>64</v>
       </c>
@@ -6479,7 +6480,7 @@
       </c>
       <c r="M66" s="79"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="61">
         <v>65</v>
       </c>
@@ -6510,7 +6511,7 @@
       </c>
       <c r="M67" s="68"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="69">
         <v>66</v>
       </c>
@@ -6541,7 +6542,7 @@
       </c>
       <c r="M68" s="70"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="69">
         <v>67</v>
       </c>
@@ -6572,7 +6573,7 @@
       </c>
       <c r="M69" s="70"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="69">
         <v>68</v>
       </c>
@@ -6603,7 +6604,7 @@
       </c>
       <c r="M70" s="70"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="69">
         <v>69</v>
       </c>
@@ -6634,7 +6635,7 @@
       </c>
       <c r="M71" s="70"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="69">
         <v>70</v>
       </c>
@@ -6665,7 +6666,7 @@
       </c>
       <c r="M72" s="70"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="69">
         <v>71</v>
       </c>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="M73" s="70"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="71">
         <v>72</v>
       </c>
@@ -6727,7 +6728,7 @@
       </c>
       <c r="M74" s="79"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="61">
         <v>73</v>
       </c>
@@ -6758,7 +6759,7 @@
       </c>
       <c r="M75" s="68"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="69">
         <v>74</v>
       </c>
@@ -6789,7 +6790,7 @@
       </c>
       <c r="M76" s="70"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="69">
         <v>75</v>
       </c>
@@ -6820,7 +6821,7 @@
       </c>
       <c r="M77" s="70"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="69">
         <v>76</v>
       </c>
@@ -6851,7 +6852,7 @@
       </c>
       <c r="M78" s="70"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="69">
         <v>77</v>
       </c>
@@ -6882,7 +6883,7 @@
       </c>
       <c r="M79" s="70"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="69">
         <v>78</v>
       </c>
@@ -6913,7 +6914,7 @@
       </c>
       <c r="M80" s="70"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="69">
         <v>79</v>
       </c>
@@ -6944,7 +6945,7 @@
       </c>
       <c r="M81" s="70"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="71">
         <v>80</v>
       </c>
@@ -6975,7 +6976,7 @@
       </c>
       <c r="M82" s="79"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="61">
         <v>81</v>
       </c>
@@ -7006,7 +7007,7 @@
       </c>
       <c r="M83" s="68"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="69">
         <v>82</v>
       </c>
@@ -7037,7 +7038,7 @@
       </c>
       <c r="M84" s="70"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="69">
         <v>83</v>
       </c>
@@ -7068,7 +7069,7 @@
       </c>
       <c r="M85" s="70"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="69">
         <v>84</v>
       </c>
@@ -7099,7 +7100,7 @@
       </c>
       <c r="M86" s="70"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="69">
         <v>85</v>
       </c>
@@ -7130,7 +7131,7 @@
       </c>
       <c r="M87" s="70"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="69">
         <v>86</v>
       </c>
@@ -7161,7 +7162,7 @@
       </c>
       <c r="M88" s="70"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="69">
         <v>87</v>
       </c>
@@ -7192,7 +7193,7 @@
       </c>
       <c r="M89" s="70"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="71">
         <v>88</v>
       </c>
@@ -7223,7 +7224,7 @@
       </c>
       <c r="M90" s="79"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="61">
         <v>89</v>
       </c>
@@ -7254,7 +7255,7 @@
       </c>
       <c r="M91" s="68"/>
     </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="69">
         <v>90</v>
       </c>
@@ -7285,7 +7286,7 @@
       </c>
       <c r="M92" s="70"/>
     </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="69">
         <v>91</v>
       </c>
@@ -7316,7 +7317,7 @@
       </c>
       <c r="M93" s="70"/>
     </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="69">
         <v>92</v>
       </c>
@@ -7347,7 +7348,7 @@
       </c>
       <c r="M94" s="70"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="69">
         <v>93</v>
       </c>
@@ -7378,7 +7379,7 @@
       </c>
       <c r="M95" s="70"/>
     </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="69">
         <v>94</v>
       </c>
@@ -7409,7 +7410,7 @@
       </c>
       <c r="M96" s="70"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="69">
         <v>95</v>
       </c>
@@ -7440,7 +7441,7 @@
       </c>
       <c r="M97" s="70"/>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="71">
         <v>96</v>
       </c>
@@ -7471,7 +7472,7 @@
       </c>
       <c r="M98" s="79"/>
     </row>
-    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -7486,7 +7487,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7495,7 +7496,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7504,7 +7505,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7513,7 +7514,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7522,7 +7523,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7531,7 +7532,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7540,7 +7541,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7549,7 +7550,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7558,7 +7559,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7567,7 +7568,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7576,7 +7577,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7585,7 +7586,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7654,12 +7655,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="1" max="2" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -7682,21 +7683,21 @@
   </sheetPr>
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="34.19921875" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.875" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="32.8984375" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C3" s="6"/>
       <c r="E3" s="29" t="s">
         <v>143</v>
@@ -7756,7 +7757,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D4" s="6"/>
       <c r="E4" s="29" t="s">
         <v>146</v>
@@ -7777,7 +7778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>169</v>
       </c>
@@ -7803,7 +7804,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
@@ -7823,7 +7824,7 @@
       <c r="J6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>170</v>
       </c>
@@ -7843,7 +7844,7 @@
       <c r="J7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7851,7 +7852,7 @@
       <c r="J8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>214</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>256</v>
       </c>
@@ -7881,14 +7882,14 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I12" s="27" t="s">
         <v>208</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="18" t="s">
         <v>254</v>
       </c>
@@ -7898,48 +7899,48 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E18" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="18" t="s">
         <v>280</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="53" t="s">
         <v>287</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="53" t="str">
         <f t="shared" ref="E25:F29" si="0">IF(pcr_enzyme=$E$14,E35,IF(pcr_enzyme=$E$15,E45,IF(pcr_enzyme=$E$16,E55,"")))</f>
         <v/>
@@ -7958,7 +7959,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7968,7 +7969,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7978,7 +7979,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7988,7 +7989,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7998,13 +7999,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="18" t="s">
         <v>257</v>
       </c>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>287</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>288</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>289</v>
       </c>
@@ -8029,7 +8030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>257</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>252</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>217</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>12</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>13</v>
       </c>
@@ -8071,13 +8072,13 @@
       </c>
       <c r="G39" s="83"/>
     </row>
-    <row r="41" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E41" s="18" t="s">
         <v>260</v>
       </c>
       <c r="F41" s="18"/>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>287</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>288</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>289</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>281</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>12</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>13</v>
       </c>
@@ -8127,23 +8128,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51" s="18" t="s">
         <v>258</v>
       </c>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>287</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>288</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>289</v>
       </c>
@@ -8168,7 +8169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>216</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>12</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>13</v>
       </c>
@@ -8193,24 +8194,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="18" t="s">
         <v>278</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E71,IF(exp_assay=$E$5,E79,IF(exp_assay=$E$6,E87,IF(exp_assay=$E$7,E95,""))))</f>
         <v/>
@@ -8224,7 +8225,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E72,IF(exp_assay=$E$5,E80,IF(exp_assay=$E$6,E88,IF(exp_assay=$E$7,E96,""))))</f>
         <v/>
@@ -8238,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E73,IF(exp_assay=$E$5,E81,IF(exp_assay=$E$6,E89,IF(exp_assay=$E$7,E97,""))))</f>
         <v/>
@@ -8252,7 +8253,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E74,IF(exp_assay=$E$5,E82,IF(exp_assay=$E$6,E90,IF(exp_assay=$E$7,E98,""))))</f>
         <v/>
@@ -8266,7 +8267,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E75,IF(exp_assay=$E$5,E83,IF(exp_assay=$E$6,E91,IF(exp_assay=$E$7,E99,""))))</f>
         <v/>
@@ -8280,7 +8281,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E76,IF(exp_assay=$E$5,E84,IF(exp_assay=$E$6,E92,IF(exp_assay=$E$7,E100,""))))</f>
         <v/>
@@ -8294,7 +8295,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E77,IF(exp_assay=$E$5,E85,IF(exp_assay=$E$6,E93,IF(exp_assay=$E$7,E101,""))))</f>
         <v/>
@@ -8308,14 +8309,14 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E70" s="18" t="s">
         <v>276</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>93</v>
       </c>
@@ -8324,7 +8325,7 @@
       </c>
       <c r="G71" s="54"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E72">
         <v>93</v>
       </c>
@@ -8332,7 +8333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73">
         <v>98</v>
       </c>
@@ -8343,7 +8344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74">
         <v>50</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75">
         <v>60</v>
       </c>
@@ -8365,7 +8366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E76">
         <v>60</v>
       </c>
@@ -8373,7 +8374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>8</v>
       </c>
@@ -8381,14 +8382,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E78" s="18" t="s">
         <v>274</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E79">
         <v>95</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E80">
         <v>95</v>
       </c>
@@ -8404,7 +8405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E81">
         <v>98</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E82">
         <v>60</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>60</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E84">
         <v>8</v>
       </c>
@@ -8442,17 +8443,17 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F85" s="54"/>
     </row>
-    <row r="86" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E86" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E87">
         <v>93</v>
       </c>
@@ -8461,7 +8462,7 @@
       </c>
       <c r="G87" s="54"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88">
         <v>93</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E89">
         <v>98</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E90">
         <v>50</v>
       </c>
@@ -8491,7 +8492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E91">
         <v>60</v>
       </c>
@@ -8502,7 +8503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E92">
         <v>60</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E93">
         <v>8</v>
       </c>
@@ -8518,14 +8519,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E94" s="18" t="s">
         <v>263</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E95">
         <v>93</v>
       </c>
@@ -8534,7 +8535,7 @@
       </c>
       <c r="G95" s="54"/>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E96">
         <v>93</v>
       </c>
@@ -8542,7 +8543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E97">
         <v>98</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E98">
         <v>50</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E99">
         <v>60</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E100">
         <v>60</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E101">
         <v>8</v>
       </c>
@@ -8591,23 +8592,22 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E103" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8623,55 +8623,53 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="1" max="1" width="38.8984375" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.09765625" customWidth="1"/>
+    <col min="4" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:3" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A1" s="30" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="32" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A3" s="32"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="31" t="s">
         <v>223</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A6" s="34" t="s">
         <v>176</v>
       </c>
@@ -8680,7 +8678,7 @@
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A7" s="34" t="s">
         <v>23</v>
       </c>
@@ -8689,7 +8687,7 @@
       </c>
       <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A8" s="34" t="s">
         <v>177</v>
       </c>
@@ -8698,7 +8696,7 @@
       </c>
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A9" s="35" t="s">
         <v>178</v>
       </c>
@@ -8707,7 +8705,7 @@
       </c>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A10" s="36" t="s">
         <v>226</v>
       </c>
@@ -8716,7 +8714,7 @@
       </c>
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A11" s="36" t="s">
         <v>181</v>
       </c>
@@ -8725,108 +8723,108 @@
       </c>
       <c r="C11" s="31"/>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A12" s="32" t="s">
         <v>229</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A14" s="37" t="s">
         <v>230</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A15" s="31" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A16" s="31" t="s">
         <v>241</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A17" s="31" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A18" s="32" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A19" s="32" t="s">
         <v>236</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A20" s="32" t="s">
         <v>237</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A21" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A22" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A23" s="38" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A24" s="38"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A25" s="33" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A26" s="32" t="s">
         <v>229</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A27" s="31" t="s">
         <v>232</v>
       </c>
@@ -8850,17 +8848,17 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="7" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="31.625" customWidth="1"/>
-    <col min="9" max="13" width="12.125" customWidth="1"/>
-    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="7" width="12.09765625" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" customWidth="1"/>
+    <col min="9" max="13" width="12.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -8904,7 +8902,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(LEN(exp_id)=0,"",exp_id)</f>
         <v/>
@@ -8983,15 +8981,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="4" width="13.69921875" customWidth="1"/>
+    <col min="5" max="6" width="26.3984375" customWidth="1"/>
+    <col min="7" max="7" width="33.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -9014,7 +9012,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IF(LEN(PCR!D3),PCR!D3,"")</f>
         <v/>
@@ -9044,7 +9042,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IF(LEN(PCR!D4),PCR!D4,"")</f>
         <v/>
@@ -9074,7 +9072,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IF(LEN(PCR!D5),PCR!D5,"")</f>
         <v/>
@@ -9104,7 +9102,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(LEN(PCR!D6),PCR!D6,"")</f>
         <v/>
@@ -9134,7 +9132,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IF(LEN(PCR!D7),PCR!D7,"")</f>
         <v/>
@@ -9164,7 +9162,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IF(LEN(PCR!D8),PCR!D8,"")</f>
         <v/>
@@ -9194,7 +9192,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IF(LEN(PCR!D9),PCR!D9,"")</f>
         <v/>
@@ -9224,7 +9222,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IF(LEN(PCR!D10),PCR!D10,"")</f>
         <v/>
@@ -9254,7 +9252,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IF(LEN(PCR!D11),PCR!D11,"")</f>
         <v/>
@@ -9284,7 +9282,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IF(LEN(PCR!D12),PCR!D12,"")</f>
         <v/>
@@ -9314,7 +9312,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IF(LEN(PCR!D13),PCR!D13,"")</f>
         <v/>
@@ -9344,7 +9342,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>IF(LEN(PCR!D14),PCR!D14,"")</f>
         <v/>
@@ -9374,7 +9372,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>IF(LEN(PCR!D15),PCR!D15,"")</f>
         <v/>
@@ -9404,7 +9402,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>IF(LEN(PCR!D16),PCR!D16,"")</f>
         <v/>
@@ -9434,7 +9432,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>IF(LEN(PCR!D17),PCR!D17,"")</f>
         <v/>
@@ -9464,7 +9462,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(LEN(PCR!D18),PCR!D18,"")</f>
         <v/>
@@ -9494,7 +9492,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(LEN(PCR!D19),PCR!D19,"")</f>
         <v/>
@@ -9524,7 +9522,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(LEN(PCR!D20),PCR!D20,"")</f>
         <v/>
@@ -9554,7 +9552,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(LEN(PCR!D21),PCR!D21,"")</f>
         <v/>
@@ -9584,7 +9582,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(LEN(PCR!D22),PCR!D22,"")</f>
         <v/>
@@ -9614,7 +9612,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(LEN(PCR!D23),PCR!D23,"")</f>
         <v/>
@@ -9644,7 +9642,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(LEN(PCR!D24),PCR!D24,"")</f>
         <v/>
@@ -9674,7 +9672,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(LEN(PCR!D25),PCR!D25,"")</f>
         <v/>
@@ -9704,7 +9702,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(LEN(PCR!D26),PCR!D26,"")</f>
         <v/>
@@ -9734,7 +9732,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(LEN(PCR!D27),PCR!D27,"")</f>
         <v/>
@@ -9764,7 +9762,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(LEN(PCR!D28),PCR!D28,"")</f>
         <v/>
@@ -9794,7 +9792,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(LEN(PCR!D29),PCR!D29,"")</f>
         <v/>
@@ -9824,7 +9822,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(LEN(PCR!D30),PCR!D30,"")</f>
         <v/>
@@ -9854,7 +9852,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(LEN(PCR!D31),PCR!D31,"")</f>
         <v/>
@@ -9884,7 +9882,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(LEN(PCR!D32),PCR!D32,"")</f>
         <v/>
@@ -9914,7 +9912,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(LEN(PCR!D33),PCR!D33,"")</f>
         <v/>
@@ -9944,7 +9942,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f>IF(LEN(PCR!D34),PCR!D34,"")</f>
         <v/>
@@ -9974,7 +9972,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>IF(LEN(PCR!D35),PCR!D35,"")</f>
         <v/>
@@ -10004,7 +10002,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f>IF(LEN(PCR!D36),PCR!D36,"")</f>
         <v/>
@@ -10034,7 +10032,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f>IF(LEN(PCR!D37),PCR!D37,"")</f>
         <v/>
@@ -10064,7 +10062,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f>IF(LEN(PCR!D38),PCR!D38,"")</f>
         <v/>
@@ -10094,7 +10092,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f>IF(LEN(PCR!D39),PCR!D39,"")</f>
         <v/>
@@ -10124,7 +10122,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f>IF(LEN(PCR!D40),PCR!D40,"")</f>
         <v/>
@@ -10154,7 +10152,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f>IF(LEN(PCR!D41),PCR!D41,"")</f>
         <v/>
@@ -10184,7 +10182,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f>IF(LEN(PCR!D42),PCR!D42,"")</f>
         <v/>
@@ -10214,7 +10212,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>IF(LEN(PCR!D43),PCR!D43,"")</f>
         <v/>
@@ -10244,7 +10242,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f>IF(LEN(PCR!D44),PCR!D44,"")</f>
         <v/>
@@ -10274,7 +10272,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f>IF(LEN(PCR!D45),PCR!D45,"")</f>
         <v/>
@@ -10304,7 +10302,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f>IF(LEN(PCR!D46),PCR!D46,"")</f>
         <v/>
@@ -10334,7 +10332,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f>IF(LEN(PCR!D47),PCR!D47,"")</f>
         <v/>
@@ -10364,7 +10362,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f>IF(LEN(PCR!D48),PCR!D48,"")</f>
         <v/>
@@ -10394,7 +10392,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f>IF(LEN(PCR!D49),PCR!D49,"")</f>
         <v/>
@@ -10424,7 +10422,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>IF(LEN(PCR!D50),PCR!D50,"")</f>
         <v/>
@@ -10454,7 +10452,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f>IF(LEN(PCR!D51),PCR!D51,"")</f>
         <v/>
@@ -10484,7 +10482,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f>IF(LEN(PCR!D52),PCR!D52,"")</f>
         <v/>
@@ -10514,7 +10512,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f>IF(LEN(PCR!D53),PCR!D53,"")</f>
         <v/>
@@ -10544,7 +10542,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f>IF(LEN(PCR!D54),PCR!D54,"")</f>
         <v/>
@@ -10574,7 +10572,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f>IF(LEN(PCR!D55),PCR!D55,"")</f>
         <v/>
@@ -10604,7 +10602,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f>IF(LEN(PCR!D56),PCR!D56,"")</f>
         <v/>
@@ -10634,7 +10632,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f>IF(LEN(PCR!D57),PCR!D57,"")</f>
         <v/>
@@ -10664,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f>IF(LEN(PCR!D58),PCR!D58,"")</f>
         <v/>
@@ -10694,7 +10692,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>IF(LEN(PCR!D59),PCR!D59,"")</f>
         <v/>
@@ -10724,7 +10722,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f>IF(LEN(PCR!D60),PCR!D60,"")</f>
         <v/>
@@ -10754,7 +10752,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f>IF(LEN(PCR!D61),PCR!D61,"")</f>
         <v/>
@@ -10784,7 +10782,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f>IF(LEN(PCR!D62),PCR!D62,"")</f>
         <v/>
@@ -10814,7 +10812,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f>IF(LEN(PCR!D63),PCR!D63,"")</f>
         <v/>
@@ -10844,7 +10842,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f>IF(LEN(PCR!D64),PCR!D64,"")</f>
         <v/>
@@ -10874,7 +10872,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f>IF(LEN(PCR!D65),PCR!D65,"")</f>
         <v/>
@@ -10904,7 +10902,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>IF(LEN(PCR!D66),PCR!D66,"")</f>
         <v/>
@@ -10934,7 +10932,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f>IF(LEN(PCR!D67),PCR!D67,"")</f>
         <v/>
@@ -10964,7 +10962,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f>IF(LEN(PCR!D68),PCR!D68,"")</f>
         <v/>
@@ -10994,7 +10992,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f>IF(LEN(PCR!D69),PCR!D69,"")</f>
         <v/>
@@ -11024,7 +11022,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f>IF(LEN(PCR!D70),PCR!D70,"")</f>
         <v/>
@@ -11054,7 +11052,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f>IF(LEN(PCR!D71),PCR!D71,"")</f>
         <v/>
@@ -11084,7 +11082,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f>IF(LEN(PCR!D72),PCR!D72,"")</f>
         <v/>
@@ -11114,7 +11112,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f>IF(LEN(PCR!D73),PCR!D73,"")</f>
         <v/>
@@ -11144,7 +11142,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f>IF(LEN(PCR!D74),PCR!D74,"")</f>
         <v/>
@@ -11174,7 +11172,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f>IF(LEN(PCR!D75),PCR!D75,"")</f>
         <v/>
@@ -11204,7 +11202,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f>IF(LEN(PCR!D76),PCR!D76,"")</f>
         <v/>
@@ -11234,7 +11232,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>IF(LEN(PCR!D77),PCR!D77,"")</f>
         <v/>
@@ -11264,7 +11262,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f>IF(LEN(PCR!D78),PCR!D78,"")</f>
         <v/>
@@ -11294,7 +11292,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f>IF(LEN(PCR!D79),PCR!D79,"")</f>
         <v/>
@@ -11324,7 +11322,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f>IF(LEN(PCR!D80),PCR!D80,"")</f>
         <v/>
@@ -11354,7 +11352,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f>IF(LEN(PCR!D81),PCR!D81,"")</f>
         <v/>
@@ -11384,7 +11382,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f>IF(LEN(PCR!D82),PCR!D82,"")</f>
         <v/>
@@ -11414,7 +11412,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f>IF(LEN(PCR!D83),PCR!D83,"")</f>
         <v/>
@@ -11444,7 +11442,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f>IF(LEN(PCR!D84),PCR!D84,"")</f>
         <v/>
@@ -11474,7 +11472,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f>IF(LEN(PCR!D85),PCR!D85,"")</f>
         <v/>
@@ -11504,7 +11502,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f>IF(LEN(PCR!D86),PCR!D86,"")</f>
         <v/>
@@ -11534,7 +11532,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f>IF(LEN(PCR!D87),PCR!D87,"")</f>
         <v/>
@@ -11564,7 +11562,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f>IF(LEN(PCR!D88),PCR!D88,"")</f>
         <v/>
@@ -11594,7 +11592,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f>IF(LEN(PCR!D89),PCR!D89,"")</f>
         <v/>
@@ -11624,7 +11622,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f>IF(LEN(PCR!D90),PCR!D90,"")</f>
         <v/>
@@ -11654,7 +11652,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f>IF(LEN(PCR!D91),PCR!D91,"")</f>
         <v/>
@@ -11684,7 +11682,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f>IF(LEN(PCR!D92),PCR!D92,"")</f>
         <v/>
@@ -11714,7 +11712,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f>IF(LEN(PCR!D93),PCR!D93,"")</f>
         <v/>
@@ -11744,7 +11742,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f>IF(LEN(PCR!D94),PCR!D94,"")</f>
         <v/>
@@ -11774,7 +11772,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f>IF(LEN(PCR!D95),PCR!D95,"")</f>
         <v/>
@@ -11804,7 +11802,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f>IF(LEN(PCR!D96),PCR!D96,"")</f>
         <v/>
@@ -11834,7 +11832,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f>IF(LEN(PCR!D97),PCR!D97,"")</f>
         <v/>
@@ -11864,7 +11862,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>IF(LEN(PCR!D98),PCR!D98,"")</f>
         <v/>

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4212B21-876E-4C5C-A705-5C5A97B76FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4300A22-6559-4393-B0E4-67FD7952B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="23280" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23508" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="294">
   <si>
     <t>Assumptions</t>
   </si>
@@ -1213,6 +1213,12 @@
   <si>
     <t>2. Clean-up with 12 µl (0.5X) AMPPure beads per sample, mix and incubate at RT for 5 min. Pellet on magnet for 8 min and wash 2 x 200 µl 80%  fresh EtoH, spin, dry, then re-suspend in 15 µl EB and transfer to fresh tube / well</t>
   </si>
+  <si>
+    <t>ng/ul</t>
+  </si>
+  <si>
+    <t>Post-PCR clean-up target [DNA]</t>
+  </si>
 </sst>
 </file>
 
@@ -1223,9 +1229,16 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1788,14 +1801,14 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1806,16 +1819,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1824,21 +1837,21 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1861,27 +1874,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1900,7 +1913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1910,45 +1923,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2024,146 +2037,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -2174,7 +2188,14 @@
     <cellStyle name="Normal 4" xfId="3" xr:uid="{50147B5D-B577-4D84-8D3E-2790725A5EE2}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFB8D81"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2674,6 +2695,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFB8D81"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2686,30 +2712,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:M98" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_PCR" displayName="tbl_PCR" ref="A2:M98" totalsRowShown="0" headerRowDxfId="40" headerRowBorderDxfId="39" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="A2:M98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{56C0F1A5-4310-4FE3-B21C-5D6A0CBA02B4}" name="Column" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{56C0F1A5-4310-4FE3-B21C-5D6A0CBA02B4}" name="Column" dataDxfId="35">
       <calculatedColumnFormula>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="30">
       <calculatedColumnFormula>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="27">
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="28">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(J3="",K3=""),"",SUM(J3*K3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2727,12 +2753,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="E2:G8" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2793,22 +2819,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:G97" totalsRowShown="0">
   <autoFilter ref="A1:G97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="18">
       <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="17">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="16">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="15">
       <calculatedColumnFormula>IF(LEN(PCR!H3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="14">
       <calculatedColumnFormula>IF(LEN(PCR!H3),PCR!H3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="13">
       <calculatedColumnFormula>IF(LEN(PCR!I3),PCR!I3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -3132,276 +3158,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="103" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="K2" s="110" t="s">
+      <c r="H2" s="85"/>
+      <c r="K2" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="110"/>
+      <c r="L2" s="105"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
       <c r="G3" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="111"/>
+      <c r="L3" s="106"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="112" t="s">
+      <c r="K4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="112"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="107" t="str">
+      <c r="B5" s="99"/>
+      <c r="C5" s="102" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="113"/>
+      <c r="L5" s="108"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="108" t="str">
+      <c r="B6" s="99"/>
+      <c r="C6" s="103" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="17"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="G7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
       <c r="G8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="118" t="str">
+      <c r="B9" s="88"/>
+      <c r="C9" s="90" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="117" t="str">
+      <c r="B10" s="88"/>
+      <c r="C10" s="89" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="96" t="str">
+      <c r="B12" s="98"/>
+      <c r="C12" s="92" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
       <c r="G12" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="96" t="str">
+      <c r="B13" s="98"/>
+      <c r="C13" s="92" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="96" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
       <c r="G15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="96" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
@@ -3428,25 +3454,25 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="98" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98" t="str">
+      <c r="E21" s="109"/>
+      <c r="F21" s="109" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G21" s="98"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="8"/>
-      <c r="J21" s="101" t="s">
+      <c r="J21" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="101"/>
+      <c r="K21" s="112"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
@@ -3455,24 +3481,24 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="88" t="s">
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
-      <c r="J22" s="91" t="str">
+      <c r="J22" s="115" t="str">
         <f>reference!E62</f>
         <v/>
       </c>
-      <c r="K22" s="91"/>
+      <c r="K22" s="115"/>
       <c r="L22" s="50" t="str">
         <f>reference!F62</f>
         <v/>
@@ -3483,29 +3509,29 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="86" t="str">
+      <c r="A23" s="94" t="str">
         <f>reference!E25</f>
         <v/>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="90" t="str">
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="93" t="str">
         <f>reference!F25</f>
         <v/>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="87" t="str">
+      <c r="E23" s="93"/>
+      <c r="F23" s="114" t="str">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="91" t="str">
+      <c r="J23" s="115" t="str">
         <f>reference!E63</f>
         <v/>
       </c>
-      <c r="K23" s="91"/>
+      <c r="K23" s="115"/>
       <c r="L23" s="50" t="str">
         <f>reference!F63</f>
         <v/>
@@ -3516,29 +3542,29 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="str">
+      <c r="A24" s="94" t="str">
         <f>reference!E26</f>
         <v/>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="90" t="str">
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="93" t="str">
         <f>reference!F26</f>
         <v/>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="87" t="str">
+      <c r="E24" s="93"/>
+      <c r="F24" s="114" t="str">
         <f>IFERROR(SUM(D24*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
-      <c r="J24" s="91" t="str">
+      <c r="J24" s="115" t="str">
         <f>reference!E64</f>
         <v/>
       </c>
-      <c r="K24" s="91"/>
+      <c r="K24" s="115"/>
       <c r="L24" s="50" t="str">
         <f>reference!F64</f>
         <v/>
@@ -3549,29 +3575,29 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="str">
+      <c r="A25" s="94" t="str">
         <f>reference!E27</f>
         <v/>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="90" t="str">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="93" t="str">
         <f>reference!F27</f>
         <v/>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="87" t="str">
+      <c r="E25" s="93"/>
+      <c r="F25" s="114" t="str">
         <f>IFERROR(SUM(D25*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
-      <c r="J25" s="91" t="str">
+      <c r="J25" s="115" t="str">
         <f>reference!E65</f>
         <v/>
       </c>
-      <c r="K25" s="91"/>
+      <c r="K25" s="115"/>
       <c r="L25" s="50" t="str">
         <f>reference!F65</f>
         <v/>
@@ -3582,29 +3608,29 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86" t="str">
+      <c r="A26" s="94" t="str">
         <f>reference!E28</f>
         <v/>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="90" t="str">
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="93" t="str">
         <f>reference!F28</f>
         <v/>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="87" t="str">
+      <c r="E26" s="93"/>
+      <c r="F26" s="114" t="str">
         <f>IFERROR(SUM(D26*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
-      <c r="J26" s="91" t="str">
+      <c r="J26" s="115" t="str">
         <f>reference!E66</f>
         <v/>
       </c>
-      <c r="K26" s="91"/>
+      <c r="K26" s="115"/>
       <c r="L26" s="50" t="str">
         <f>reference!F66</f>
         <v/>
@@ -3615,28 +3641,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="str">
+      <c r="A27" s="94" t="str">
         <f>reference!E29</f>
         <v/>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="90" t="str">
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="93" t="str">
         <f>reference!F29</f>
         <v/>
       </c>
-      <c r="E27" s="90"/>
-      <c r="F27" s="87" t="str">
+      <c r="E27" s="93"/>
+      <c r="F27" s="114" t="str">
         <f>IFERROR(SUM(D27*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="8"/>
-      <c r="J27" s="91" t="str">
+      <c r="J27" s="115" t="str">
         <f>reference!E67</f>
         <v/>
       </c>
-      <c r="K27" s="91"/>
+      <c r="K27" s="115"/>
       <c r="L27" s="50" t="str">
         <f>reference!F67</f>
         <v/>
@@ -3647,22 +3673,22 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="84" t="str">
+      <c r="D28" s="116" t="str">
         <f>IF(SUM(D22:E27)=0,"",SUM(D22:E27))</f>
         <v/>
       </c>
-      <c r="E28" s="84"/>
+      <c r="E28" s="116"/>
       <c r="F28" s="52" t="str">
         <f>CONCATENATE("Add ",SUM(D23:D27)," µl of MM to each well")</f>
         <v>Add 0 µl of MM to each well</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
-      <c r="J28" s="91" t="str">
+      <c r="J28" s="115" t="str">
         <f>reference!E68</f>
         <v/>
       </c>
-      <c r="K28" s="91"/>
+      <c r="K28" s="115"/>
       <c r="L28" s="50" t="str">
         <f>reference!F68</f>
         <v/>
@@ -3690,28 +3716,28 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="K30" s="85" t="s">
+      <c r="K30" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="15" t="s">
@@ -3724,11 +3750,11 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="8"/>
-      <c r="K32" s="94" t="s">
+      <c r="K32" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
@@ -3750,8 +3776,8 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4224,6 +4250,62 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C17:K18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L6"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A7:B7"/>
@@ -4240,105 +4322,49 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C17:K18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:C27">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>A25="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C11 C14:C17">
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="11" priority="22">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="containsBlanks" dxfId="7" priority="6">
+    <cfRule type="containsBlanks" dxfId="8" priority="6">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E27">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>A25="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>COUNTIF(F34,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:G27">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$A22="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:M28">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>J22=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M28">
-    <cfRule type="expression" dxfId="2" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>LEN(M22)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4419,7 +4445,7 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7605,14 +7631,14 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="I1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="D3:G98">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H98 J3:K98 M3:M98">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>COUNTIF(D3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7630,6 +7656,24 @@
     <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="2" operator="between" id="{F896F4D9-C43F-4F84-ADC8-BA4906FC50F0}">
+            <xm:f>0</xm:f>
+            <xm:f>reference!$B$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFB8D81"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L3:L98</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" xr:uid="{8E0776D0-6EAB-4DDE-8153-1989A81E152C}">
@@ -7684,7 +7728,7 @@
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7737,7 +7781,15 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C3" s="6"/>
+      <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>292</v>
+      </c>
       <c r="E3" s="29" t="s">
         <v>143</v>
       </c>
@@ -8608,7 +8660,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -8962,7 +9015,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vph7DaMh3SyowaNNd8/hWiOan38yUHTDW1w5tTlbGEdRpJuRTmeOvrHT9rmEAjHGl0Numj/KRrc+UvQhk/Kdtg==" saltValue="/M7Z5DLigzvvgEv+lbbvig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -11894,7 +11947,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0YBHaD4a6NLBY27d4xlPGLHGHcpuKvyu/lfYw+Z7RfFFJgte+l50Qx8WzCtkEqkZgpRH0qWsBgeotW+ZIpVXNw==" saltValue="xqiEEwn+8q0Bm7Z28tkpIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4300A22-6559-4393-B0E4-67FD7952B035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60F460-B2F9-4EB8-AEDC-88FCBF6B9B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23508" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -2041,44 +2041,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2086,8 +2073,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2122,38 +2138,23 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2177,7 +2178,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -2274,6 +2274,25 @@
       <font>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2495,23 +2514,6 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2720,22 +2722,22 @@
       <calculatedColumnFormula>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="13">
+      <calculatedColumnFormula>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="30">
-      <calculatedColumnFormula>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="28">
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="29">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="26">
       <calculatedColumnFormula>IF(OR(J3="",K3=""),"",SUM(J3*K3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2753,12 +2755,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="E2:G8" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2819,22 +2821,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:G97" totalsRowShown="0">
   <autoFilter ref="A1:G97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="18">
-      <calculatedColumnFormula>IF(LEN(PCR!D3),PCR!D3,"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="19">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="18">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="15">
+    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="17">
+      <calculatedColumnFormula>IF(LEN(PCR!G3),PCR!G3,"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="16">
       <calculatedColumnFormula>IF(LEN(PCR!H3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="15">
       <calculatedColumnFormula>IF(LEN(PCR!H3),PCR!H3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="14">
       <calculatedColumnFormula>IF(LEN(PCR!I3),PCR!I3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -3149,287 +3151,287 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="F34" sqref="F34:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="85" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="K2" s="105" t="s">
+      <c r="H2" s="104"/>
+      <c r="K2" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="105"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="L2" s="111"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
       <c r="G3" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="106" t="s">
+      <c r="K3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="106"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="L3" s="112"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="107" t="s">
+      <c r="K4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="107"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="L4" s="113"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="102" t="str">
+      <c r="B5" s="105"/>
+      <c r="C5" s="108" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="108" t="s">
+      <c r="K5" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="108"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98" t="s">
+      <c r="L5" s="114"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="103" t="str">
+      <c r="B6" s="105"/>
+      <c r="C6" s="109" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="17"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="86" t="s">
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="G7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
       <c r="G8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90" t="str">
+      <c r="B9" s="117"/>
+      <c r="C9" s="119" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88" t="s">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89" t="str">
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
       <c r="G11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="92" t="str">
+      <c r="B12" s="96"/>
+      <c r="C12" s="97" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="92" t="str">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
       <c r="G15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="94"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
@@ -3439,7 +3441,7 @@
       <c r="H19"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="82" t="s">
         <v>159</v>
       </c>
@@ -3453,26 +3455,26 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="110" t="s">
+    <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="109" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109" t="str">
+      <c r="E21" s="99"/>
+      <c r="F21" s="99" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G21" s="109"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="8"/>
-      <c r="J21" s="112" t="s">
+      <c r="J21" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="112"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
@@ -3480,25 +3482,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="118" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="118"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
-      <c r="J22" s="115" t="str">
+      <c r="J22" s="92" t="str">
         <f>reference!E62</f>
         <v/>
       </c>
-      <c r="K22" s="115"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="50" t="str">
         <f>reference!F62</f>
         <v/>
@@ -3508,30 +3510,30 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="94" t="str">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="str">
         <f>reference!E25</f>
         <v/>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="93" t="str">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="91" t="str">
         <f>reference!F25</f>
         <v/>
       </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="114" t="str">
+      <c r="E23" s="91"/>
+      <c r="F23" s="88" t="str">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="114"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="115" t="str">
+      <c r="J23" s="92" t="str">
         <f>reference!E63</f>
         <v/>
       </c>
-      <c r="K23" s="115"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="50" t="str">
         <f>reference!F63</f>
         <v/>
@@ -3541,30 +3543,30 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="94" t="str">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="87" t="str">
         <f>reference!E26</f>
         <v/>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="93" t="str">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="91" t="str">
         <f>reference!F26</f>
         <v/>
       </c>
-      <c r="E24" s="93"/>
-      <c r="F24" s="114" t="str">
+      <c r="E24" s="91"/>
+      <c r="F24" s="88" t="str">
         <f>IFERROR(SUM(D24*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G24" s="114"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
-      <c r="J24" s="115" t="str">
+      <c r="J24" s="92" t="str">
         <f>reference!E64</f>
         <v/>
       </c>
-      <c r="K24" s="115"/>
+      <c r="K24" s="92"/>
       <c r="L24" s="50" t="str">
         <f>reference!F64</f>
         <v/>
@@ -3574,30 +3576,30 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="94" t="str">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="87" t="str">
         <f>reference!E27</f>
         <v/>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="93" t="str">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="91" t="str">
         <f>reference!F27</f>
         <v/>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="114" t="str">
+      <c r="E25" s="91"/>
+      <c r="F25" s="88" t="str">
         <f>IFERROR(SUM(D25*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G25" s="114"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
-      <c r="J25" s="115" t="str">
+      <c r="J25" s="92" t="str">
         <f>reference!E65</f>
         <v/>
       </c>
-      <c r="K25" s="115"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="50" t="str">
         <f>reference!F65</f>
         <v/>
@@ -3607,30 +3609,30 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="94" t="str">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="87" t="str">
         <f>reference!E28</f>
         <v/>
       </c>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="93" t="str">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="91" t="str">
         <f>reference!F28</f>
         <v/>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="114" t="str">
+      <c r="E26" s="91"/>
+      <c r="F26" s="88" t="str">
         <f>IFERROR(SUM(D26*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G26" s="114"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
-      <c r="J26" s="115" t="str">
+      <c r="J26" s="92" t="str">
         <f>reference!E66</f>
         <v/>
       </c>
-      <c r="K26" s="115"/>
+      <c r="K26" s="92"/>
       <c r="L26" s="50" t="str">
         <f>reference!F66</f>
         <v/>
@@ -3640,29 +3642,29 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="94" t="str">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="87" t="str">
         <f>reference!E29</f>
         <v/>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="93" t="str">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="91" t="str">
         <f>reference!F29</f>
         <v/>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="114" t="str">
+      <c r="E27" s="91"/>
+      <c r="F27" s="88" t="str">
         <f>IFERROR(SUM(D27*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G27" s="114"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="8"/>
-      <c r="J27" s="115" t="str">
+      <c r="J27" s="92" t="str">
         <f>reference!E67</f>
         <v/>
       </c>
-      <c r="K27" s="115"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="50" t="str">
         <f>reference!F67</f>
         <v/>
@@ -3672,23 +3674,23 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D28" s="116" t="str">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="85" t="str">
         <f>IF(SUM(D22:E27)=0,"",SUM(D22:E27))</f>
         <v/>
       </c>
-      <c r="E28" s="116"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="52" t="str">
         <f>CONCATENATE("Add ",SUM(D23:D27)," µl of MM to each well")</f>
         <v>Add 0 µl of MM to each well</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
-      <c r="J28" s="115" t="str">
+      <c r="J28" s="92" t="str">
         <f>reference!E68</f>
         <v/>
       </c>
-      <c r="K28" s="115"/>
+      <c r="K28" s="92"/>
       <c r="L28" s="50" t="str">
         <f>reference!F68</f>
         <v/>
@@ -3698,14 +3700,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
       <c r="F29" s="52"/>
       <c r="G29" s="50"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>290</v>
       </c>
@@ -3716,30 +3718,30 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="K30" s="117" t="s">
+      <c r="K30" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="117"/>
-      <c r="M30" s="117"/>
-    </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+    </row>
+    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>137</v>
       </c>
@@ -3750,13 +3752,13 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="8"/>
-      <c r="K32" s="113" t="s">
+      <c r="K32" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3766,7 +3768,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>23</v>
       </c>
@@ -3776,11 +3778,11 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="22">
         <v>1</v>
@@ -3819,448 +3821,482 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="21" t="str">
-        <f>PCR!$G3</f>
+        <f>PCR!$D3</f>
         <v/>
       </c>
       <c r="C36" s="21" t="str">
-        <f>PCR!$G11</f>
+        <f>PCR!$D11</f>
         <v/>
       </c>
       <c r="D36" s="21" t="str">
-        <f>PCR!$G19</f>
+        <f>PCR!$D19</f>
         <v/>
       </c>
       <c r="E36" s="21" t="str">
-        <f>PCR!$G27</f>
+        <f>PCR!$D27</f>
         <v/>
       </c>
       <c r="F36" s="21" t="str">
-        <f>PCR!$G35</f>
+        <f>PCR!$D35</f>
         <v/>
       </c>
       <c r="G36" s="21" t="str">
-        <f>PCR!$G43</f>
+        <f>PCR!$D43</f>
         <v/>
       </c>
       <c r="H36" s="21" t="str">
-        <f>PCR!$G51</f>
+        <f>PCR!$D51</f>
         <v/>
       </c>
       <c r="I36" s="21" t="str">
-        <f>PCR!$G59</f>
+        <f>PCR!$D59</f>
         <v/>
       </c>
       <c r="J36" s="21" t="str">
-        <f>PCR!$G67</f>
+        <f>PCR!$D67</f>
         <v/>
       </c>
       <c r="K36" s="21" t="str">
-        <f>PCR!$G75</f>
+        <f>PCR!$D75</f>
         <v/>
       </c>
       <c r="L36" s="21" t="str">
-        <f>PCR!$G83</f>
+        <f>PCR!$D83</f>
         <v/>
       </c>
       <c r="M36" s="21" t="str">
-        <f>PCR!$G91</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D91</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="21" t="str">
-        <f>PCR!$G4</f>
+        <f>PCR!$D4</f>
         <v/>
       </c>
       <c r="C37" s="21" t="str">
-        <f>PCR!$G12</f>
+        <f>PCR!$D12</f>
         <v/>
       </c>
       <c r="D37" s="21" t="str">
-        <f>PCR!$G20</f>
+        <f>PCR!$D20</f>
         <v/>
       </c>
       <c r="E37" s="21" t="str">
-        <f>PCR!$G28</f>
+        <f>PCR!$D28</f>
         <v/>
       </c>
       <c r="F37" s="21" t="str">
-        <f>PCR!$G36</f>
+        <f>PCR!$D36</f>
         <v/>
       </c>
       <c r="G37" s="21" t="str">
-        <f>PCR!$G44</f>
+        <f>PCR!$D44</f>
         <v/>
       </c>
       <c r="H37" s="21" t="str">
-        <f>PCR!$G52</f>
+        <f>PCR!$D52</f>
         <v/>
       </c>
       <c r="I37" s="21" t="str">
-        <f>PCR!$G60</f>
+        <f>PCR!$D60</f>
         <v/>
       </c>
       <c r="J37" s="21" t="str">
-        <f>PCR!$G68</f>
+        <f>PCR!$D68</f>
         <v/>
       </c>
       <c r="K37" s="21" t="str">
-        <f>PCR!$G76</f>
+        <f>PCR!$D76</f>
         <v/>
       </c>
       <c r="L37" s="21" t="str">
-        <f>PCR!$G84</f>
+        <f>PCR!$D84</f>
         <v/>
       </c>
       <c r="M37" s="21" t="str">
-        <f>PCR!$G92</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D92</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="21" t="str">
-        <f>PCR!$G5</f>
+        <f>PCR!$D5</f>
         <v/>
       </c>
       <c r="C38" s="21" t="str">
-        <f>PCR!$G13</f>
+        <f>PCR!$D13</f>
         <v/>
       </c>
       <c r="D38" s="21" t="str">
-        <f>PCR!$G21</f>
+        <f>PCR!$D21</f>
         <v/>
       </c>
       <c r="E38" s="21" t="str">
-        <f>PCR!$G29</f>
+        <f>PCR!$D29</f>
         <v/>
       </c>
       <c r="F38" s="21" t="str">
-        <f>PCR!$G37</f>
+        <f>PCR!$D37</f>
         <v/>
       </c>
       <c r="G38" s="21" t="str">
-        <f>PCR!$G45</f>
+        <f>PCR!$D45</f>
         <v/>
       </c>
       <c r="H38" s="21" t="str">
-        <f>PCR!$G53</f>
+        <f>PCR!$D53</f>
         <v/>
       </c>
       <c r="I38" s="21" t="str">
-        <f>PCR!$G61</f>
+        <f>PCR!$D61</f>
         <v/>
       </c>
       <c r="J38" s="21" t="str">
-        <f>PCR!$G69</f>
+        <f>PCR!$D69</f>
         <v/>
       </c>
       <c r="K38" s="21" t="str">
-        <f>PCR!$G77</f>
+        <f>PCR!$D77</f>
         <v/>
       </c>
       <c r="L38" s="21" t="str">
-        <f>PCR!$G85</f>
+        <f>PCR!$D85</f>
         <v/>
       </c>
       <c r="M38" s="21" t="str">
-        <f>PCR!$G93</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D93</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="21" t="str">
-        <f>PCR!$G6</f>
+        <f>PCR!$D6</f>
         <v/>
       </c>
       <c r="C39" s="21" t="str">
-        <f>PCR!$G14</f>
+        <f>PCR!$D14</f>
         <v/>
       </c>
       <c r="D39" s="21" t="str">
-        <f>PCR!$G22</f>
+        <f>PCR!$D22</f>
         <v/>
       </c>
       <c r="E39" s="21" t="str">
-        <f>PCR!$G30</f>
+        <f>PCR!$D30</f>
         <v/>
       </c>
       <c r="F39" s="21" t="str">
-        <f>PCR!$G38</f>
+        <f>PCR!$D38</f>
         <v/>
       </c>
       <c r="G39" s="21" t="str">
-        <f>PCR!$G46</f>
+        <f>PCR!$D46</f>
         <v/>
       </c>
       <c r="H39" s="21" t="str">
-        <f>PCR!$G54</f>
+        <f>PCR!$D54</f>
         <v/>
       </c>
       <c r="I39" s="21" t="str">
-        <f>PCR!$G62</f>
+        <f>PCR!$D62</f>
         <v/>
       </c>
       <c r="J39" s="21" t="str">
-        <f>PCR!$G70</f>
+        <f>PCR!$D70</f>
         <v/>
       </c>
       <c r="K39" s="21" t="str">
-        <f>PCR!$G78</f>
+        <f>PCR!$D78</f>
         <v/>
       </c>
       <c r="L39" s="21" t="str">
-        <f>PCR!$G86</f>
+        <f>PCR!$D86</f>
         <v/>
       </c>
       <c r="M39" s="21" t="str">
-        <f>PCR!$G94</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D94</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="21" t="str">
-        <f>PCR!$G7</f>
+        <f>PCR!$D7</f>
         <v/>
       </c>
       <c r="C40" s="21" t="str">
-        <f>PCR!$G15</f>
+        <f>PCR!$D15</f>
         <v/>
       </c>
       <c r="D40" s="21" t="str">
-        <f>PCR!$G23</f>
+        <f>PCR!$D23</f>
         <v/>
       </c>
       <c r="E40" s="21" t="str">
-        <f>PCR!$G31</f>
+        <f>PCR!$D31</f>
         <v/>
       </c>
       <c r="F40" s="21" t="str">
-        <f>PCR!$G39</f>
+        <f>PCR!$D39</f>
         <v/>
       </c>
       <c r="G40" s="21" t="str">
-        <f>PCR!$G47</f>
+        <f>PCR!$D47</f>
         <v/>
       </c>
       <c r="H40" s="21" t="str">
-        <f>PCR!$G55</f>
+        <f>PCR!$D55</f>
         <v/>
       </c>
       <c r="I40" s="21" t="str">
-        <f>PCR!$G63</f>
+        <f>PCR!$D63</f>
         <v/>
       </c>
       <c r="J40" s="21" t="str">
-        <f>PCR!$G71</f>
+        <f>PCR!$D71</f>
         <v/>
       </c>
       <c r="K40" s="21" t="str">
-        <f>PCR!$G79</f>
+        <f>PCR!$D79</f>
         <v/>
       </c>
       <c r="L40" s="21" t="str">
-        <f>PCR!$G87</f>
+        <f>PCR!$D87</f>
         <v/>
       </c>
       <c r="M40" s="21" t="str">
-        <f>PCR!$G95</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D95</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="21" t="str">
-        <f>PCR!$G8</f>
+        <f>PCR!$D8</f>
         <v/>
       </c>
       <c r="C41" s="21" t="str">
-        <f>PCR!$G16</f>
+        <f>PCR!$D16</f>
         <v/>
       </c>
       <c r="D41" s="21" t="str">
-        <f>PCR!$G24</f>
+        <f>PCR!$D24</f>
         <v/>
       </c>
       <c r="E41" s="21" t="str">
-        <f>PCR!$G32</f>
+        <f>PCR!$D32</f>
         <v/>
       </c>
       <c r="F41" s="21" t="str">
-        <f>PCR!$G40</f>
+        <f>PCR!$D40</f>
         <v/>
       </c>
       <c r="G41" s="21" t="str">
-        <f>PCR!$G48</f>
+        <f>PCR!$D48</f>
         <v/>
       </c>
       <c r="H41" s="21" t="str">
-        <f>PCR!$G56</f>
+        <f>PCR!$D56</f>
         <v/>
       </c>
       <c r="I41" s="21" t="str">
-        <f>PCR!$G64</f>
+        <f>PCR!$D64</f>
         <v/>
       </c>
       <c r="J41" s="21" t="str">
-        <f>PCR!$G72</f>
+        <f>PCR!$D72</f>
         <v/>
       </c>
       <c r="K41" s="21" t="str">
-        <f>PCR!$G80</f>
+        <f>PCR!$D80</f>
         <v/>
       </c>
       <c r="L41" s="21" t="str">
-        <f>PCR!$G88</f>
+        <f>PCR!$D88</f>
         <v/>
       </c>
       <c r="M41" s="21" t="str">
-        <f>PCR!$G96</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D96</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="21" t="str">
-        <f>PCR!$G9</f>
+        <f>PCR!$D9</f>
         <v/>
       </c>
       <c r="C42" s="21" t="str">
-        <f>PCR!$G17</f>
+        <f>PCR!$D17</f>
         <v/>
       </c>
       <c r="D42" s="21" t="str">
-        <f>PCR!$G25</f>
+        <f>PCR!$D25</f>
         <v/>
       </c>
       <c r="E42" s="21" t="str">
-        <f>PCR!$G33</f>
+        <f>PCR!$D33</f>
         <v/>
       </c>
       <c r="F42" s="21" t="str">
-        <f>PCR!$G41</f>
+        <f>PCR!$D41</f>
         <v/>
       </c>
       <c r="G42" s="21" t="str">
-        <f>PCR!$G49</f>
+        <f>PCR!$D49</f>
         <v/>
       </c>
       <c r="H42" s="21" t="str">
-        <f>PCR!$G57</f>
+        <f>PCR!$D57</f>
         <v/>
       </c>
       <c r="I42" s="21" t="str">
-        <f>PCR!$G65</f>
+        <f>PCR!$D65</f>
         <v/>
       </c>
       <c r="J42" s="21" t="str">
-        <f>PCR!$G73</f>
+        <f>PCR!$D73</f>
         <v/>
       </c>
       <c r="K42" s="21" t="str">
-        <f>PCR!$G81</f>
+        <f>PCR!$D81</f>
         <v/>
       </c>
       <c r="L42" s="21" t="str">
-        <f>PCR!$G89</f>
+        <f>PCR!$D89</f>
         <v/>
       </c>
       <c r="M42" s="21" t="str">
-        <f>PCR!$G97</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D97</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="21" t="str">
-        <f>PCR!$G10</f>
+        <f>PCR!$D10</f>
         <v/>
       </c>
       <c r="C43" s="21" t="str">
-        <f>PCR!$G18</f>
+        <f>PCR!$D18</f>
         <v/>
       </c>
       <c r="D43" s="21" t="str">
-        <f>PCR!$G26</f>
+        <f>PCR!$D26</f>
         <v/>
       </c>
       <c r="E43" s="21" t="str">
-        <f>PCR!$G34</f>
+        <f>PCR!$D34</f>
         <v/>
       </c>
       <c r="F43" s="21" t="str">
-        <f>PCR!$G42</f>
+        <f>PCR!$D42</f>
         <v/>
       </c>
       <c r="G43" s="21" t="str">
-        <f>PCR!$G50</f>
+        <f>PCR!$D50</f>
         <v/>
       </c>
       <c r="H43" s="21" t="str">
-        <f>PCR!$G58</f>
+        <f>PCR!$D58</f>
         <v/>
       </c>
       <c r="I43" s="21" t="str">
-        <f>PCR!$G66</f>
+        <f>PCR!$D66</f>
         <v/>
       </c>
       <c r="J43" s="21" t="str">
-        <f>PCR!$G74</f>
+        <f>PCR!$D74</f>
         <v/>
       </c>
       <c r="K43" s="21" t="str">
-        <f>PCR!$G82</f>
+        <f>PCR!$D82</f>
         <v/>
       </c>
       <c r="L43" s="21" t="str">
-        <f>PCR!$G90</f>
+        <f>PCR!$D90</f>
         <v/>
       </c>
       <c r="M43" s="21" t="str">
-        <f>PCR!$G98</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f>PCR!$D98</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C17:K18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="D24:E24"/>
@@ -4277,51 +4313,17 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C17:K18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:C27">
     <cfRule type="expression" dxfId="12" priority="9">
@@ -4445,43 +4447,43 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.59765625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="4" max="5" width="11.8984375" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="G1" s="55"/>
       <c r="H1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="124"/>
-    </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
         <v>34</v>
       </c>
@@ -4492,16 +4494,16 @@
         <v>132</v>
       </c>
       <c r="D2" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="F2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="G2" s="58" t="s">
         <v>269</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>286</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>184</v>
@@ -4522,7 +4524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61">
         <v>1</v>
       </c>
@@ -4533,13 +4535,13 @@
       <c r="C3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
-      <c r="G3" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G3" s="63"/>
       <c r="H3" s="65"/>
       <c r="I3" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4553,7 +4555,7 @@
       </c>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69">
         <v>2</v>
       </c>
@@ -4564,13 +4566,13 @@
       <c r="C4" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G4" s="24"/>
       <c r="H4" s="39"/>
       <c r="I4" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4584,7 +4586,7 @@
       </c>
       <c r="M4" s="70"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="69">
         <v>3</v>
       </c>
@@ -4595,13 +4597,13 @@
       <c r="C5" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G5" s="24"/>
       <c r="H5" s="39"/>
       <c r="I5" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4615,7 +4617,7 @@
       </c>
       <c r="M5" s="70"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="69">
         <v>4</v>
       </c>
@@ -4626,13 +4628,13 @@
       <c r="C6" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
-      <c r="G6" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G6" s="24"/>
       <c r="H6" s="39"/>
       <c r="I6" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4646,7 +4648,7 @@
       </c>
       <c r="M6" s="70"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>5</v>
       </c>
@@ -4657,13 +4659,13 @@
       <c r="C7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
-      <c r="G7" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G7" s="24"/>
       <c r="H7" s="39"/>
       <c r="I7" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4677,7 +4679,7 @@
       </c>
       <c r="M7" s="70"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69">
         <v>6</v>
       </c>
@@ -4688,13 +4690,13 @@
       <c r="C8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G8" s="24"/>
       <c r="H8" s="39"/>
       <c r="I8" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4708,7 +4710,7 @@
       </c>
       <c r="M8" s="70"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="69">
         <v>7</v>
       </c>
@@ -4719,13 +4721,13 @@
       <c r="C9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
-      <c r="G9" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G9" s="24"/>
       <c r="H9" s="39"/>
       <c r="I9" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4739,7 +4741,7 @@
       </c>
       <c r="M9" s="70"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>8</v>
       </c>
@@ -4750,13 +4752,13 @@
       <c r="C10" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="73"/>
+      <c r="D10" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
-      <c r="G10" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G10" s="73"/>
       <c r="H10" s="75"/>
       <c r="I10" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4770,7 +4772,7 @@
       </c>
       <c r="M10" s="79"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61">
         <v>9</v>
       </c>
@@ -4781,13 +4783,13 @@
       <c r="C11" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G11" s="63"/>
       <c r="H11" s="80"/>
       <c r="I11" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4801,7 +4803,7 @@
       </c>
       <c r="M11" s="68"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
         <v>10</v>
       </c>
@@ -4812,13 +4814,13 @@
       <c r="C12" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G12" s="24"/>
       <c r="H12" s="40"/>
       <c r="I12" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4832,7 +4834,7 @@
       </c>
       <c r="M12" s="70"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="69">
         <v>11</v>
       </c>
@@ -4843,13 +4845,13 @@
       <c r="C13" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G13" s="24"/>
       <c r="H13" s="40"/>
       <c r="I13" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4863,7 +4865,7 @@
       </c>
       <c r="M13" s="70"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>12</v>
       </c>
@@ -4874,13 +4876,13 @@
       <c r="C14" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G14" s="24"/>
       <c r="H14" s="40"/>
       <c r="I14" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4894,7 +4896,7 @@
       </c>
       <c r="M14" s="70"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="69">
         <v>13</v>
       </c>
@@ -4905,13 +4907,13 @@
       <c r="C15" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G15" s="24"/>
       <c r="H15" s="40"/>
       <c r="I15" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4925,7 +4927,7 @@
       </c>
       <c r="M15" s="70"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69">
         <v>14</v>
       </c>
@@ -4936,13 +4938,13 @@
       <c r="C16" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G16" s="24"/>
       <c r="H16" s="40"/>
       <c r="I16" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4956,7 +4958,7 @@
       </c>
       <c r="M16" s="70"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="69">
         <v>15</v>
       </c>
@@ -4967,13 +4969,13 @@
       <c r="C17" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="G17" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G17" s="24"/>
       <c r="H17" s="40"/>
       <c r="I17" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -4987,7 +4989,7 @@
       </c>
       <c r="M17" s="70"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <v>16</v>
       </c>
@@ -4998,13 +5000,13 @@
       <c r="C18" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
-      <c r="G18" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G18" s="73"/>
       <c r="H18" s="75"/>
       <c r="I18" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5018,7 +5020,7 @@
       </c>
       <c r="M18" s="79"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61">
         <v>17</v>
       </c>
@@ -5029,13 +5031,13 @@
       <c r="C19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
-      <c r="G19" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G19" s="63"/>
       <c r="H19" s="80"/>
       <c r="I19" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5049,7 +5051,7 @@
       </c>
       <c r="M19" s="68"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69">
         <v>18</v>
       </c>
@@ -5060,13 +5062,13 @@
       <c r="C20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
-      <c r="G20" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G20" s="24"/>
       <c r="H20" s="40"/>
       <c r="I20" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5080,7 +5082,7 @@
       </c>
       <c r="M20" s="70"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>19</v>
       </c>
@@ -5091,13 +5093,13 @@
       <c r="C21" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G21" s="24"/>
       <c r="H21" s="40"/>
       <c r="I21" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5111,7 +5113,7 @@
       </c>
       <c r="M21" s="70"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="69">
         <v>20</v>
       </c>
@@ -5122,13 +5124,13 @@
       <c r="C22" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G22" s="24"/>
       <c r="H22" s="40"/>
       <c r="I22" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5142,7 +5144,7 @@
       </c>
       <c r="M22" s="70"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>21</v>
       </c>
@@ -5153,13 +5155,13 @@
       <c r="C23" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G23" s="24"/>
       <c r="H23" s="40"/>
       <c r="I23" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5173,7 +5175,7 @@
       </c>
       <c r="M23" s="70"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="69">
         <v>22</v>
       </c>
@@ -5184,13 +5186,13 @@
       <c r="C24" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
-      <c r="G24" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G24" s="24"/>
       <c r="H24" s="40"/>
       <c r="I24" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5204,7 +5206,7 @@
       </c>
       <c r="M24" s="70"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>23</v>
       </c>
@@ -5215,13 +5217,13 @@
       <c r="C25" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G25" s="24"/>
       <c r="H25" s="40"/>
       <c r="I25" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5235,7 +5237,7 @@
       </c>
       <c r="M25" s="70"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="71">
         <v>24</v>
       </c>
@@ -5246,13 +5248,13 @@
       <c r="C26" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
-      <c r="G26" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G26" s="73"/>
       <c r="H26" s="75"/>
       <c r="I26" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5266,7 +5268,7 @@
       </c>
       <c r="M26" s="79"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="61">
         <v>25</v>
       </c>
@@ -5277,13 +5279,13 @@
       <c r="C27" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E27" s="63"/>
       <c r="F27" s="63"/>
-      <c r="G27" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G27" s="63"/>
       <c r="H27" s="80"/>
       <c r="I27" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5297,7 +5299,7 @@
       </c>
       <c r="M27" s="68"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="69">
         <v>26</v>
       </c>
@@ -5308,13 +5310,13 @@
       <c r="C28" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
-      <c r="G28" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G28" s="24"/>
       <c r="H28" s="40"/>
       <c r="I28" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5328,7 +5330,7 @@
       </c>
       <c r="M28" s="70"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69">
         <v>27</v>
       </c>
@@ -5339,13 +5341,13 @@
       <c r="C29" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G29" s="24"/>
       <c r="H29" s="40"/>
       <c r="I29" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5359,7 +5361,7 @@
       </c>
       <c r="M29" s="70"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69">
         <v>28</v>
       </c>
@@ -5370,13 +5372,13 @@
       <c r="C30" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="24"/>
+      <c r="D30" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
-      <c r="G30" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G30" s="24"/>
       <c r="H30" s="40"/>
       <c r="I30" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5390,7 +5392,7 @@
       </c>
       <c r="M30" s="70"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="69">
         <v>29</v>
       </c>
@@ -5401,13 +5403,13 @@
       <c r="C31" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="24"/>
+      <c r="D31" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G31" s="24"/>
       <c r="H31" s="40"/>
       <c r="I31" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5421,7 +5423,7 @@
       </c>
       <c r="M31" s="70"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="69">
         <v>30</v>
       </c>
@@ -5432,13 +5434,13 @@
       <c r="C32" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
-      <c r="G32" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G32" s="24"/>
       <c r="H32" s="40"/>
       <c r="I32" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5452,7 +5454,7 @@
       </c>
       <c r="M32" s="70"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69">
         <v>31</v>
       </c>
@@ -5463,13 +5465,13 @@
       <c r="C33" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
-      <c r="G33" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G33" s="24"/>
       <c r="H33" s="40"/>
       <c r="I33" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5483,7 +5485,7 @@
       </c>
       <c r="M33" s="70"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="71">
         <v>32</v>
       </c>
@@ -5494,13 +5496,13 @@
       <c r="C34" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
-      <c r="G34" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G34" s="73"/>
       <c r="H34" s="75"/>
       <c r="I34" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5514,7 +5516,7 @@
       </c>
       <c r="M34" s="79"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61">
         <v>33</v>
       </c>
@@ -5525,13 +5527,13 @@
       <c r="C35" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G35" s="63"/>
       <c r="H35" s="80"/>
       <c r="I35" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5545,7 +5547,7 @@
       </c>
       <c r="M35" s="68"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="69">
         <v>34</v>
       </c>
@@ -5556,13 +5558,13 @@
       <c r="C36" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
-      <c r="G36" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G36" s="24"/>
       <c r="H36" s="40"/>
       <c r="I36" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5576,7 +5578,7 @@
       </c>
       <c r="M36" s="70"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="69">
         <v>35</v>
       </c>
@@ -5587,13 +5589,13 @@
       <c r="C37" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
-      <c r="G37" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G37" s="24"/>
       <c r="H37" s="40"/>
       <c r="I37" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5607,7 +5609,7 @@
       </c>
       <c r="M37" s="70"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="69">
         <v>36</v>
       </c>
@@ -5618,13 +5620,13 @@
       <c r="C38" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G38" s="24"/>
       <c r="H38" s="40"/>
       <c r="I38" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5638,7 +5640,7 @@
       </c>
       <c r="M38" s="70"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="69">
         <v>37</v>
       </c>
@@ -5649,13 +5651,13 @@
       <c r="C39" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="24"/>
+      <c r="D39" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
-      <c r="G39" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G39" s="24"/>
       <c r="H39" s="40"/>
       <c r="I39" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5669,7 +5671,7 @@
       </c>
       <c r="M39" s="70"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="69">
         <v>38</v>
       </c>
@@ -5680,13 +5682,13 @@
       <c r="C40" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G40" s="24"/>
       <c r="H40" s="40"/>
       <c r="I40" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5700,7 +5702,7 @@
       </c>
       <c r="M40" s="70"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="69">
         <v>39</v>
       </c>
@@ -5711,13 +5713,13 @@
       <c r="C41" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G41" s="24"/>
       <c r="H41" s="40"/>
       <c r="I41" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5731,7 +5733,7 @@
       </c>
       <c r="M41" s="70"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="71">
         <v>40</v>
       </c>
@@ -5742,13 +5744,13 @@
       <c r="C42" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="73"/>
+      <c r="D42" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E42" s="73"/>
       <c r="F42" s="73"/>
-      <c r="G42" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G42" s="73"/>
       <c r="H42" s="75"/>
       <c r="I42" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5762,7 +5764,7 @@
       </c>
       <c r="M42" s="79"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61">
         <v>41</v>
       </c>
@@ -5773,13 +5775,13 @@
       <c r="C43" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="63"/>
+      <c r="D43" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E43" s="63"/>
       <c r="F43" s="63"/>
-      <c r="G43" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G43" s="63"/>
       <c r="H43" s="80"/>
       <c r="I43" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5793,7 +5795,7 @@
       </c>
       <c r="M43" s="68"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="69">
         <v>42</v>
       </c>
@@ -5804,13 +5806,13 @@
       <c r="C44" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G44" s="24"/>
       <c r="H44" s="40"/>
       <c r="I44" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5824,7 +5826,7 @@
       </c>
       <c r="M44" s="70"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="69">
         <v>43</v>
       </c>
@@ -5835,13 +5837,13 @@
       <c r="C45" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
-      <c r="G45" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G45" s="24"/>
       <c r="H45" s="40"/>
       <c r="I45" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5855,7 +5857,7 @@
       </c>
       <c r="M45" s="70"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="69">
         <v>44</v>
       </c>
@@ -5866,13 +5868,13 @@
       <c r="C46" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G46" s="24"/>
       <c r="H46" s="40"/>
       <c r="I46" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5886,7 +5888,7 @@
       </c>
       <c r="M46" s="70"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="69">
         <v>45</v>
       </c>
@@ -5897,13 +5899,13 @@
       <c r="C47" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
-      <c r="G47" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="40"/>
       <c r="I47" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5917,7 +5919,7 @@
       </c>
       <c r="M47" s="70"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="69">
         <v>46</v>
       </c>
@@ -5928,13 +5930,13 @@
       <c r="C48" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="24"/>
+      <c r="D48" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
-      <c r="G48" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G48" s="24"/>
       <c r="H48" s="40"/>
       <c r="I48" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5948,7 +5950,7 @@
       </c>
       <c r="M48" s="70"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69">
         <v>47</v>
       </c>
@@ -5959,13 +5961,13 @@
       <c r="C49" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="24"/>
+      <c r="D49" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G49" s="24"/>
       <c r="H49" s="40"/>
       <c r="I49" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -5979,7 +5981,7 @@
       </c>
       <c r="M49" s="70"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="71">
         <v>48</v>
       </c>
@@ -5990,13 +5992,13 @@
       <c r="C50" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
-      <c r="G50" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G50" s="73"/>
       <c r="H50" s="75"/>
       <c r="I50" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6010,7 +6012,7 @@
       </c>
       <c r="M50" s="79"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61">
         <v>49</v>
       </c>
@@ -6021,13 +6023,13 @@
       <c r="C51" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
-      <c r="G51" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G51" s="63"/>
       <c r="H51" s="80"/>
       <c r="I51" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6041,7 +6043,7 @@
       </c>
       <c r="M51" s="68"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="69">
         <v>50</v>
       </c>
@@ -6052,13 +6054,13 @@
       <c r="C52" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="24"/>
+      <c r="D52" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
-      <c r="G52" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G52" s="24"/>
       <c r="H52" s="40"/>
       <c r="I52" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6072,7 +6074,7 @@
       </c>
       <c r="M52" s="70"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="69">
         <v>51</v>
       </c>
@@ -6083,13 +6085,13 @@
       <c r="C53" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="24"/>
+      <c r="D53" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G53" s="24"/>
       <c r="H53" s="40"/>
       <c r="I53" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6103,7 +6105,7 @@
       </c>
       <c r="M53" s="70"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="69">
         <v>52</v>
       </c>
@@ -6114,13 +6116,13 @@
       <c r="C54" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
-      <c r="G54" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G54" s="24"/>
       <c r="H54" s="40"/>
       <c r="I54" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6134,7 +6136,7 @@
       </c>
       <c r="M54" s="70"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="69">
         <v>53</v>
       </c>
@@ -6145,13 +6147,13 @@
       <c r="C55" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
-      <c r="G55" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G55" s="24"/>
       <c r="H55" s="40"/>
       <c r="I55" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6165,7 +6167,7 @@
       </c>
       <c r="M55" s="70"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="69">
         <v>54</v>
       </c>
@@ -6176,13 +6178,13 @@
       <c r="C56" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G56" s="24"/>
       <c r="H56" s="40"/>
       <c r="I56" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6196,7 +6198,7 @@
       </c>
       <c r="M56" s="70"/>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="69">
         <v>55</v>
       </c>
@@ -6207,13 +6209,13 @@
       <c r="C57" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
-      <c r="G57" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G57" s="24"/>
       <c r="H57" s="40"/>
       <c r="I57" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6227,7 +6229,7 @@
       </c>
       <c r="M57" s="70"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="71">
         <v>56</v>
       </c>
@@ -6238,13 +6240,13 @@
       <c r="C58" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="73"/>
+      <c r="D58" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E58" s="73"/>
       <c r="F58" s="73"/>
-      <c r="G58" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G58" s="73"/>
       <c r="H58" s="75"/>
       <c r="I58" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6258,7 +6260,7 @@
       </c>
       <c r="M58" s="79"/>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61">
         <v>57</v>
       </c>
@@ -6269,13 +6271,13 @@
       <c r="C59" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="63"/>
+      <c r="D59" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E59" s="63"/>
       <c r="F59" s="63"/>
-      <c r="G59" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G59" s="63"/>
       <c r="H59" s="80"/>
       <c r="I59" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6289,7 +6291,7 @@
       </c>
       <c r="M59" s="68"/>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="69">
         <v>58</v>
       </c>
@@ -6300,13 +6302,13 @@
       <c r="C60" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
-      <c r="G60" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G60" s="24"/>
       <c r="H60" s="40"/>
       <c r="I60" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6320,7 +6322,7 @@
       </c>
       <c r="M60" s="70"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="69">
         <v>59</v>
       </c>
@@ -6331,13 +6333,13 @@
       <c r="C61" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="24"/>
+      <c r="D61" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
-      <c r="G61" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G61" s="24"/>
       <c r="H61" s="40"/>
       <c r="I61" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6351,7 +6353,7 @@
       </c>
       <c r="M61" s="70"/>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="69">
         <v>60</v>
       </c>
@@ -6362,13 +6364,13 @@
       <c r="C62" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="24"/>
+      <c r="D62" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G62" s="24"/>
       <c r="H62" s="40"/>
       <c r="I62" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6382,7 +6384,7 @@
       </c>
       <c r="M62" s="70"/>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="69">
         <v>61</v>
       </c>
@@ -6393,13 +6395,13 @@
       <c r="C63" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="24"/>
+      <c r="D63" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
-      <c r="G63" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G63" s="24"/>
       <c r="H63" s="40"/>
       <c r="I63" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6413,7 +6415,7 @@
       </c>
       <c r="M63" s="70"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="69">
         <v>62</v>
       </c>
@@ -6424,13 +6426,13 @@
       <c r="C64" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="24"/>
+      <c r="D64" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
-      <c r="G64" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G64" s="24"/>
       <c r="H64" s="40"/>
       <c r="I64" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6444,7 +6446,7 @@
       </c>
       <c r="M64" s="70"/>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="69">
         <v>63</v>
       </c>
@@ -6455,13 +6457,13 @@
       <c r="C65" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="24"/>
+      <c r="D65" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
-      <c r="G65" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G65" s="24"/>
       <c r="H65" s="40"/>
       <c r="I65" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6475,7 +6477,7 @@
       </c>
       <c r="M65" s="70"/>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="71">
         <v>64</v>
       </c>
@@ -6486,13 +6488,13 @@
       <c r="C66" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="73"/>
+      <c r="D66" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E66" s="73"/>
       <c r="F66" s="73"/>
-      <c r="G66" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G66" s="73"/>
       <c r="H66" s="75"/>
       <c r="I66" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6506,7 +6508,7 @@
       </c>
       <c r="M66" s="79"/>
     </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="61">
         <v>65</v>
       </c>
@@ -6517,13 +6519,13 @@
       <c r="C67" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="63"/>
+      <c r="D67" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E67" s="63"/>
       <c r="F67" s="63"/>
-      <c r="G67" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G67" s="63"/>
       <c r="H67" s="80"/>
       <c r="I67" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6537,7 +6539,7 @@
       </c>
       <c r="M67" s="68"/>
     </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="69">
         <v>66</v>
       </c>
@@ -6548,13 +6550,13 @@
       <c r="C68" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="24"/>
+      <c r="D68" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
-      <c r="G68" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G68" s="24"/>
       <c r="H68" s="40"/>
       <c r="I68" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6568,7 +6570,7 @@
       </c>
       <c r="M68" s="70"/>
     </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="69">
         <v>67</v>
       </c>
@@ -6579,13 +6581,13 @@
       <c r="C69" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="24"/>
+      <c r="D69" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
-      <c r="G69" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G69" s="24"/>
       <c r="H69" s="40"/>
       <c r="I69" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6599,7 +6601,7 @@
       </c>
       <c r="M69" s="70"/>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="69">
         <v>68</v>
       </c>
@@ -6610,13 +6612,13 @@
       <c r="C70" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="24"/>
+      <c r="D70" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
-      <c r="G70" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G70" s="24"/>
       <c r="H70" s="40"/>
       <c r="I70" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6630,7 +6632,7 @@
       </c>
       <c r="M70" s="70"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="69">
         <v>69</v>
       </c>
@@ -6641,13 +6643,13 @@
       <c r="C71" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="24"/>
+      <c r="D71" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
-      <c r="G71" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G71" s="24"/>
       <c r="H71" s="40"/>
       <c r="I71" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6661,7 +6663,7 @@
       </c>
       <c r="M71" s="70"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="69">
         <v>70</v>
       </c>
@@ -6672,13 +6674,13 @@
       <c r="C72" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="24"/>
+      <c r="D72" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
-      <c r="G72" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G72" s="24"/>
       <c r="H72" s="40"/>
       <c r="I72" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="M72" s="70"/>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="69">
         <v>71</v>
       </c>
@@ -6703,13 +6705,13 @@
       <c r="C73" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="24"/>
+      <c r="D73" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
-      <c r="G73" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G73" s="24"/>
       <c r="H73" s="40"/>
       <c r="I73" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6723,7 +6725,7 @@
       </c>
       <c r="M73" s="70"/>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="71">
         <v>72</v>
       </c>
@@ -6734,13 +6736,13 @@
       <c r="C74" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D74" s="73"/>
+      <c r="D74" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E74" s="73"/>
       <c r="F74" s="73"/>
-      <c r="G74" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G74" s="73"/>
       <c r="H74" s="75"/>
       <c r="I74" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6754,7 +6756,7 @@
       </c>
       <c r="M74" s="79"/>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="61">
         <v>73</v>
       </c>
@@ -6765,13 +6767,13 @@
       <c r="C75" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D75" s="63"/>
+      <c r="D75" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E75" s="63"/>
       <c r="F75" s="63"/>
-      <c r="G75" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G75" s="63"/>
       <c r="H75" s="80"/>
       <c r="I75" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6785,7 +6787,7 @@
       </c>
       <c r="M75" s="68"/>
     </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="69">
         <v>74</v>
       </c>
@@ -6796,13 +6798,13 @@
       <c r="C76" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D76" s="24"/>
+      <c r="D76" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
-      <c r="G76" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G76" s="24"/>
       <c r="H76" s="40"/>
       <c r="I76" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6816,7 +6818,7 @@
       </c>
       <c r="M76" s="70"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="69">
         <v>75</v>
       </c>
@@ -6827,13 +6829,13 @@
       <c r="C77" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D77" s="24"/>
+      <c r="D77" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
-      <c r="G77" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G77" s="24"/>
       <c r="H77" s="40"/>
       <c r="I77" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6847,7 +6849,7 @@
       </c>
       <c r="M77" s="70"/>
     </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="69">
         <v>76</v>
       </c>
@@ -6858,13 +6860,13 @@
       <c r="C78" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D78" s="24"/>
+      <c r="D78" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
-      <c r="G78" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G78" s="24"/>
       <c r="H78" s="40"/>
       <c r="I78" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6878,7 +6880,7 @@
       </c>
       <c r="M78" s="70"/>
     </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="69">
         <v>77</v>
       </c>
@@ -6889,13 +6891,13 @@
       <c r="C79" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="D79" s="24"/>
+      <c r="D79" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
-      <c r="G79" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G79" s="24"/>
       <c r="H79" s="40"/>
       <c r="I79" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6909,7 +6911,7 @@
       </c>
       <c r="M79" s="70"/>
     </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="69">
         <v>78</v>
       </c>
@@ -6920,13 +6922,13 @@
       <c r="C80" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="24"/>
+      <c r="D80" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
-      <c r="G80" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G80" s="24"/>
       <c r="H80" s="40"/>
       <c r="I80" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6940,7 +6942,7 @@
       </c>
       <c r="M80" s="70"/>
     </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="69">
         <v>79</v>
       </c>
@@ -6951,13 +6953,13 @@
       <c r="C81" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D81" s="24"/>
+      <c r="D81" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
-      <c r="G81" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G81" s="24"/>
       <c r="H81" s="40"/>
       <c r="I81" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -6971,7 +6973,7 @@
       </c>
       <c r="M81" s="70"/>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="71">
         <v>80</v>
       </c>
@@ -6982,13 +6984,13 @@
       <c r="C82" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="D82" s="73"/>
+      <c r="D82" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E82" s="73"/>
       <c r="F82" s="73"/>
-      <c r="G82" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G82" s="73"/>
       <c r="H82" s="75"/>
       <c r="I82" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7002,7 +7004,7 @@
       </c>
       <c r="M82" s="79"/>
     </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="61">
         <v>81</v>
       </c>
@@ -7013,13 +7015,13 @@
       <c r="C83" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="63"/>
+      <c r="D83" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E83" s="63"/>
       <c r="F83" s="63"/>
-      <c r="G83" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G83" s="63"/>
       <c r="H83" s="80"/>
       <c r="I83" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7033,7 +7035,7 @@
       </c>
       <c r="M83" s="68"/>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="69">
         <v>82</v>
       </c>
@@ -7044,13 +7046,13 @@
       <c r="C84" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D84" s="24"/>
+      <c r="D84" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
-      <c r="G84" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G84" s="24"/>
       <c r="H84" s="40"/>
       <c r="I84" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7064,7 +7066,7 @@
       </c>
       <c r="M84" s="70"/>
     </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="69">
         <v>83</v>
       </c>
@@ -7075,13 +7077,13 @@
       <c r="C85" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="24"/>
+      <c r="D85" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
-      <c r="G85" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G85" s="24"/>
       <c r="H85" s="40"/>
       <c r="I85" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7095,7 +7097,7 @@
       </c>
       <c r="M85" s="70"/>
     </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="69">
         <v>84</v>
       </c>
@@ -7106,13 +7108,13 @@
       <c r="C86" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D86" s="24"/>
+      <c r="D86" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
-      <c r="G86" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G86" s="24"/>
       <c r="H86" s="40"/>
       <c r="I86" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7126,7 +7128,7 @@
       </c>
       <c r="M86" s="70"/>
     </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="69">
         <v>85</v>
       </c>
@@ -7137,13 +7139,13 @@
       <c r="C87" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D87" s="24"/>
+      <c r="D87" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
-      <c r="G87" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G87" s="24"/>
       <c r="H87" s="40"/>
       <c r="I87" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7157,7 +7159,7 @@
       </c>
       <c r="M87" s="70"/>
     </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="69">
         <v>86</v>
       </c>
@@ -7168,13 +7170,13 @@
       <c r="C88" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="24"/>
+      <c r="D88" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
-      <c r="G88" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G88" s="24"/>
       <c r="H88" s="40"/>
       <c r="I88" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7188,7 +7190,7 @@
       </c>
       <c r="M88" s="70"/>
     </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="69">
         <v>87</v>
       </c>
@@ -7199,13 +7201,13 @@
       <c r="C89" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="24"/>
+      <c r="D89" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
-      <c r="G89" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G89" s="24"/>
       <c r="H89" s="40"/>
       <c r="I89" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7219,7 +7221,7 @@
       </c>
       <c r="M89" s="70"/>
     </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="71">
         <v>88</v>
       </c>
@@ -7230,13 +7232,13 @@
       <c r="C90" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="73"/>
+      <c r="D90" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E90" s="73"/>
       <c r="F90" s="73"/>
-      <c r="G90" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G90" s="73"/>
       <c r="H90" s="75"/>
       <c r="I90" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7250,7 +7252,7 @@
       </c>
       <c r="M90" s="79"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="61">
         <v>89</v>
       </c>
@@ -7261,13 +7263,13 @@
       <c r="C91" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="63"/>
+      <c r="D91" s="64" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E91" s="63"/>
       <c r="F91" s="63"/>
-      <c r="G91" s="64" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G91" s="63"/>
       <c r="H91" s="80"/>
       <c r="I91" s="66" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7281,7 +7283,7 @@
       </c>
       <c r="M91" s="68"/>
     </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="69">
         <v>90</v>
       </c>
@@ -7292,13 +7294,13 @@
       <c r="C92" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="24"/>
+      <c r="D92" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
-      <c r="G92" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G92" s="24"/>
       <c r="H92" s="40"/>
       <c r="I92" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7312,7 +7314,7 @@
       </c>
       <c r="M92" s="70"/>
     </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="69">
         <v>91</v>
       </c>
@@ -7323,13 +7325,13 @@
       <c r="C93" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D93" s="24"/>
+      <c r="D93" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
-      <c r="G93" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G93" s="24"/>
       <c r="H93" s="40"/>
       <c r="I93" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7343,7 +7345,7 @@
       </c>
       <c r="M93" s="70"/>
     </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="69">
         <v>92</v>
       </c>
@@ -7354,13 +7356,13 @@
       <c r="C94" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="24"/>
+      <c r="D94" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
-      <c r="G94" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G94" s="24"/>
       <c r="H94" s="40"/>
       <c r="I94" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7374,7 +7376,7 @@
       </c>
       <c r="M94" s="70"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="69">
         <v>93</v>
       </c>
@@ -7385,13 +7387,13 @@
       <c r="C95" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="24"/>
+      <c r="D95" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
-      <c r="G95" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G95" s="24"/>
       <c r="H95" s="40"/>
       <c r="I95" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7405,7 +7407,7 @@
       </c>
       <c r="M95" s="70"/>
     </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="69">
         <v>94</v>
       </c>
@@ -7416,13 +7418,13 @@
       <c r="C96" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D96" s="24"/>
+      <c r="D96" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
-      <c r="G96" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G96" s="24"/>
       <c r="H96" s="40"/>
       <c r="I96" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7436,7 +7438,7 @@
       </c>
       <c r="M96" s="70"/>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="69">
         <v>95</v>
       </c>
@@ -7447,13 +7449,13 @@
       <c r="C97" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D97" s="24"/>
+      <c r="D97" s="56" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
-      <c r="G97" s="56" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G97" s="24"/>
       <c r="H97" s="40"/>
       <c r="I97" s="11" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7467,7 +7469,7 @@
       </c>
       <c r="M97" s="70"/>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="71">
         <v>96</v>
       </c>
@@ -7478,13 +7480,13 @@
       <c r="C98" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="73"/>
+      <c r="D98" s="74" t="str">
+        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
       <c r="E98" s="73"/>
       <c r="F98" s="73"/>
-      <c r="G98" s="74" t="str">
-        <f>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
+      <c r="G98" s="73"/>
       <c r="H98" s="75"/>
       <c r="I98" s="76" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
@@ -7498,7 +7500,7 @@
       </c>
       <c r="M98" s="79"/>
     </row>
-    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -7513,7 +7515,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7522,7 +7524,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7531,7 +7533,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7540,7 +7542,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7549,7 +7551,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7558,7 +7560,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7567,7 +7569,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7576,7 +7578,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7585,7 +7587,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7594,7 +7596,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7603,7 +7605,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7612,7 +7614,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7622,10 +7624,10 @@
       <c r="I111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" sort="0" autoFilter="0"/>
+  <sheetProtection sort="0" autoFilter="0"/>
   <protectedRanges>
-    <protectedRange sqref="H2:M98 A2:E2 A3:G98" name="AllowSortFilter"/>
-    <protectedRange sqref="F2:G2" name="FilterTbl"/>
+    <protectedRange sqref="H2:M98 D3:G98 A2:C98 E2:F2" name="AllowSortFilter"/>
+    <protectedRange sqref="D2 G2" name="FilterTbl"/>
   </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="D1:F1"/>
@@ -7637,7 +7639,7 @@
       <formula>NOT(ISERROR(SEARCH(" ",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:H98 J3:K98 M3:M98">
+  <conditionalFormatting sqref="J3:K98 M3:M98 D3:H98">
     <cfRule type="expression" dxfId="1" priority="14">
       <formula>COUNTIF(D3,"")</formula>
     </cfRule>
@@ -7646,7 +7648,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M98" xr:uid="{6B4D1BF1-FBF5-42B6-9889-49E5BF117D18}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="D3:E98" xr:uid="{51285661-A40B-4DE6-841D-9FB51A517C0E}">
+    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="E3:F98" xr:uid="{51285661-A40B-4DE6-841D-9FB51A517C0E}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -7680,7 +7682,7 @@
           <x14:formula1>
             <xm:f>reference!$E$19:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F98</xm:sqref>
+          <xm:sqref>G3:G98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7699,12 +7701,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.19921875" customWidth="1"/>
+    <col min="1" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
@@ -7731,17 +7733,17 @@
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.19921875" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="32.875" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
@@ -7780,14 +7782,14 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>293</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="84" t="s">
         <v>292</v>
       </c>
       <c r="E3" s="29" t="s">
@@ -7809,7 +7811,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" s="6"/>
       <c r="E4" s="29" t="s">
         <v>146</v>
@@ -7830,7 +7832,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>169</v>
       </c>
@@ -7856,7 +7858,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
@@ -7876,7 +7878,7 @@
       <c r="J6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>170</v>
       </c>
@@ -7896,7 +7898,7 @@
       <c r="J7" s="42"/>
       <c r="L7" s="42"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -7904,7 +7906,7 @@
       <c r="J8" s="42"/>
       <c r="L8" s="42"/>
     </row>
-    <row r="9" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>214</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>277</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>256</v>
       </c>
@@ -7934,14 +7936,14 @@
         <v>207</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I12" s="27" t="s">
         <v>208</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="18" t="s">
         <v>254</v>
       </c>
@@ -7951,48 +7953,48 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="18" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="18" t="s">
         <v>280</v>
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="53" t="s">
         <v>287</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="53" t="str">
         <f t="shared" ref="E25:F29" si="0">IF(pcr_enzyme=$E$14,E35,IF(pcr_enzyme=$E$15,E45,IF(pcr_enzyme=$E$16,E55,"")))</f>
         <v/>
@@ -8011,7 +8013,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8021,7 +8023,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8031,7 +8033,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8041,7 +8043,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="53" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8051,13 +8053,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="18" t="s">
         <v>257</v>
       </c>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>287</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>288</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>289</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>257</v>
       </c>
@@ -8090,7 +8092,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>252</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>217</v>
       </c>
@@ -8106,7 +8108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>12</v>
       </c>
@@ -8114,7 +8116,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>13</v>
       </c>
@@ -8124,13 +8126,13 @@
       </c>
       <c r="G39" s="83"/>
     </row>
-    <row r="41" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E41" s="18" t="s">
         <v>260</v>
       </c>
       <c r="F41" s="18"/>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>287</v>
       </c>
@@ -8138,7 +8140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>288</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>289</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>281</v>
       </c>
@@ -8163,7 +8165,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>12</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>13</v>
       </c>
@@ -8180,23 +8182,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E51" s="18" t="s">
         <v>258</v>
       </c>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>287</v>
       </c>
@@ -8204,7 +8206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>288</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>289</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>216</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>12</v>
       </c>
@@ -8237,7 +8239,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>13</v>
       </c>
@@ -8246,24 +8248,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E61" s="18" t="s">
         <v>278</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E62" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E71,IF(exp_assay=$E$5,E79,IF(exp_assay=$E$6,E87,IF(exp_assay=$E$7,E95,""))))</f>
         <v/>
@@ -8277,7 +8279,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E63" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E72,IF(exp_assay=$E$5,E80,IF(exp_assay=$E$6,E88,IF(exp_assay=$E$7,E96,""))))</f>
         <v/>
@@ -8291,7 +8293,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E64" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E73,IF(exp_assay=$E$5,E81,IF(exp_assay=$E$6,E89,IF(exp_assay=$E$7,E97,""))))</f>
         <v/>
@@ -8305,7 +8307,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E65" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E74,IF(exp_assay=$E$5,E82,IF(exp_assay=$E$6,E90,IF(exp_assay=$E$7,E98,""))))</f>
         <v/>
@@ -8319,7 +8321,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E66" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E75,IF(exp_assay=$E$5,E83,IF(exp_assay=$E$6,E91,IF(exp_assay=$E$7,E99,""))))</f>
         <v/>
@@ -8333,7 +8335,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E67" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E76,IF(exp_assay=$E$5,E84,IF(exp_assay=$E$6,E92,IF(exp_assay=$E$7,E100,""))))</f>
         <v/>
@@ -8347,7 +8349,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E68" s="53" t="str">
         <f>IF(OR(exp_assay=$E$3,exp_assay=$E$4),reference!E77,IF(exp_assay=$E$5,E85,IF(exp_assay=$E$6,E93,IF(exp_assay=$E$7,E101,""))))</f>
         <v/>
@@ -8361,14 +8363,14 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E70" s="18" t="s">
         <v>276</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>93</v>
       </c>
@@ -8377,7 +8379,7 @@
       </c>
       <c r="G71" s="54"/>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>93</v>
       </c>
@@ -8385,7 +8387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>98</v>
       </c>
@@ -8396,7 +8398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>50</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>60</v>
       </c>
@@ -8418,7 +8420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>60</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>8</v>
       </c>
@@ -8434,14 +8436,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="18" t="s">
         <v>274</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>95</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>95</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>98</v>
       </c>
@@ -8468,7 +8470,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>60</v>
       </c>
@@ -8479,7 +8481,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>60</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>8</v>
       </c>
@@ -8495,17 +8497,17 @@
         <v>282</v>
       </c>
     </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F85" s="54"/>
     </row>
-    <row r="86" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="18" t="s">
         <v>262</v>
       </c>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
     </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>93</v>
       </c>
@@ -8514,7 +8516,7 @@
       </c>
       <c r="G87" s="54"/>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>93</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>98</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>50</v>
       </c>
@@ -8544,7 +8546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>60</v>
       </c>
@@ -8555,7 +8557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>60</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>8</v>
       </c>
@@ -8571,14 +8573,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E94" s="18" t="s">
         <v>263</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
     </row>
-    <row r="95" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>93</v>
       </c>
@@ -8587,7 +8589,7 @@
       </c>
       <c r="G95" s="54"/>
     </row>
-    <row r="96" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>93</v>
       </c>
@@ -8595,7 +8597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>98</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>50</v>
       </c>
@@ -8617,7 +8619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>60</v>
       </c>
@@ -8628,7 +8630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>60</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>8</v>
       </c>
@@ -8644,17 +8646,17 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="5:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>21</v>
       </c>
@@ -8678,51 +8680,51 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.8984375" customWidth="1"/>
+    <col min="1" max="1" width="38.875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" customWidth="1"/>
-    <col min="4" max="13" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="13" width="16.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="16.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="46.2" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:3" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="30" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
         <v>233</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A3" s="32"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
     </row>
-    <row r="4" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="33" t="s">
         <v>222</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
     </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="31" t="s">
         <v>223</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="34" t="s">
         <v>176</v>
       </c>
@@ -8731,7 +8733,7 @@
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="34" t="s">
         <v>23</v>
       </c>
@@ -8740,7 +8742,7 @@
       </c>
       <c r="C7" s="31"/>
     </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="34" t="s">
         <v>177</v>
       </c>
@@ -8749,7 +8751,7 @@
       </c>
       <c r="C8" s="31"/>
     </row>
-    <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="35" t="s">
         <v>178</v>
       </c>
@@ -8758,7 +8760,7 @@
       </c>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="36" t="s">
         <v>226</v>
       </c>
@@ -8767,7 +8769,7 @@
       </c>
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A11" s="36" t="s">
         <v>181</v>
       </c>
@@ -8776,108 +8778,108 @@
       </c>
       <c r="C11" s="31"/>
     </row>
-    <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A12" s="32" t="s">
         <v>229</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
     </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
     </row>
-    <row r="14" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="37" t="s">
         <v>230</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A15" s="31" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
     </row>
-    <row r="16" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A16" s="31" t="s">
         <v>241</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
     </row>
-    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="31" t="s">
         <v>242</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
     </row>
-    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
         <v>243</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
     </row>
-    <row r="19" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="32" t="s">
         <v>236</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
     </row>
-    <row r="20" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="32" t="s">
         <v>237</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
     </row>
-    <row r="21" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
     </row>
-    <row r="22" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
     </row>
-    <row r="23" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="38" t="s">
         <v>238</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
     </row>
-    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="38"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
     </row>
-    <row r="25" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="33" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
     </row>
-    <row r="26" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="32" t="s">
         <v>229</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="31" t="s">
         <v>232</v>
       </c>
@@ -8901,17 +8903,17 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" customWidth="1"/>
-    <col min="3" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="8" width="31.59765625" customWidth="1"/>
-    <col min="9" max="13" width="12.09765625" customWidth="1"/>
-    <col min="14" max="14" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="9" max="13" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -8955,7 +8957,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF(LEN(exp_id)=0,"",exp_id)</f>
         <v/>
@@ -9034,15 +9036,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="4" width="13.69921875" customWidth="1"/>
-    <col min="5" max="6" width="26.3984375" customWidth="1"/>
-    <col min="7" max="7" width="33.8984375" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>179</v>
       </c>
@@ -9065,17 +9067,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>IF(LEN(PCR!D3),PCR!D3,"")</f>
+        <f>IF(LEN(PCR!E3),PCR!E3,"")</f>
         <v/>
       </c>
       <c r="B2" t="str">
-        <f>IF(LEN(PCR!E3),PCR!E3,"")</f>
+        <f>IF(LEN(PCR!F3),PCR!F3,"")</f>
         <v/>
       </c>
       <c r="C2" t="str">
-        <f>IF(LEN(PCR!F3),PCR!F3,"")</f>
+        <f>IF(LEN(PCR!G3),PCR!G3,"")</f>
         <v/>
       </c>
       <c r="D2" t="str">
@@ -9095,17 +9097,17 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>IF(LEN(PCR!D4),PCR!D4,"")</f>
+        <f>IF(LEN(PCR!E4),PCR!E4,"")</f>
         <v/>
       </c>
       <c r="B3" t="str">
-        <f>IF(LEN(PCR!E4),PCR!E4,"")</f>
+        <f>IF(LEN(PCR!F4),PCR!F4,"")</f>
         <v/>
       </c>
       <c r="C3" t="str">
-        <f>IF(LEN(PCR!F4),PCR!F4,"")</f>
+        <f>IF(LEN(PCR!G4),PCR!G4,"")</f>
         <v/>
       </c>
       <c r="D3" t="str">
@@ -9125,17 +9127,17 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>IF(LEN(PCR!D5),PCR!D5,"")</f>
+        <f>IF(LEN(PCR!E5),PCR!E5,"")</f>
         <v/>
       </c>
       <c r="B4" t="str">
-        <f>IF(LEN(PCR!E5),PCR!E5,"")</f>
+        <f>IF(LEN(PCR!F5),PCR!F5,"")</f>
         <v/>
       </c>
       <c r="C4" t="str">
-        <f>IF(LEN(PCR!F5),PCR!F5,"")</f>
+        <f>IF(LEN(PCR!G5),PCR!G5,"")</f>
         <v/>
       </c>
       <c r="D4" t="str">
@@ -9155,17 +9157,17 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>IF(LEN(PCR!D6),PCR!D6,"")</f>
+        <f>IF(LEN(PCR!E6),PCR!E6,"")</f>
         <v/>
       </c>
       <c r="B5" t="str">
-        <f>IF(LEN(PCR!E6),PCR!E6,"")</f>
+        <f>IF(LEN(PCR!F6),PCR!F6,"")</f>
         <v/>
       </c>
       <c r="C5" t="str">
-        <f>IF(LEN(PCR!F6),PCR!F6,"")</f>
+        <f>IF(LEN(PCR!G6),PCR!G6,"")</f>
         <v/>
       </c>
       <c r="D5" t="str">
@@ -9185,17 +9187,17 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>IF(LEN(PCR!D7),PCR!D7,"")</f>
+        <f>IF(LEN(PCR!E7),PCR!E7,"")</f>
         <v/>
       </c>
       <c r="B6" t="str">
-        <f>IF(LEN(PCR!E7),PCR!E7,"")</f>
+        <f>IF(LEN(PCR!F7),PCR!F7,"")</f>
         <v/>
       </c>
       <c r="C6" t="str">
-        <f>IF(LEN(PCR!F7),PCR!F7,"")</f>
+        <f>IF(LEN(PCR!G7),PCR!G7,"")</f>
         <v/>
       </c>
       <c r="D6" t="str">
@@ -9215,17 +9217,17 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>IF(LEN(PCR!D8),PCR!D8,"")</f>
+        <f>IF(LEN(PCR!E8),PCR!E8,"")</f>
         <v/>
       </c>
       <c r="B7" t="str">
-        <f>IF(LEN(PCR!E8),PCR!E8,"")</f>
+        <f>IF(LEN(PCR!F8),PCR!F8,"")</f>
         <v/>
       </c>
       <c r="C7" t="str">
-        <f>IF(LEN(PCR!F8),PCR!F8,"")</f>
+        <f>IF(LEN(PCR!G8),PCR!G8,"")</f>
         <v/>
       </c>
       <c r="D7" t="str">
@@ -9245,17 +9247,17 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>IF(LEN(PCR!D9),PCR!D9,"")</f>
+        <f>IF(LEN(PCR!E9),PCR!E9,"")</f>
         <v/>
       </c>
       <c r="B8" t="str">
-        <f>IF(LEN(PCR!E9),PCR!E9,"")</f>
+        <f>IF(LEN(PCR!F9),PCR!F9,"")</f>
         <v/>
       </c>
       <c r="C8" t="str">
-        <f>IF(LEN(PCR!F9),PCR!F9,"")</f>
+        <f>IF(LEN(PCR!G9),PCR!G9,"")</f>
         <v/>
       </c>
       <c r="D8" t="str">
@@ -9275,17 +9277,17 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>IF(LEN(PCR!D10),PCR!D10,"")</f>
+        <f>IF(LEN(PCR!E10),PCR!E10,"")</f>
         <v/>
       </c>
       <c r="B9" t="str">
-        <f>IF(LEN(PCR!E10),PCR!E10,"")</f>
+        <f>IF(LEN(PCR!F10),PCR!F10,"")</f>
         <v/>
       </c>
       <c r="C9" t="str">
-        <f>IF(LEN(PCR!F10),PCR!F10,"")</f>
+        <f>IF(LEN(PCR!G10),PCR!G10,"")</f>
         <v/>
       </c>
       <c r="D9" t="str">
@@ -9305,17 +9307,17 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>IF(LEN(PCR!D11),PCR!D11,"")</f>
+        <f>IF(LEN(PCR!E11),PCR!E11,"")</f>
         <v/>
       </c>
       <c r="B10" t="str">
-        <f>IF(LEN(PCR!E11),PCR!E11,"")</f>
+        <f>IF(LEN(PCR!F11),PCR!F11,"")</f>
         <v/>
       </c>
       <c r="C10" t="str">
-        <f>IF(LEN(PCR!F11),PCR!F11,"")</f>
+        <f>IF(LEN(PCR!G11),PCR!G11,"")</f>
         <v/>
       </c>
       <c r="D10" t="str">
@@ -9335,17 +9337,17 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>IF(LEN(PCR!D12),PCR!D12,"")</f>
+        <f>IF(LEN(PCR!E12),PCR!E12,"")</f>
         <v/>
       </c>
       <c r="B11" t="str">
-        <f>IF(LEN(PCR!E12),PCR!E12,"")</f>
+        <f>IF(LEN(PCR!F12),PCR!F12,"")</f>
         <v/>
       </c>
       <c r="C11" t="str">
-        <f>IF(LEN(PCR!F12),PCR!F12,"")</f>
+        <f>IF(LEN(PCR!G12),PCR!G12,"")</f>
         <v/>
       </c>
       <c r="D11" t="str">
@@ -9365,17 +9367,17 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>IF(LEN(PCR!D13),PCR!D13,"")</f>
+        <f>IF(LEN(PCR!E13),PCR!E13,"")</f>
         <v/>
       </c>
       <c r="B12" t="str">
-        <f>IF(LEN(PCR!E13),PCR!E13,"")</f>
+        <f>IF(LEN(PCR!F13),PCR!F13,"")</f>
         <v/>
       </c>
       <c r="C12" t="str">
-        <f>IF(LEN(PCR!F13),PCR!F13,"")</f>
+        <f>IF(LEN(PCR!G13),PCR!G13,"")</f>
         <v/>
       </c>
       <c r="D12" t="str">
@@ -9395,17 +9397,17 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>IF(LEN(PCR!D14),PCR!D14,"")</f>
+        <f>IF(LEN(PCR!E14),PCR!E14,"")</f>
         <v/>
       </c>
       <c r="B13" t="str">
-        <f>IF(LEN(PCR!E14),PCR!E14,"")</f>
+        <f>IF(LEN(PCR!F14),PCR!F14,"")</f>
         <v/>
       </c>
       <c r="C13" t="str">
-        <f>IF(LEN(PCR!F14),PCR!F14,"")</f>
+        <f>IF(LEN(PCR!G14),PCR!G14,"")</f>
         <v/>
       </c>
       <c r="D13" t="str">
@@ -9425,17 +9427,17 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>IF(LEN(PCR!D15),PCR!D15,"")</f>
+        <f>IF(LEN(PCR!E15),PCR!E15,"")</f>
         <v/>
       </c>
       <c r="B14" t="str">
-        <f>IF(LEN(PCR!E15),PCR!E15,"")</f>
+        <f>IF(LEN(PCR!F15),PCR!F15,"")</f>
         <v/>
       </c>
       <c r="C14" t="str">
-        <f>IF(LEN(PCR!F15),PCR!F15,"")</f>
+        <f>IF(LEN(PCR!G15),PCR!G15,"")</f>
         <v/>
       </c>
       <c r="D14" t="str">
@@ -9455,17 +9457,17 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>IF(LEN(PCR!D16),PCR!D16,"")</f>
+        <f>IF(LEN(PCR!E16),PCR!E16,"")</f>
         <v/>
       </c>
       <c r="B15" t="str">
-        <f>IF(LEN(PCR!E16),PCR!E16,"")</f>
+        <f>IF(LEN(PCR!F16),PCR!F16,"")</f>
         <v/>
       </c>
       <c r="C15" t="str">
-        <f>IF(LEN(PCR!F16),PCR!F16,"")</f>
+        <f>IF(LEN(PCR!G16),PCR!G16,"")</f>
         <v/>
       </c>
       <c r="D15" t="str">
@@ -9485,17 +9487,17 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>IF(LEN(PCR!D17),PCR!D17,"")</f>
+        <f>IF(LEN(PCR!E17),PCR!E17,"")</f>
         <v/>
       </c>
       <c r="B16" t="str">
-        <f>IF(LEN(PCR!E17),PCR!E17,"")</f>
+        <f>IF(LEN(PCR!F17),PCR!F17,"")</f>
         <v/>
       </c>
       <c r="C16" t="str">
-        <f>IF(LEN(PCR!F17),PCR!F17,"")</f>
+        <f>IF(LEN(PCR!G17),PCR!G17,"")</f>
         <v/>
       </c>
       <c r="D16" t="str">
@@ -9515,17 +9517,17 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>IF(LEN(PCR!D18),PCR!D18,"")</f>
+        <f>IF(LEN(PCR!E18),PCR!E18,"")</f>
         <v/>
       </c>
       <c r="B17" t="str">
-        <f>IF(LEN(PCR!E18),PCR!E18,"")</f>
+        <f>IF(LEN(PCR!F18),PCR!F18,"")</f>
         <v/>
       </c>
       <c r="C17" t="str">
-        <f>IF(LEN(PCR!F18),PCR!F18,"")</f>
+        <f>IF(LEN(PCR!G18),PCR!G18,"")</f>
         <v/>
       </c>
       <c r="D17" t="str">
@@ -9545,17 +9547,17 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>IF(LEN(PCR!D19),PCR!D19,"")</f>
+        <f>IF(LEN(PCR!E19),PCR!E19,"")</f>
         <v/>
       </c>
       <c r="B18" t="str">
-        <f>IF(LEN(PCR!E19),PCR!E19,"")</f>
+        <f>IF(LEN(PCR!F19),PCR!F19,"")</f>
         <v/>
       </c>
       <c r="C18" t="str">
-        <f>IF(LEN(PCR!F19),PCR!F19,"")</f>
+        <f>IF(LEN(PCR!G19),PCR!G19,"")</f>
         <v/>
       </c>
       <c r="D18" t="str">
@@ -9575,17 +9577,17 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>IF(LEN(PCR!D20),PCR!D20,"")</f>
+        <f>IF(LEN(PCR!E20),PCR!E20,"")</f>
         <v/>
       </c>
       <c r="B19" t="str">
-        <f>IF(LEN(PCR!E20),PCR!E20,"")</f>
+        <f>IF(LEN(PCR!F20),PCR!F20,"")</f>
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(LEN(PCR!F20),PCR!F20,"")</f>
+        <f>IF(LEN(PCR!G20),PCR!G20,"")</f>
         <v/>
       </c>
       <c r="D19" t="str">
@@ -9605,17 +9607,17 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>IF(LEN(PCR!D21),PCR!D21,"")</f>
+        <f>IF(LEN(PCR!E21),PCR!E21,"")</f>
         <v/>
       </c>
       <c r="B20" t="str">
-        <f>IF(LEN(PCR!E21),PCR!E21,"")</f>
+        <f>IF(LEN(PCR!F21),PCR!F21,"")</f>
         <v/>
       </c>
       <c r="C20" t="str">
-        <f>IF(LEN(PCR!F21),PCR!F21,"")</f>
+        <f>IF(LEN(PCR!G21),PCR!G21,"")</f>
         <v/>
       </c>
       <c r="D20" t="str">
@@ -9635,17 +9637,17 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>IF(LEN(PCR!D22),PCR!D22,"")</f>
+        <f>IF(LEN(PCR!E22),PCR!E22,"")</f>
         <v/>
       </c>
       <c r="B21" t="str">
-        <f>IF(LEN(PCR!E22),PCR!E22,"")</f>
+        <f>IF(LEN(PCR!F22),PCR!F22,"")</f>
         <v/>
       </c>
       <c r="C21" t="str">
-        <f>IF(LEN(PCR!F22),PCR!F22,"")</f>
+        <f>IF(LEN(PCR!G22),PCR!G22,"")</f>
         <v/>
       </c>
       <c r="D21" t="str">
@@ -9665,17 +9667,17 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>IF(LEN(PCR!D23),PCR!D23,"")</f>
+        <f>IF(LEN(PCR!E23),PCR!E23,"")</f>
         <v/>
       </c>
       <c r="B22" t="str">
-        <f>IF(LEN(PCR!E23),PCR!E23,"")</f>
+        <f>IF(LEN(PCR!F23),PCR!F23,"")</f>
         <v/>
       </c>
       <c r="C22" t="str">
-        <f>IF(LEN(PCR!F23),PCR!F23,"")</f>
+        <f>IF(LEN(PCR!G23),PCR!G23,"")</f>
         <v/>
       </c>
       <c r="D22" t="str">
@@ -9695,17 +9697,17 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>IF(LEN(PCR!D24),PCR!D24,"")</f>
+        <f>IF(LEN(PCR!E24),PCR!E24,"")</f>
         <v/>
       </c>
       <c r="B23" t="str">
-        <f>IF(LEN(PCR!E24),PCR!E24,"")</f>
+        <f>IF(LEN(PCR!F24),PCR!F24,"")</f>
         <v/>
       </c>
       <c r="C23" t="str">
-        <f>IF(LEN(PCR!F24),PCR!F24,"")</f>
+        <f>IF(LEN(PCR!G24),PCR!G24,"")</f>
         <v/>
       </c>
       <c r="D23" t="str">
@@ -9725,17 +9727,17 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>IF(LEN(PCR!D25),PCR!D25,"")</f>
+        <f>IF(LEN(PCR!E25),PCR!E25,"")</f>
         <v/>
       </c>
       <c r="B24" t="str">
-        <f>IF(LEN(PCR!E25),PCR!E25,"")</f>
+        <f>IF(LEN(PCR!F25),PCR!F25,"")</f>
         <v/>
       </c>
       <c r="C24" t="str">
-        <f>IF(LEN(PCR!F25),PCR!F25,"")</f>
+        <f>IF(LEN(PCR!G25),PCR!G25,"")</f>
         <v/>
       </c>
       <c r="D24" t="str">
@@ -9755,17 +9757,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>IF(LEN(PCR!D26),PCR!D26,"")</f>
+        <f>IF(LEN(PCR!E26),PCR!E26,"")</f>
         <v/>
       </c>
       <c r="B25" t="str">
-        <f>IF(LEN(PCR!E26),PCR!E26,"")</f>
+        <f>IF(LEN(PCR!F26),PCR!F26,"")</f>
         <v/>
       </c>
       <c r="C25" t="str">
-        <f>IF(LEN(PCR!F26),PCR!F26,"")</f>
+        <f>IF(LEN(PCR!G26),PCR!G26,"")</f>
         <v/>
       </c>
       <c r="D25" t="str">
@@ -9785,17 +9787,17 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>IF(LEN(PCR!D27),PCR!D27,"")</f>
+        <f>IF(LEN(PCR!E27),PCR!E27,"")</f>
         <v/>
       </c>
       <c r="B26" t="str">
-        <f>IF(LEN(PCR!E27),PCR!E27,"")</f>
+        <f>IF(LEN(PCR!F27),PCR!F27,"")</f>
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(LEN(PCR!F27),PCR!F27,"")</f>
+        <f>IF(LEN(PCR!G27),PCR!G27,"")</f>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -9815,17 +9817,17 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>IF(LEN(PCR!D28),PCR!D28,"")</f>
+        <f>IF(LEN(PCR!E28),PCR!E28,"")</f>
         <v/>
       </c>
       <c r="B27" t="str">
-        <f>IF(LEN(PCR!E28),PCR!E28,"")</f>
+        <f>IF(LEN(PCR!F28),PCR!F28,"")</f>
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(LEN(PCR!F28),PCR!F28,"")</f>
+        <f>IF(LEN(PCR!G28),PCR!G28,"")</f>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -9845,17 +9847,17 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>IF(LEN(PCR!D29),PCR!D29,"")</f>
+        <f>IF(LEN(PCR!E29),PCR!E29,"")</f>
         <v/>
       </c>
       <c r="B28" t="str">
-        <f>IF(LEN(PCR!E29),PCR!E29,"")</f>
+        <f>IF(LEN(PCR!F29),PCR!F29,"")</f>
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(LEN(PCR!F29),PCR!F29,"")</f>
+        <f>IF(LEN(PCR!G29),PCR!G29,"")</f>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -9875,17 +9877,17 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>IF(LEN(PCR!D30),PCR!D30,"")</f>
+        <f>IF(LEN(PCR!E30),PCR!E30,"")</f>
         <v/>
       </c>
       <c r="B29" t="str">
-        <f>IF(LEN(PCR!E30),PCR!E30,"")</f>
+        <f>IF(LEN(PCR!F30),PCR!F30,"")</f>
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(LEN(PCR!F30),PCR!F30,"")</f>
+        <f>IF(LEN(PCR!G30),PCR!G30,"")</f>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -9905,17 +9907,17 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>IF(LEN(PCR!D31),PCR!D31,"")</f>
+        <f>IF(LEN(PCR!E31),PCR!E31,"")</f>
         <v/>
       </c>
       <c r="B30" t="str">
-        <f>IF(LEN(PCR!E31),PCR!E31,"")</f>
+        <f>IF(LEN(PCR!F31),PCR!F31,"")</f>
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(LEN(PCR!F31),PCR!F31,"")</f>
+        <f>IF(LEN(PCR!G31),PCR!G31,"")</f>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -9935,17 +9937,17 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>IF(LEN(PCR!D32),PCR!D32,"")</f>
+        <f>IF(LEN(PCR!E32),PCR!E32,"")</f>
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IF(LEN(PCR!E32),PCR!E32,"")</f>
+        <f>IF(LEN(PCR!F32),PCR!F32,"")</f>
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(LEN(PCR!F32),PCR!F32,"")</f>
+        <f>IF(LEN(PCR!G32),PCR!G32,"")</f>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -9965,17 +9967,17 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>IF(LEN(PCR!D33),PCR!D33,"")</f>
+        <f>IF(LEN(PCR!E33),PCR!E33,"")</f>
         <v/>
       </c>
       <c r="B32" t="str">
-        <f>IF(LEN(PCR!E33),PCR!E33,"")</f>
+        <f>IF(LEN(PCR!F33),PCR!F33,"")</f>
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(LEN(PCR!F33),PCR!F33,"")</f>
+        <f>IF(LEN(PCR!G33),PCR!G33,"")</f>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -9995,17 +9997,17 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>IF(LEN(PCR!D34),PCR!D34,"")</f>
+        <f>IF(LEN(PCR!E34),PCR!E34,"")</f>
         <v/>
       </c>
       <c r="B33" t="str">
-        <f>IF(LEN(PCR!E34),PCR!E34,"")</f>
+        <f>IF(LEN(PCR!F34),PCR!F34,"")</f>
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(LEN(PCR!F34),PCR!F34,"")</f>
+        <f>IF(LEN(PCR!G34),PCR!G34,"")</f>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -10025,17 +10027,17 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>IF(LEN(PCR!D35),PCR!D35,"")</f>
+        <f>IF(LEN(PCR!E35),PCR!E35,"")</f>
         <v/>
       </c>
       <c r="B34" t="str">
-        <f>IF(LEN(PCR!E35),PCR!E35,"")</f>
+        <f>IF(LEN(PCR!F35),PCR!F35,"")</f>
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(LEN(PCR!F35),PCR!F35,"")</f>
+        <f>IF(LEN(PCR!G35),PCR!G35,"")</f>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -10055,17 +10057,17 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>IF(LEN(PCR!D36),PCR!D36,"")</f>
+        <f>IF(LEN(PCR!E36),PCR!E36,"")</f>
         <v/>
       </c>
       <c r="B35" t="str">
-        <f>IF(LEN(PCR!E36),PCR!E36,"")</f>
+        <f>IF(LEN(PCR!F36),PCR!F36,"")</f>
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(LEN(PCR!F36),PCR!F36,"")</f>
+        <f>IF(LEN(PCR!G36),PCR!G36,"")</f>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -10085,17 +10087,17 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>IF(LEN(PCR!D37),PCR!D37,"")</f>
+        <f>IF(LEN(PCR!E37),PCR!E37,"")</f>
         <v/>
       </c>
       <c r="B36" t="str">
-        <f>IF(LEN(PCR!E37),PCR!E37,"")</f>
+        <f>IF(LEN(PCR!F37),PCR!F37,"")</f>
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(LEN(PCR!F37),PCR!F37,"")</f>
+        <f>IF(LEN(PCR!G37),PCR!G37,"")</f>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -10115,17 +10117,17 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>IF(LEN(PCR!D38),PCR!D38,"")</f>
+        <f>IF(LEN(PCR!E38),PCR!E38,"")</f>
         <v/>
       </c>
       <c r="B37" t="str">
-        <f>IF(LEN(PCR!E38),PCR!E38,"")</f>
+        <f>IF(LEN(PCR!F38),PCR!F38,"")</f>
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(LEN(PCR!F38),PCR!F38,"")</f>
+        <f>IF(LEN(PCR!G38),PCR!G38,"")</f>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -10145,17 +10147,17 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>IF(LEN(PCR!D39),PCR!D39,"")</f>
+        <f>IF(LEN(PCR!E39),PCR!E39,"")</f>
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IF(LEN(PCR!E39),PCR!E39,"")</f>
+        <f>IF(LEN(PCR!F39),PCR!F39,"")</f>
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(LEN(PCR!F39),PCR!F39,"")</f>
+        <f>IF(LEN(PCR!G39),PCR!G39,"")</f>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -10175,17 +10177,17 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>IF(LEN(PCR!D40),PCR!D40,"")</f>
+        <f>IF(LEN(PCR!E40),PCR!E40,"")</f>
         <v/>
       </c>
       <c r="B39" t="str">
-        <f>IF(LEN(PCR!E40),PCR!E40,"")</f>
+        <f>IF(LEN(PCR!F40),PCR!F40,"")</f>
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(LEN(PCR!F40),PCR!F40,"")</f>
+        <f>IF(LEN(PCR!G40),PCR!G40,"")</f>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -10205,17 +10207,17 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>IF(LEN(PCR!D41),PCR!D41,"")</f>
+        <f>IF(LEN(PCR!E41),PCR!E41,"")</f>
         <v/>
       </c>
       <c r="B40" t="str">
-        <f>IF(LEN(PCR!E41),PCR!E41,"")</f>
+        <f>IF(LEN(PCR!F41),PCR!F41,"")</f>
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(LEN(PCR!F41),PCR!F41,"")</f>
+        <f>IF(LEN(PCR!G41),PCR!G41,"")</f>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -10235,17 +10237,17 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>IF(LEN(PCR!D42),PCR!D42,"")</f>
+        <f>IF(LEN(PCR!E42),PCR!E42,"")</f>
         <v/>
       </c>
       <c r="B41" t="str">
-        <f>IF(LEN(PCR!E42),PCR!E42,"")</f>
+        <f>IF(LEN(PCR!F42),PCR!F42,"")</f>
         <v/>
       </c>
       <c r="C41" t="str">
-        <f>IF(LEN(PCR!F42),PCR!F42,"")</f>
+        <f>IF(LEN(PCR!G42),PCR!G42,"")</f>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -10265,17 +10267,17 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>IF(LEN(PCR!D43),PCR!D43,"")</f>
+        <f>IF(LEN(PCR!E43),PCR!E43,"")</f>
         <v/>
       </c>
       <c r="B42" t="str">
-        <f>IF(LEN(PCR!E43),PCR!E43,"")</f>
+        <f>IF(LEN(PCR!F43),PCR!F43,"")</f>
         <v/>
       </c>
       <c r="C42" t="str">
-        <f>IF(LEN(PCR!F43),PCR!F43,"")</f>
+        <f>IF(LEN(PCR!G43),PCR!G43,"")</f>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -10295,17 +10297,17 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>IF(LEN(PCR!D44),PCR!D44,"")</f>
+        <f>IF(LEN(PCR!E44),PCR!E44,"")</f>
         <v/>
       </c>
       <c r="B43" t="str">
-        <f>IF(LEN(PCR!E44),PCR!E44,"")</f>
+        <f>IF(LEN(PCR!F44),PCR!F44,"")</f>
         <v/>
       </c>
       <c r="C43" t="str">
-        <f>IF(LEN(PCR!F44),PCR!F44,"")</f>
+        <f>IF(LEN(PCR!G44),PCR!G44,"")</f>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -10325,17 +10327,17 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>IF(LEN(PCR!D45),PCR!D45,"")</f>
+        <f>IF(LEN(PCR!E45),PCR!E45,"")</f>
         <v/>
       </c>
       <c r="B44" t="str">
-        <f>IF(LEN(PCR!E45),PCR!E45,"")</f>
+        <f>IF(LEN(PCR!F45),PCR!F45,"")</f>
         <v/>
       </c>
       <c r="C44" t="str">
-        <f>IF(LEN(PCR!F45),PCR!F45,"")</f>
+        <f>IF(LEN(PCR!G45),PCR!G45,"")</f>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -10355,17 +10357,17 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>IF(LEN(PCR!D46),PCR!D46,"")</f>
+        <f>IF(LEN(PCR!E46),PCR!E46,"")</f>
         <v/>
       </c>
       <c r="B45" t="str">
-        <f>IF(LEN(PCR!E46),PCR!E46,"")</f>
+        <f>IF(LEN(PCR!F46),PCR!F46,"")</f>
         <v/>
       </c>
       <c r="C45" t="str">
-        <f>IF(LEN(PCR!F46),PCR!F46,"")</f>
+        <f>IF(LEN(PCR!G46),PCR!G46,"")</f>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -10385,17 +10387,17 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>IF(LEN(PCR!D47),PCR!D47,"")</f>
+        <f>IF(LEN(PCR!E47),PCR!E47,"")</f>
         <v/>
       </c>
       <c r="B46" t="str">
-        <f>IF(LEN(PCR!E47),PCR!E47,"")</f>
+        <f>IF(LEN(PCR!F47),PCR!F47,"")</f>
         <v/>
       </c>
       <c r="C46" t="str">
-        <f>IF(LEN(PCR!F47),PCR!F47,"")</f>
+        <f>IF(LEN(PCR!G47),PCR!G47,"")</f>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -10415,17 +10417,17 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>IF(LEN(PCR!D48),PCR!D48,"")</f>
+        <f>IF(LEN(PCR!E48),PCR!E48,"")</f>
         <v/>
       </c>
       <c r="B47" t="str">
-        <f>IF(LEN(PCR!E48),PCR!E48,"")</f>
+        <f>IF(LEN(PCR!F48),PCR!F48,"")</f>
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(LEN(PCR!F48),PCR!F48,"")</f>
+        <f>IF(LEN(PCR!G48),PCR!G48,"")</f>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -10445,17 +10447,17 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>IF(LEN(PCR!D49),PCR!D49,"")</f>
+        <f>IF(LEN(PCR!E49),PCR!E49,"")</f>
         <v/>
       </c>
       <c r="B48" t="str">
-        <f>IF(LEN(PCR!E49),PCR!E49,"")</f>
+        <f>IF(LEN(PCR!F49),PCR!F49,"")</f>
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(LEN(PCR!F49),PCR!F49,"")</f>
+        <f>IF(LEN(PCR!G49),PCR!G49,"")</f>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -10475,17 +10477,17 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>IF(LEN(PCR!D50),PCR!D50,"")</f>
+        <f>IF(LEN(PCR!E50),PCR!E50,"")</f>
         <v/>
       </c>
       <c r="B49" t="str">
-        <f>IF(LEN(PCR!E50),PCR!E50,"")</f>
+        <f>IF(LEN(PCR!F50),PCR!F50,"")</f>
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(LEN(PCR!F50),PCR!F50,"")</f>
+        <f>IF(LEN(PCR!G50),PCR!G50,"")</f>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -10505,17 +10507,17 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>IF(LEN(PCR!D51),PCR!D51,"")</f>
+        <f>IF(LEN(PCR!E51),PCR!E51,"")</f>
         <v/>
       </c>
       <c r="B50" t="str">
-        <f>IF(LEN(PCR!E51),PCR!E51,"")</f>
+        <f>IF(LEN(PCR!F51),PCR!F51,"")</f>
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(LEN(PCR!F51),PCR!F51,"")</f>
+        <f>IF(LEN(PCR!G51),PCR!G51,"")</f>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -10535,17 +10537,17 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>IF(LEN(PCR!D52),PCR!D52,"")</f>
+        <f>IF(LEN(PCR!E52),PCR!E52,"")</f>
         <v/>
       </c>
       <c r="B51" t="str">
-        <f>IF(LEN(PCR!E52),PCR!E52,"")</f>
+        <f>IF(LEN(PCR!F52),PCR!F52,"")</f>
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(LEN(PCR!F52),PCR!F52,"")</f>
+        <f>IF(LEN(PCR!G52),PCR!G52,"")</f>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -10565,17 +10567,17 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>IF(LEN(PCR!D53),PCR!D53,"")</f>
+        <f>IF(LEN(PCR!E53),PCR!E53,"")</f>
         <v/>
       </c>
       <c r="B52" t="str">
-        <f>IF(LEN(PCR!E53),PCR!E53,"")</f>
+        <f>IF(LEN(PCR!F53),PCR!F53,"")</f>
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(LEN(PCR!F53),PCR!F53,"")</f>
+        <f>IF(LEN(PCR!G53),PCR!G53,"")</f>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -10595,17 +10597,17 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>IF(LEN(PCR!D54),PCR!D54,"")</f>
+        <f>IF(LEN(PCR!E54),PCR!E54,"")</f>
         <v/>
       </c>
       <c r="B53" t="str">
-        <f>IF(LEN(PCR!E54),PCR!E54,"")</f>
+        <f>IF(LEN(PCR!F54),PCR!F54,"")</f>
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(LEN(PCR!F54),PCR!F54,"")</f>
+        <f>IF(LEN(PCR!G54),PCR!G54,"")</f>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -10625,17 +10627,17 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>IF(LEN(PCR!D55),PCR!D55,"")</f>
+        <f>IF(LEN(PCR!E55),PCR!E55,"")</f>
         <v/>
       </c>
       <c r="B54" t="str">
-        <f>IF(LEN(PCR!E55),PCR!E55,"")</f>
+        <f>IF(LEN(PCR!F55),PCR!F55,"")</f>
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(LEN(PCR!F55),PCR!F55,"")</f>
+        <f>IF(LEN(PCR!G55),PCR!G55,"")</f>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -10655,17 +10657,17 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <f>IF(LEN(PCR!D56),PCR!D56,"")</f>
+        <f>IF(LEN(PCR!E56),PCR!E56,"")</f>
         <v/>
       </c>
       <c r="B55" t="str">
-        <f>IF(LEN(PCR!E56),PCR!E56,"")</f>
+        <f>IF(LEN(PCR!F56),PCR!F56,"")</f>
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(LEN(PCR!F56),PCR!F56,"")</f>
+        <f>IF(LEN(PCR!G56),PCR!G56,"")</f>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -10685,17 +10687,17 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <f>IF(LEN(PCR!D57),PCR!D57,"")</f>
+        <f>IF(LEN(PCR!E57),PCR!E57,"")</f>
         <v/>
       </c>
       <c r="B56" t="str">
-        <f>IF(LEN(PCR!E57),PCR!E57,"")</f>
+        <f>IF(LEN(PCR!F57),PCR!F57,"")</f>
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(LEN(PCR!F57),PCR!F57,"")</f>
+        <f>IF(LEN(PCR!G57),PCR!G57,"")</f>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -10715,17 +10717,17 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <f>IF(LEN(PCR!D58),PCR!D58,"")</f>
+        <f>IF(LEN(PCR!E58),PCR!E58,"")</f>
         <v/>
       </c>
       <c r="B57" t="str">
-        <f>IF(LEN(PCR!E58),PCR!E58,"")</f>
+        <f>IF(LEN(PCR!F58),PCR!F58,"")</f>
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(LEN(PCR!F58),PCR!F58,"")</f>
+        <f>IF(LEN(PCR!G58),PCR!G58,"")</f>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -10745,17 +10747,17 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <f>IF(LEN(PCR!D59),PCR!D59,"")</f>
+        <f>IF(LEN(PCR!E59),PCR!E59,"")</f>
         <v/>
       </c>
       <c r="B58" t="str">
-        <f>IF(LEN(PCR!E59),PCR!E59,"")</f>
+        <f>IF(LEN(PCR!F59),PCR!F59,"")</f>
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(LEN(PCR!F59),PCR!F59,"")</f>
+        <f>IF(LEN(PCR!G59),PCR!G59,"")</f>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -10775,17 +10777,17 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <f>IF(LEN(PCR!D60),PCR!D60,"")</f>
+        <f>IF(LEN(PCR!E60),PCR!E60,"")</f>
         <v/>
       </c>
       <c r="B59" t="str">
-        <f>IF(LEN(PCR!E60),PCR!E60,"")</f>
+        <f>IF(LEN(PCR!F60),PCR!F60,"")</f>
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(LEN(PCR!F60),PCR!F60,"")</f>
+        <f>IF(LEN(PCR!G60),PCR!G60,"")</f>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -10805,17 +10807,17 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <f>IF(LEN(PCR!D61),PCR!D61,"")</f>
+        <f>IF(LEN(PCR!E61),PCR!E61,"")</f>
         <v/>
       </c>
       <c r="B60" t="str">
-        <f>IF(LEN(PCR!E61),PCR!E61,"")</f>
+        <f>IF(LEN(PCR!F61),PCR!F61,"")</f>
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(LEN(PCR!F61),PCR!F61,"")</f>
+        <f>IF(LEN(PCR!G61),PCR!G61,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -10835,17 +10837,17 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <f>IF(LEN(PCR!D62),PCR!D62,"")</f>
+        <f>IF(LEN(PCR!E62),PCR!E62,"")</f>
         <v/>
       </c>
       <c r="B61" t="str">
-        <f>IF(LEN(PCR!E62),PCR!E62,"")</f>
+        <f>IF(LEN(PCR!F62),PCR!F62,"")</f>
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(LEN(PCR!F62),PCR!F62,"")</f>
+        <f>IF(LEN(PCR!G62),PCR!G62,"")</f>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -10865,17 +10867,17 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <f>IF(LEN(PCR!D63),PCR!D63,"")</f>
+        <f>IF(LEN(PCR!E63),PCR!E63,"")</f>
         <v/>
       </c>
       <c r="B62" t="str">
-        <f>IF(LEN(PCR!E63),PCR!E63,"")</f>
+        <f>IF(LEN(PCR!F63),PCR!F63,"")</f>
         <v/>
       </c>
       <c r="C62" t="str">
-        <f>IF(LEN(PCR!F63),PCR!F63,"")</f>
+        <f>IF(LEN(PCR!G63),PCR!G63,"")</f>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -10895,17 +10897,17 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <f>IF(LEN(PCR!D64),PCR!D64,"")</f>
+        <f>IF(LEN(PCR!E64),PCR!E64,"")</f>
         <v/>
       </c>
       <c r="B63" t="str">
-        <f>IF(LEN(PCR!E64),PCR!E64,"")</f>
+        <f>IF(LEN(PCR!F64),PCR!F64,"")</f>
         <v/>
       </c>
       <c r="C63" t="str">
-        <f>IF(LEN(PCR!F64),PCR!F64,"")</f>
+        <f>IF(LEN(PCR!G64),PCR!G64,"")</f>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -10925,17 +10927,17 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <f>IF(LEN(PCR!D65),PCR!D65,"")</f>
+        <f>IF(LEN(PCR!E65),PCR!E65,"")</f>
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IF(LEN(PCR!E65),PCR!E65,"")</f>
+        <f>IF(LEN(PCR!F65),PCR!F65,"")</f>
         <v/>
       </c>
       <c r="C64" t="str">
-        <f>IF(LEN(PCR!F65),PCR!F65,"")</f>
+        <f>IF(LEN(PCR!G65),PCR!G65,"")</f>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -10955,17 +10957,17 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <f>IF(LEN(PCR!D66),PCR!D66,"")</f>
+        <f>IF(LEN(PCR!E66),PCR!E66,"")</f>
         <v/>
       </c>
       <c r="B65" t="str">
-        <f>IF(LEN(PCR!E66),PCR!E66,"")</f>
+        <f>IF(LEN(PCR!F66),PCR!F66,"")</f>
         <v/>
       </c>
       <c r="C65" t="str">
-        <f>IF(LEN(PCR!F66),PCR!F66,"")</f>
+        <f>IF(LEN(PCR!G66),PCR!G66,"")</f>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -10985,17 +10987,17 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f>IF(LEN(PCR!D67),PCR!D67,"")</f>
+        <f>IF(LEN(PCR!E67),PCR!E67,"")</f>
         <v/>
       </c>
       <c r="B66" t="str">
-        <f>IF(LEN(PCR!E67),PCR!E67,"")</f>
+        <f>IF(LEN(PCR!F67),PCR!F67,"")</f>
         <v/>
       </c>
       <c r="C66" t="str">
-        <f>IF(LEN(PCR!F67),PCR!F67,"")</f>
+        <f>IF(LEN(PCR!G67),PCR!G67,"")</f>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -11015,17 +11017,17 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <f>IF(LEN(PCR!D68),PCR!D68,"")</f>
+        <f>IF(LEN(PCR!E68),PCR!E68,"")</f>
         <v/>
       </c>
       <c r="B67" t="str">
-        <f>IF(LEN(PCR!E68),PCR!E68,"")</f>
+        <f>IF(LEN(PCR!F68),PCR!F68,"")</f>
         <v/>
       </c>
       <c r="C67" t="str">
-        <f>IF(LEN(PCR!F68),PCR!F68,"")</f>
+        <f>IF(LEN(PCR!G68),PCR!G68,"")</f>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -11045,17 +11047,17 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <f>IF(LEN(PCR!D69),PCR!D69,"")</f>
+        <f>IF(LEN(PCR!E69),PCR!E69,"")</f>
         <v/>
       </c>
       <c r="B68" t="str">
-        <f>IF(LEN(PCR!E69),PCR!E69,"")</f>
+        <f>IF(LEN(PCR!F69),PCR!F69,"")</f>
         <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(LEN(PCR!F69),PCR!F69,"")</f>
+        <f>IF(LEN(PCR!G69),PCR!G69,"")</f>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -11075,17 +11077,17 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF(LEN(PCR!D70),PCR!D70,"")</f>
+        <f>IF(LEN(PCR!E70),PCR!E70,"")</f>
         <v/>
       </c>
       <c r="B69" t="str">
-        <f>IF(LEN(PCR!E70),PCR!E70,"")</f>
+        <f>IF(LEN(PCR!F70),PCR!F70,"")</f>
         <v/>
       </c>
       <c r="C69" t="str">
-        <f>IF(LEN(PCR!F70),PCR!F70,"")</f>
+        <f>IF(LEN(PCR!G70),PCR!G70,"")</f>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -11105,17 +11107,17 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF(LEN(PCR!D71),PCR!D71,"")</f>
+        <f>IF(LEN(PCR!E71),PCR!E71,"")</f>
         <v/>
       </c>
       <c r="B70" t="str">
-        <f>IF(LEN(PCR!E71),PCR!E71,"")</f>
+        <f>IF(LEN(PCR!F71),PCR!F71,"")</f>
         <v/>
       </c>
       <c r="C70" t="str">
-        <f>IF(LEN(PCR!F71),PCR!F71,"")</f>
+        <f>IF(LEN(PCR!G71),PCR!G71,"")</f>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -11135,17 +11137,17 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF(LEN(PCR!D72),PCR!D72,"")</f>
+        <f>IF(LEN(PCR!E72),PCR!E72,"")</f>
         <v/>
       </c>
       <c r="B71" t="str">
-        <f>IF(LEN(PCR!E72),PCR!E72,"")</f>
+        <f>IF(LEN(PCR!F72),PCR!F72,"")</f>
         <v/>
       </c>
       <c r="C71" t="str">
-        <f>IF(LEN(PCR!F72),PCR!F72,"")</f>
+        <f>IF(LEN(PCR!G72),PCR!G72,"")</f>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -11165,17 +11167,17 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF(LEN(PCR!D73),PCR!D73,"")</f>
+        <f>IF(LEN(PCR!E73),PCR!E73,"")</f>
         <v/>
       </c>
       <c r="B72" t="str">
-        <f>IF(LEN(PCR!E73),PCR!E73,"")</f>
+        <f>IF(LEN(PCR!F73),PCR!F73,"")</f>
         <v/>
       </c>
       <c r="C72" t="str">
-        <f>IF(LEN(PCR!F73),PCR!F73,"")</f>
+        <f>IF(LEN(PCR!G73),PCR!G73,"")</f>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -11195,17 +11197,17 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF(LEN(PCR!D74),PCR!D74,"")</f>
+        <f>IF(LEN(PCR!E74),PCR!E74,"")</f>
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IF(LEN(PCR!E74),PCR!E74,"")</f>
+        <f>IF(LEN(PCR!F74),PCR!F74,"")</f>
         <v/>
       </c>
       <c r="C73" t="str">
-        <f>IF(LEN(PCR!F74),PCR!F74,"")</f>
+        <f>IF(LEN(PCR!G74),PCR!G74,"")</f>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -11225,17 +11227,17 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF(LEN(PCR!D75),PCR!D75,"")</f>
+        <f>IF(LEN(PCR!E75),PCR!E75,"")</f>
         <v/>
       </c>
       <c r="B74" t="str">
-        <f>IF(LEN(PCR!E75),PCR!E75,"")</f>
+        <f>IF(LEN(PCR!F75),PCR!F75,"")</f>
         <v/>
       </c>
       <c r="C74" t="str">
-        <f>IF(LEN(PCR!F75),PCR!F75,"")</f>
+        <f>IF(LEN(PCR!G75),PCR!G75,"")</f>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -11255,17 +11257,17 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF(LEN(PCR!D76),PCR!D76,"")</f>
+        <f>IF(LEN(PCR!E76),PCR!E76,"")</f>
         <v/>
       </c>
       <c r="B75" t="str">
-        <f>IF(LEN(PCR!E76),PCR!E76,"")</f>
+        <f>IF(LEN(PCR!F76),PCR!F76,"")</f>
         <v/>
       </c>
       <c r="C75" t="str">
-        <f>IF(LEN(PCR!F76),PCR!F76,"")</f>
+        <f>IF(LEN(PCR!G76),PCR!G76,"")</f>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -11285,17 +11287,17 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF(LEN(PCR!D77),PCR!D77,"")</f>
+        <f>IF(LEN(PCR!E77),PCR!E77,"")</f>
         <v/>
       </c>
       <c r="B76" t="str">
-        <f>IF(LEN(PCR!E77),PCR!E77,"")</f>
+        <f>IF(LEN(PCR!F77),PCR!F77,"")</f>
         <v/>
       </c>
       <c r="C76" t="str">
-        <f>IF(LEN(PCR!F77),PCR!F77,"")</f>
+        <f>IF(LEN(PCR!G77),PCR!G77,"")</f>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -11315,17 +11317,17 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF(LEN(PCR!D78),PCR!D78,"")</f>
+        <f>IF(LEN(PCR!E78),PCR!E78,"")</f>
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IF(LEN(PCR!E78),PCR!E78,"")</f>
+        <f>IF(LEN(PCR!F78),PCR!F78,"")</f>
         <v/>
       </c>
       <c r="C77" t="str">
-        <f>IF(LEN(PCR!F78),PCR!F78,"")</f>
+        <f>IF(LEN(PCR!G78),PCR!G78,"")</f>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -11345,17 +11347,17 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF(LEN(PCR!D79),PCR!D79,"")</f>
+        <f>IF(LEN(PCR!E79),PCR!E79,"")</f>
         <v/>
       </c>
       <c r="B78" t="str">
-        <f>IF(LEN(PCR!E79),PCR!E79,"")</f>
+        <f>IF(LEN(PCR!F79),PCR!F79,"")</f>
         <v/>
       </c>
       <c r="C78" t="str">
-        <f>IF(LEN(PCR!F79),PCR!F79,"")</f>
+        <f>IF(LEN(PCR!G79),PCR!G79,"")</f>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -11375,17 +11377,17 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF(LEN(PCR!D80),PCR!D80,"")</f>
+        <f>IF(LEN(PCR!E80),PCR!E80,"")</f>
         <v/>
       </c>
       <c r="B79" t="str">
-        <f>IF(LEN(PCR!E80),PCR!E80,"")</f>
+        <f>IF(LEN(PCR!F80),PCR!F80,"")</f>
         <v/>
       </c>
       <c r="C79" t="str">
-        <f>IF(LEN(PCR!F80),PCR!F80,"")</f>
+        <f>IF(LEN(PCR!G80),PCR!G80,"")</f>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -11405,17 +11407,17 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF(LEN(PCR!D81),PCR!D81,"")</f>
+        <f>IF(LEN(PCR!E81),PCR!E81,"")</f>
         <v/>
       </c>
       <c r="B80" t="str">
-        <f>IF(LEN(PCR!E81),PCR!E81,"")</f>
+        <f>IF(LEN(PCR!F81),PCR!F81,"")</f>
         <v/>
       </c>
       <c r="C80" t="str">
-        <f>IF(LEN(PCR!F81),PCR!F81,"")</f>
+        <f>IF(LEN(PCR!G81),PCR!G81,"")</f>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -11435,17 +11437,17 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF(LEN(PCR!D82),PCR!D82,"")</f>
+        <f>IF(LEN(PCR!E82),PCR!E82,"")</f>
         <v/>
       </c>
       <c r="B81" t="str">
-        <f>IF(LEN(PCR!E82),PCR!E82,"")</f>
+        <f>IF(LEN(PCR!F82),PCR!F82,"")</f>
         <v/>
       </c>
       <c r="C81" t="str">
-        <f>IF(LEN(PCR!F82),PCR!F82,"")</f>
+        <f>IF(LEN(PCR!G82),PCR!G82,"")</f>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -11465,17 +11467,17 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF(LEN(PCR!D83),PCR!D83,"")</f>
+        <f>IF(LEN(PCR!E83),PCR!E83,"")</f>
         <v/>
       </c>
       <c r="B82" t="str">
-        <f>IF(LEN(PCR!E83),PCR!E83,"")</f>
+        <f>IF(LEN(PCR!F83),PCR!F83,"")</f>
         <v/>
       </c>
       <c r="C82" t="str">
-        <f>IF(LEN(PCR!F83),PCR!F83,"")</f>
+        <f>IF(LEN(PCR!G83),PCR!G83,"")</f>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -11495,17 +11497,17 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF(LEN(PCR!D84),PCR!D84,"")</f>
+        <f>IF(LEN(PCR!E84),PCR!E84,"")</f>
         <v/>
       </c>
       <c r="B83" t="str">
-        <f>IF(LEN(PCR!E84),PCR!E84,"")</f>
+        <f>IF(LEN(PCR!F84),PCR!F84,"")</f>
         <v/>
       </c>
       <c r="C83" t="str">
-        <f>IF(LEN(PCR!F84),PCR!F84,"")</f>
+        <f>IF(LEN(PCR!G84),PCR!G84,"")</f>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -11525,17 +11527,17 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF(LEN(PCR!D85),PCR!D85,"")</f>
+        <f>IF(LEN(PCR!E85),PCR!E85,"")</f>
         <v/>
       </c>
       <c r="B84" t="str">
-        <f>IF(LEN(PCR!E85),PCR!E85,"")</f>
+        <f>IF(LEN(PCR!F85),PCR!F85,"")</f>
         <v/>
       </c>
       <c r="C84" t="str">
-        <f>IF(LEN(PCR!F85),PCR!F85,"")</f>
+        <f>IF(LEN(PCR!G85),PCR!G85,"")</f>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -11555,17 +11557,17 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF(LEN(PCR!D86),PCR!D86,"")</f>
+        <f>IF(LEN(PCR!E86),PCR!E86,"")</f>
         <v/>
       </c>
       <c r="B85" t="str">
-        <f>IF(LEN(PCR!E86),PCR!E86,"")</f>
+        <f>IF(LEN(PCR!F86),PCR!F86,"")</f>
         <v/>
       </c>
       <c r="C85" t="str">
-        <f>IF(LEN(PCR!F86),PCR!F86,"")</f>
+        <f>IF(LEN(PCR!G86),PCR!G86,"")</f>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -11585,17 +11587,17 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF(LEN(PCR!D87),PCR!D87,"")</f>
+        <f>IF(LEN(PCR!E87),PCR!E87,"")</f>
         <v/>
       </c>
       <c r="B86" t="str">
-        <f>IF(LEN(PCR!E87),PCR!E87,"")</f>
+        <f>IF(LEN(PCR!F87),PCR!F87,"")</f>
         <v/>
       </c>
       <c r="C86" t="str">
-        <f>IF(LEN(PCR!F87),PCR!F87,"")</f>
+        <f>IF(LEN(PCR!G87),PCR!G87,"")</f>
         <v/>
       </c>
       <c r="D86" t="str">
@@ -11615,17 +11617,17 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
-        <f>IF(LEN(PCR!D88),PCR!D88,"")</f>
+        <f>IF(LEN(PCR!E88),PCR!E88,"")</f>
         <v/>
       </c>
       <c r="B87" t="str">
-        <f>IF(LEN(PCR!E88),PCR!E88,"")</f>
+        <f>IF(LEN(PCR!F88),PCR!F88,"")</f>
         <v/>
       </c>
       <c r="C87" t="str">
-        <f>IF(LEN(PCR!F88),PCR!F88,"")</f>
+        <f>IF(LEN(PCR!G88),PCR!G88,"")</f>
         <v/>
       </c>
       <c r="D87" t="str">
@@ -11645,17 +11647,17 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
-        <f>IF(LEN(PCR!D89),PCR!D89,"")</f>
+        <f>IF(LEN(PCR!E89),PCR!E89,"")</f>
         <v/>
       </c>
       <c r="B88" t="str">
-        <f>IF(LEN(PCR!E89),PCR!E89,"")</f>
+        <f>IF(LEN(PCR!F89),PCR!F89,"")</f>
         <v/>
       </c>
       <c r="C88" t="str">
-        <f>IF(LEN(PCR!F89),PCR!F89,"")</f>
+        <f>IF(LEN(PCR!G89),PCR!G89,"")</f>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -11675,17 +11677,17 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
-        <f>IF(LEN(PCR!D90),PCR!D90,"")</f>
+        <f>IF(LEN(PCR!E90),PCR!E90,"")</f>
         <v/>
       </c>
       <c r="B89" t="str">
-        <f>IF(LEN(PCR!E90),PCR!E90,"")</f>
+        <f>IF(LEN(PCR!F90),PCR!F90,"")</f>
         <v/>
       </c>
       <c r="C89" t="str">
-        <f>IF(LEN(PCR!F90),PCR!F90,"")</f>
+        <f>IF(LEN(PCR!G90),PCR!G90,"")</f>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -11705,17 +11707,17 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>IF(LEN(PCR!D91),PCR!D91,"")</f>
+        <f>IF(LEN(PCR!E91),PCR!E91,"")</f>
         <v/>
       </c>
       <c r="B90" t="str">
-        <f>IF(LEN(PCR!E91),PCR!E91,"")</f>
+        <f>IF(LEN(PCR!F91),PCR!F91,"")</f>
         <v/>
       </c>
       <c r="C90" t="str">
-        <f>IF(LEN(PCR!F91),PCR!F91,"")</f>
+        <f>IF(LEN(PCR!G91),PCR!G91,"")</f>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -11735,17 +11737,17 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>IF(LEN(PCR!D92),PCR!D92,"")</f>
+        <f>IF(LEN(PCR!E92),PCR!E92,"")</f>
         <v/>
       </c>
       <c r="B91" t="str">
-        <f>IF(LEN(PCR!E92),PCR!E92,"")</f>
+        <f>IF(LEN(PCR!F92),PCR!F92,"")</f>
         <v/>
       </c>
       <c r="C91" t="str">
-        <f>IF(LEN(PCR!F92),PCR!F92,"")</f>
+        <f>IF(LEN(PCR!G92),PCR!G92,"")</f>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -11765,17 +11767,17 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>IF(LEN(PCR!D93),PCR!D93,"")</f>
+        <f>IF(LEN(PCR!E93),PCR!E93,"")</f>
         <v/>
       </c>
       <c r="B92" t="str">
-        <f>IF(LEN(PCR!E93),PCR!E93,"")</f>
+        <f>IF(LEN(PCR!F93),PCR!F93,"")</f>
         <v/>
       </c>
       <c r="C92" t="str">
-        <f>IF(LEN(PCR!F93),PCR!F93,"")</f>
+        <f>IF(LEN(PCR!G93),PCR!G93,"")</f>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -11795,17 +11797,17 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>IF(LEN(PCR!D94),PCR!D94,"")</f>
+        <f>IF(LEN(PCR!E94),PCR!E94,"")</f>
         <v/>
       </c>
       <c r="B93" t="str">
-        <f>IF(LEN(PCR!E94),PCR!E94,"")</f>
+        <f>IF(LEN(PCR!F94),PCR!F94,"")</f>
         <v/>
       </c>
       <c r="C93" t="str">
-        <f>IF(LEN(PCR!F94),PCR!F94,"")</f>
+        <f>IF(LEN(PCR!G94),PCR!G94,"")</f>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -11825,17 +11827,17 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>IF(LEN(PCR!D95),PCR!D95,"")</f>
+        <f>IF(LEN(PCR!E95),PCR!E95,"")</f>
         <v/>
       </c>
       <c r="B94" t="str">
-        <f>IF(LEN(PCR!E95),PCR!E95,"")</f>
+        <f>IF(LEN(PCR!F95),PCR!F95,"")</f>
         <v/>
       </c>
       <c r="C94" t="str">
-        <f>IF(LEN(PCR!F95),PCR!F95,"")</f>
+        <f>IF(LEN(PCR!G95),PCR!G95,"")</f>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -11855,17 +11857,17 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>IF(LEN(PCR!D96),PCR!D96,"")</f>
+        <f>IF(LEN(PCR!E96),PCR!E96,"")</f>
         <v/>
       </c>
       <c r="B95" t="str">
-        <f>IF(LEN(PCR!E96),PCR!E96,"")</f>
+        <f>IF(LEN(PCR!F96),PCR!F96,"")</f>
         <v/>
       </c>
       <c r="C95" t="str">
-        <f>IF(LEN(PCR!F96),PCR!F96,"")</f>
+        <f>IF(LEN(PCR!G96),PCR!G96,"")</f>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -11885,17 +11887,17 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>IF(LEN(PCR!D97),PCR!D97,"")</f>
+        <f>IF(LEN(PCR!E97),PCR!E97,"")</f>
         <v/>
       </c>
       <c r="B96" t="str">
-        <f>IF(LEN(PCR!E97),PCR!E97,"")</f>
+        <f>IF(LEN(PCR!F97),PCR!F97,"")</f>
         <v/>
       </c>
       <c r="C96" t="str">
-        <f>IF(LEN(PCR!F97),PCR!F97,"")</f>
+        <f>IF(LEN(PCR!G97),PCR!G97,"")</f>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -11915,17 +11917,17 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
-        <f>IF(LEN(PCR!D98),PCR!D98,"")</f>
+        <f>IF(LEN(PCR!E98),PCR!E98,"")</f>
         <v/>
       </c>
       <c r="B97" t="str">
-        <f>IF(LEN(PCR!E98),PCR!E98,"")</f>
+        <f>IF(LEN(PCR!F98),PCR!F98,"")</f>
         <v/>
       </c>
       <c r="C97" t="str">
-        <f>IF(LEN(PCR!F98),PCR!F98,"")</f>
+        <f>IF(LEN(PCR!G98),PCR!G98,"")</f>
         <v/>
       </c>
       <c r="D97" t="str">

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60F460-B2F9-4EB8-AEDC-88FCBF6B9B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68EFD04-E32C-47AE-8262-7532CC8C1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29100" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -2042,30 +2042,44 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2073,37 +2087,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2138,23 +2123,38 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2274,25 +2274,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2584,6 +2565,25 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -2722,22 +2722,22 @@
       <calculatedColumnFormula>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="33">
       <calculatedColumnFormula>IF(Assay!$F$34=reference!$E$104,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="29">
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{BC0F75E0-A79C-490C-9405-CD6FA4A793F8}" name="Sample Type" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA identifier" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{59846CDB-FD66-45CD-A212-013D460992B1}" name="PCR Identifier" dataDxfId="28">
       <calculatedColumnFormula>IF(LEN(tbl_PCR[[#This Row],[sWGA identifier]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="25">
       <calculatedColumnFormula>IF(OR(J3="",K3=""),"",SUM(J3*K3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="25"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2755,12 +2755,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}" name="tbl_Assays" displayName="tbl_Assays" ref="E2:G8" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="E2:G8" xr:uid="{488B678F-87F5-452A-9808-8C26D87C6316}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{981BF5AE-121F-4AF8-855F-49DE509E86E1}" name="Assay Name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{AECC9098-A69C-44D7-87A5-086086FD999D}" name="Targets" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{20A98561-A069-41FD-A7B3-766B6336516C}" name="Primer Set" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2821,22 +2821,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:G97" totalsRowShown="0">
   <autoFilter ref="A1:G97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="18">
       <calculatedColumnFormula>IF(LEN(PCR!E3),PCR!E3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="17">
       <calculatedColumnFormula>IF(LEN(PCR!F3),PCR!F3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="16">
       <calculatedColumnFormula>IF(LEN(PCR!G3),PCR!G3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="15">
       <calculatedColumnFormula>IF(LEN(PCR!H3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="14">
       <calculatedColumnFormula>IF(LEN(PCR!H3),PCR!H3,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="13">
       <calculatedColumnFormula>IF(LEN(PCR!I3),PCR!I3,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -3160,276 +3160,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="104" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="K2" s="111" t="s">
+      <c r="H2" s="86"/>
+      <c r="K2" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="111"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
       <c r="G3" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="112" t="s">
+      <c r="K3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="112"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="113" t="s">
+      <c r="K4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="113"/>
+      <c r="L4" s="108"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="108" t="str">
+      <c r="B5" s="100"/>
+      <c r="C5" s="103" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="114"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="109" t="str">
+      <c r="B6" s="100"/>
+      <c r="C6" s="104" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="17"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
       <c r="G7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
       <c r="G8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="119" t="str">
+      <c r="B9" s="89"/>
+      <c r="C9" s="91" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118" t="str">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="97" t="str">
+      <c r="B12" s="99"/>
+      <c r="C12" s="93" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97" t="str">
+      <c r="B13" s="99"/>
+      <c r="C13" s="93" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
       <c r="G13" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
       <c r="G14" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
       <c r="G15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3456,25 +3456,25 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="99" t="s">
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99" t="str">
+      <c r="E21" s="110"/>
+      <c r="F21" s="110" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G21" s="99"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="8"/>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="102"/>
+      <c r="K21" s="113"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
@@ -3483,24 +3483,24 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="89" t="s">
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="89"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
-      <c r="J22" s="92" t="str">
+      <c r="J22" s="116" t="str">
         <f>reference!E62</f>
         <v/>
       </c>
-      <c r="K22" s="92"/>
+      <c r="K22" s="116"/>
       <c r="L22" s="50" t="str">
         <f>reference!F62</f>
         <v/>
@@ -3511,29 +3511,29 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="str">
+      <c r="A23" s="95" t="str">
         <f>reference!E25</f>
         <v/>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="91" t="str">
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="94" t="str">
         <f>reference!F25</f>
         <v/>
       </c>
-      <c r="E23" s="91"/>
-      <c r="F23" s="88" t="str">
+      <c r="E23" s="94"/>
+      <c r="F23" s="115" t="str">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="88"/>
+      <c r="G23" s="115"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="92" t="str">
+      <c r="J23" s="116" t="str">
         <f>reference!E63</f>
         <v/>
       </c>
-      <c r="K23" s="92"/>
+      <c r="K23" s="116"/>
       <c r="L23" s="50" t="str">
         <f>reference!F63</f>
         <v/>
@@ -3544,29 +3544,29 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="str">
+      <c r="A24" s="95" t="str">
         <f>reference!E26</f>
         <v/>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="91" t="str">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="94" t="str">
         <f>reference!F26</f>
         <v/>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="88" t="str">
+      <c r="E24" s="94"/>
+      <c r="F24" s="115" t="str">
         <f>IFERROR(SUM(D24*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G24" s="88"/>
+      <c r="G24" s="115"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
-      <c r="J24" s="92" t="str">
+      <c r="J24" s="116" t="str">
         <f>reference!E64</f>
         <v/>
       </c>
-      <c r="K24" s="92"/>
+      <c r="K24" s="116"/>
       <c r="L24" s="50" t="str">
         <f>reference!F64</f>
         <v/>
@@ -3577,29 +3577,29 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="str">
+      <c r="A25" s="95" t="str">
         <f>reference!E27</f>
         <v/>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="91" t="str">
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="94" t="str">
         <f>reference!F27</f>
         <v/>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="88" t="str">
+      <c r="E25" s="94"/>
+      <c r="F25" s="115" t="str">
         <f>IFERROR(SUM(D25*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G25" s="88"/>
+      <c r="G25" s="115"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
-      <c r="J25" s="92" t="str">
+      <c r="J25" s="116" t="str">
         <f>reference!E65</f>
         <v/>
       </c>
-      <c r="K25" s="92"/>
+      <c r="K25" s="116"/>
       <c r="L25" s="50" t="str">
         <f>reference!F65</f>
         <v/>
@@ -3610,29 +3610,29 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="str">
+      <c r="A26" s="95" t="str">
         <f>reference!E28</f>
         <v/>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="91" t="str">
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="94" t="str">
         <f>reference!F28</f>
         <v/>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="88" t="str">
+      <c r="E26" s="94"/>
+      <c r="F26" s="115" t="str">
         <f>IFERROR(SUM(D26*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G26" s="88"/>
+      <c r="G26" s="115"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
-      <c r="J26" s="92" t="str">
+      <c r="J26" s="116" t="str">
         <f>reference!E66</f>
         <v/>
       </c>
-      <c r="K26" s="92"/>
+      <c r="K26" s="116"/>
       <c r="L26" s="50" t="str">
         <f>reference!F66</f>
         <v/>
@@ -3643,28 +3643,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="87" t="str">
+      <c r="A27" s="95" t="str">
         <f>reference!E29</f>
         <v/>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="91" t="str">
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="94" t="str">
         <f>reference!F29</f>
         <v/>
       </c>
-      <c r="E27" s="91"/>
-      <c r="F27" s="88" t="str">
+      <c r="E27" s="94"/>
+      <c r="F27" s="115" t="str">
         <f>IFERROR(SUM(D27*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G27" s="88"/>
+      <c r="G27" s="115"/>
       <c r="H27" s="8"/>
-      <c r="J27" s="92" t="str">
+      <c r="J27" s="116" t="str">
         <f>reference!E67</f>
         <v/>
       </c>
-      <c r="K27" s="92"/>
+      <c r="K27" s="116"/>
       <c r="L27" s="50" t="str">
         <f>reference!F67</f>
         <v/>
@@ -3675,22 +3675,22 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="85" t="str">
+      <c r="D28" s="117" t="str">
         <f>IF(SUM(D22:E27)=0,"",SUM(D22:E27))</f>
         <v/>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="52" t="str">
         <f>CONCATENATE("Add ",SUM(D23:D27)," µl of MM to each well")</f>
         <v>Add 0 µl of MM to each well</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
-      <c r="J28" s="92" t="str">
+      <c r="J28" s="116" t="str">
         <f>reference!E68</f>
         <v/>
       </c>
-      <c r="K28" s="92"/>
+      <c r="K28" s="116"/>
       <c r="L28" s="50" t="str">
         <f>reference!F68</f>
         <v/>
@@ -3718,28 +3718,28 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="118" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="118"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="86" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
@@ -3752,11 +3752,11 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="8"/>
-      <c r="K32" s="95" t="s">
+      <c r="K32" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -3778,8 +3778,8 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4252,6 +4252,62 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C17:K18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L6"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="A31:M31"/>
     <mergeCell ref="A7:B7"/>
@@ -4268,62 +4324,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C17:K18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:C27">
     <cfRule type="expression" dxfId="12" priority="9">
@@ -7624,7 +7624,7 @@
       <c r="I111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" sort="0" autoFilter="0"/>
   <protectedRanges>
     <protectedRange sqref="H2:M98 D3:G98 A2:C98 E2:F2" name="AllowSortFilter"/>
     <protectedRange sqref="D2 G2" name="FilterTbl"/>
@@ -7639,7 +7639,7 @@
       <formula>NOT(ISERROR(SEARCH(" ",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K98 M3:M98 D3:H98">
+  <conditionalFormatting sqref="D3:H98 J3:K98 M3:M98">
     <cfRule type="expression" dxfId="1" priority="14">
       <formula>COUNTIF(D3,"")</formula>
     </cfRule>

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68EFD04-E32C-47AE-8262-7532CC8C1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E000A9-6C4B-4103-8D1C-D3212E051F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="29100" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29670" windowHeight="19260" activeTab="4" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -1175,9 +1175,6 @@
     <t>Selected Primer Set</t>
   </si>
   <si>
-    <t>template_vol</t>
-  </si>
-  <si>
     <t>Selected polymerase</t>
   </si>
   <si>
@@ -1218,6 +1215,9 @@
   </si>
   <si>
     <t>Post-PCR clean-up target [DNA]</t>
+  </si>
+  <si>
+    <t>pcr_template_vol</t>
   </si>
 </sst>
 </file>
@@ -2042,44 +2042,30 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2087,8 +2073,37 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -2123,38 +2138,23 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2806,7 +2806,7 @@
     <tableColumn id="9" xr3:uid="{5C17D014-189E-43E2-A899-4574390B7A58}" name="pcr_targetpanel">
       <calculatedColumnFormula>IF(LEN(pcr_targetpanel)=0,"",pcr_targetpanel)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B1248788-8BBB-4F40-90D1-7B509917F807}" name="template_vol">
+    <tableColumn id="14" xr3:uid="{B1248788-8BBB-4F40-90D1-7B509917F807}" name="pcr_template_vol">
       <calculatedColumnFormula>IF(LEN(template_vol)=0,"",template_vol)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{4786D324-56A9-420B-A7CB-8083E29E50BD}" name="pcr_enzyme">
@@ -3160,276 +3160,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="86" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="K2" s="106" t="s">
+      <c r="H2" s="104"/>
+      <c r="K2" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="106"/>
+      <c r="L2" s="111"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
       <c r="G3" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="K3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="107"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="108"/>
+      <c r="L4" s="113"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="103" t="str">
+      <c r="B5" s="105"/>
+      <c r="C5" s="108" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,reference!I3:J8,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="109"/>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="104" t="str">
+      <c r="B6" s="105"/>
+      <c r="C6" s="109" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="17"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="G7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
       <c r="G8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="91" t="str">
+      <c r="B9" s="117"/>
+      <c r="C9" s="119" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="15" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90" t="str">
+      <c r="B10" s="117"/>
+      <c r="C10" s="118" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="93" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
       <c r="G11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="93" t="str">
+      <c r="B12" s="96"/>
+      <c r="C12" s="97" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],2,FALSE))</f>
         <v/>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="15" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="93" t="str">
+      <c r="B13" s="96"/>
+      <c r="C13" s="97" t="str">
         <f>IF(ISBLANK(C11),"",VLOOKUP(C11,tbl_Assays[],3,FALSE))</f>
         <v/>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="15" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
       <c r="G15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3456,25 +3456,25 @@
       <c r="H20"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="110" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110" t="str">
+      <c r="E21" s="99"/>
+      <c r="F21" s="99" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G21" s="110"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="8"/>
-      <c r="J21" s="113" t="s">
+      <c r="J21" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="113"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="48" t="s">
         <v>14</v>
       </c>
@@ -3483,24 +3483,24 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="119" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="119"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
-      <c r="J22" s="116" t="str">
+      <c r="J22" s="92" t="str">
         <f>reference!E62</f>
         <v/>
       </c>
-      <c r="K22" s="116"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="50" t="str">
         <f>reference!F62</f>
         <v/>
@@ -3511,29 +3511,29 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="str">
+      <c r="A23" s="87" t="str">
         <f>reference!E25</f>
         <v/>
       </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="94" t="str">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="91" t="str">
         <f>reference!F25</f>
         <v/>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="115" t="str">
+      <c r="E23" s="91"/>
+      <c r="F23" s="88" t="str">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G23" s="115"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
-      <c r="J23" s="116" t="str">
+      <c r="J23" s="92" t="str">
         <f>reference!E63</f>
         <v/>
       </c>
-      <c r="K23" s="116"/>
+      <c r="K23" s="92"/>
       <c r="L23" s="50" t="str">
         <f>reference!F63</f>
         <v/>
@@ -3544,29 +3544,29 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="str">
+      <c r="A24" s="87" t="str">
         <f>reference!E26</f>
         <v/>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="94" t="str">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="91" t="str">
         <f>reference!F26</f>
         <v/>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="115" t="str">
+      <c r="E24" s="91"/>
+      <c r="F24" s="88" t="str">
         <f>IFERROR(SUM(D24*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G24" s="115"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
-      <c r="J24" s="116" t="str">
+      <c r="J24" s="92" t="str">
         <f>reference!E64</f>
         <v/>
       </c>
-      <c r="K24" s="116"/>
+      <c r="K24" s="92"/>
       <c r="L24" s="50" t="str">
         <f>reference!F64</f>
         <v/>
@@ -3577,29 +3577,29 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="str">
+      <c r="A25" s="87" t="str">
         <f>reference!E27</f>
         <v/>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="94" t="str">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="91" t="str">
         <f>reference!F27</f>
         <v/>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="115" t="str">
+      <c r="E25" s="91"/>
+      <c r="F25" s="88" t="str">
         <f>IFERROR(SUM(D25*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G25" s="115"/>
+      <c r="G25" s="88"/>
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
-      <c r="J25" s="116" t="str">
+      <c r="J25" s="92" t="str">
         <f>reference!E65</f>
         <v/>
       </c>
-      <c r="K25" s="116"/>
+      <c r="K25" s="92"/>
       <c r="L25" s="50" t="str">
         <f>reference!F65</f>
         <v/>
@@ -3610,29 +3610,29 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="str">
+      <c r="A26" s="87" t="str">
         <f>reference!E28</f>
         <v/>
       </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="94" t="str">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="91" t="str">
         <f>reference!F28</f>
         <v/>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="115" t="str">
+      <c r="E26" s="91"/>
+      <c r="F26" s="88" t="str">
         <f>IFERROR(SUM(D26*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G26" s="115"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
-      <c r="J26" s="116" t="str">
+      <c r="J26" s="92" t="str">
         <f>reference!E66</f>
         <v/>
       </c>
-      <c r="K26" s="116"/>
+      <c r="K26" s="92"/>
       <c r="L26" s="50" t="str">
         <f>reference!F66</f>
         <v/>
@@ -3643,28 +3643,28 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="str">
+      <c r="A27" s="87" t="str">
         <f>reference!E29</f>
         <v/>
       </c>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="94" t="str">
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="91" t="str">
         <f>reference!F29</f>
         <v/>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="115" t="str">
+      <c r="E27" s="91"/>
+      <c r="F27" s="88" t="str">
         <f>IFERROR(SUM(D27*exp_rxns*(1+$D$20)),"")</f>
         <v/>
       </c>
-      <c r="G27" s="115"/>
+      <c r="G27" s="88"/>
       <c r="H27" s="8"/>
-      <c r="J27" s="116" t="str">
+      <c r="J27" s="92" t="str">
         <f>reference!E67</f>
         <v/>
       </c>
-      <c r="K27" s="116"/>
+      <c r="K27" s="92"/>
       <c r="L27" s="50" t="str">
         <f>reference!F67</f>
         <v/>
@@ -3675,22 +3675,22 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="117" t="str">
+      <c r="D28" s="85" t="str">
         <f>IF(SUM(D22:E27)=0,"",SUM(D22:E27))</f>
         <v/>
       </c>
-      <c r="E28" s="117"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="52" t="str">
         <f>CONCATENATE("Add ",SUM(D23:D27)," µl of MM to each well")</f>
         <v>Add 0 µl of MM to each well</v>
       </c>
       <c r="G28" s="50"/>
       <c r="H28" s="8"/>
-      <c r="J28" s="116" t="str">
+      <c r="J28" s="92" t="str">
         <f>reference!E68</f>
         <v/>
       </c>
-      <c r="K28" s="116"/>
+      <c r="K28" s="92"/>
       <c r="L28" s="50" t="str">
         <f>reference!F68</f>
         <v/>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -3718,28 +3718,28 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="K30" s="118" t="s">
+      <c r="K30" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86" t="s">
-        <v>291</v>
-      </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
+      <c r="A31" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
@@ -3752,11 +3752,11 @@
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="8"/>
-      <c r="K32" s="114" t="s">
+      <c r="K32" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
@@ -3773,13 +3773,13 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4252,17 +4252,51 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="72">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C17:K18"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="D24:E24"/>
@@ -4279,51 +4313,17 @@
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
     <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C17:K18"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <conditionalFormatting sqref="A25:C27">
     <cfRule type="expression" dxfId="12" priority="9">
@@ -4488,13 +4488,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>132</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E2" s="58" t="s">
         <v>5</v>
@@ -7784,13 +7784,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>143</v>
@@ -7990,13 +7990,13 @@
     </row>
     <row r="23" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F24" s="53" t="str">
         <f>IF(pcr_enzyme=$E$14,F32,IF(pcr_enzyme=$E$15,F42,IF(pcr_enzyme=$E$16,F52,"")))</f>
@@ -8061,7 +8061,7 @@
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F33">
         <f>SUM(F35:F38)</f>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F34">
         <v>25</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F43">
         <f>SUM(F45:F46)</f>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F44">
         <v>25</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F45">
         <v>15.5</v>
@@ -8200,7 +8200,7 @@
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F52">
         <v>5</v>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F53">
         <f>SUM(F55:F56)</f>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F54">
         <v>25</v>
@@ -8375,7 +8375,7 @@
         <v>93</v>
       </c>
       <c r="F71" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G71" s="54"/>
     </row>
@@ -8433,7 +8433,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8448,7 +8448,7 @@
         <v>95</v>
       </c>
       <c r="F79" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.25">
@@ -8494,7 +8494,7 @@
         <v>8</v>
       </c>
       <c r="F84" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="5:7" x14ac:dyDescent="0.25">
@@ -8512,7 +8512,7 @@
         <v>93</v>
       </c>
       <c r="F87" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G87" s="54"/>
     </row>
@@ -8570,7 +8570,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8585,7 +8585,7 @@
         <v>93</v>
       </c>
       <c r="F95" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G95" s="54"/>
     </row>
@@ -8643,12 +8643,12 @@
         <v>8</v>
       </c>
       <c r="F101" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="5:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E103" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.25">
@@ -8900,7 +8900,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8951,7 +8951,7 @@
         <v>175</v>
       </c>
       <c r="M1" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="N1" t="s">
         <v>213</v>
@@ -9016,7 +9016,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vph7DaMh3SyowaNNd8/hWiOan38yUHTDW1w5tTlbGEdRpJuRTmeOvrHT9rmEAjHGl0Numj/KRrc+UvQhk/Kdtg==" saltValue="/M7Z5DLigzvvgEv+lbbvig==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V+On3mIKG4iDZA8VJY6RI0Q6K2t5nPFCHUFDR5Wf2KezEa6AP2JR8g95oyax6L0T57Vz84OCXrdSZwmrPTXHGw==" saltValue="2SO4eaxQv1qdVdrK8GKI/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45D4FDE-F62D-4597-8E52-73F36B9F39A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5799900A-2860-4DEA-BE04-B6E48DC2CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23172" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
   <sheets>
     <sheet name="Assay" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="261">
   <si>
     <t>Assumptions</t>
   </si>
@@ -1005,15 +1005,22 @@
   <si>
     <t>Assays</t>
   </si>
+  <si>
+    <t>Total volume:</t>
+  </si>
+  <si>
+    <t>2- Post-PCR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1563,7 +1570,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1647,10 +1654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1774,22 +1777,30 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1797,7 +1808,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1805,31 +1816,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1867,23 +1855,38 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1913,6 +1916,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2618,7 +2628,7 @@
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="39"/>
     <tableColumn id="10" xr3:uid="{3E950F3B-0125-416D-ACC8-0BEBF0CE0399}" name="Platemap ID" dataDxfId="38">
-      <calculatedColumnFormula>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="37"/>
     <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="36"/>
@@ -3035,10 +3045,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C15" sqref="C15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -3047,244 +3057,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="94" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="94"/>
-      <c r="K2" s="102" t="s">
+      <c r="H2" s="77"/>
+      <c r="K2" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="102"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="103" t="s">
+      <c r="K3" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="103"/>
+      <c r="L3" s="97"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="104" t="s">
+      <c r="K4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="104"/>
+      <c r="L4" s="98"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="99" t="str">
+      <c r="B5" s="90"/>
+      <c r="C5" s="93" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,Reference!I17:J26,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="105" t="s">
+      <c r="K5" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="105"/>
+      <c r="L5" s="99"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="100" t="str">
+      <c r="B6" s="90"/>
+      <c r="C6" s="94" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
       <c r="G6" s="16"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
       <c r="G7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
       <c r="G8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="110" t="str">
+      <c r="B9" s="80"/>
+      <c r="C9" s="82" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="109" t="str">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary))</f>
         <v/>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
       <c r="G11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="86"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="79">
+        <v>48</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="24"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8"/>
@@ -3297,834 +3313,888 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="63" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="34">
-        <v>0.1</v>
+      <c r="D18" s="119">
+        <v>0.12</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="89" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89" t="str">
+      <c r="E19" s="101"/>
+      <c r="F19" s="101" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
-        <v>MM x (µl)</v>
-      </c>
-      <c r="G19" s="89"/>
+        <v>MM x48 (µl)</v>
+      </c>
+      <c r="G19" s="101"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="90" t="s">
+      <c r="J19" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="90"/>
-      <c r="L19" s="35" t="s">
+      <c r="K19" s="102"/>
+      <c r="L19" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="81" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="110">
         <v>8</v>
       </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="84" t="str">
+      <c r="E20" s="110"/>
+      <c r="F20" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="109"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="106">
         <f>Reference!E69</f>
-        <v/>
-      </c>
-      <c r="K20" s="84"/>
-      <c r="L20" s="37" t="str">
+        <v>95</v>
+      </c>
+      <c r="K20" s="106"/>
+      <c r="L20" s="36" t="str">
         <f>Reference!F69</f>
-        <v/>
-      </c>
-      <c r="M20" s="37" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M20" s="36">
         <f>Reference!G69</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="79" t="str">
+      <c r="A21" s="85" t="str">
         <f>Reference!E32</f>
-        <v/>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="83" t="str">
+        <v>KAPA HiFI ReadyMix (2x)</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="84">
         <f>Reference!F32</f>
-        <v/>
-      </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="80" t="str">
+        <v>15.5</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="105">
         <f>IFERROR(SUM(D21*exp_rxns*(1+$D$18)),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="84" t="str">
+        <v>833.28000000000009</v>
+      </c>
+      <c r="G21" s="105"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="106">
         <f>Reference!E70</f>
-        <v/>
-      </c>
-      <c r="K21" s="84"/>
-      <c r="L21" s="37" t="str">
+        <v>95</v>
+      </c>
+      <c r="K21" s="106"/>
+      <c r="L21" s="36" t="str">
         <f>Reference!F70</f>
-        <v/>
-      </c>
-      <c r="M21" s="37" t="str">
+        <v>3 min</v>
+      </c>
+      <c r="M21" s="36">
         <f>Reference!G70</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="79" t="str">
+      <c r="A22" s="85" t="str">
         <f>Reference!E33</f>
-        <v/>
-      </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="83" t="str">
+        <v>Primer pool (10 μM)</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="84">
         <f>Reference!F33</f>
-        <v/>
-      </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="80" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="105">
         <f>IFERROR(SUM(D22*exp_rxns*(1+$D$18)),"")</f>
-        <v/>
-      </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="84" t="str">
+        <v>80.640000000000015</v>
+      </c>
+      <c r="G22" s="105"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="106">
         <f>Reference!E71</f>
-        <v/>
-      </c>
-      <c r="K22" s="84"/>
-      <c r="L22" s="37" t="str">
+        <v>98</v>
+      </c>
+      <c r="K22" s="106"/>
+      <c r="L22" s="36" t="str">
         <f>Reference!F71</f>
-        <v/>
-      </c>
-      <c r="M22" s="37" t="str">
+        <v>20 sec</v>
+      </c>
+      <c r="M22" s="36" t="str">
         <f>Reference!G71</f>
-        <v/>
+        <v>x35</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="79" t="str">
+      <c r="A23" s="85" t="str">
         <f>Reference!E34</f>
-        <v/>
-      </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="83" t="str">
+        <v>Water</v>
+      </c>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="84">
         <f>Reference!F34</f>
-        <v/>
-      </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="105">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$18)),"")</f>
-        <v/>
-      </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="G23" s="105"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="106">
         <f>Reference!E72</f>
-        <v/>
-      </c>
-      <c r="K23" s="84"/>
-      <c r="L23" s="37" t="str">
+        <v>60</v>
+      </c>
+      <c r="K23" s="106"/>
+      <c r="L23" s="36" t="str">
         <f>Reference!F72</f>
-        <v/>
-      </c>
-      <c r="M23" s="37" t="str">
+        <v>3 min</v>
+      </c>
+      <c r="M23" s="36" t="str">
         <f>Reference!G72</f>
-        <v/>
+        <v>x35</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="79" t="str">
+      <c r="A24" s="85" t="str">
         <f>Reference!E35</f>
-        <v/>
-      </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="83" t="str">
+        <v>-</v>
+      </c>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="84">
         <f>Reference!F35</f>
-        <v/>
-      </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="105">
         <f>IFERROR(SUM(D24*exp_rxns*(1+$D$18)),"")</f>
-        <v/>
-      </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="84" t="str">
+        <v>0</v>
+      </c>
+      <c r="G24" s="105"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="106">
         <f>Reference!E73</f>
-        <v/>
-      </c>
-      <c r="K24" s="84"/>
-      <c r="L24" s="37" t="str">
+        <v>60</v>
+      </c>
+      <c r="K24" s="106"/>
+      <c r="L24" s="36" t="str">
         <f>Reference!F73</f>
-        <v/>
-      </c>
-      <c r="M24" s="37" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="M24" s="36">
         <f>Reference!G73</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="79" t="str">
+      <c r="A25" s="85" t="str">
         <f>Reference!E36</f>
-        <v/>
-      </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="83" t="str">
+        <v>-</v>
+      </c>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="84">
         <f>Reference!F36</f>
-        <v/>
-      </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="80" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="105">
         <f>IFERROR(SUM(D25*exp_rxns*(1+$D$18)),"")</f>
-        <v/>
-      </c>
-      <c r="G25" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="105"/>
       <c r="H25" s="8"/>
-      <c r="J25" s="84" t="str">
+      <c r="J25" s="106">
         <f>Reference!E74</f>
-        <v/>
-      </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="37" t="str">
+        <v>8</v>
+      </c>
+      <c r="K25" s="106"/>
+      <c r="L25" s="36" t="str">
         <f>Reference!F74</f>
-        <v/>
-      </c>
-      <c r="M25" s="37" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M25" s="36">
         <f>Reference!G74</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="D26" s="77" t="str">
+      <c r="C26" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="107">
         <f>IF(SUM(D20:E25)=0,"",SUM(D20:E25))</f>
-        <v/>
-      </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="39" t="str">
+        <v>25</v>
+      </c>
+      <c r="E26" s="107"/>
+      <c r="F26" s="38" t="str">
         <f>CONCATENATE("Add ",SUM(D21:D25)," µl of MM to each well")</f>
-        <v>Add 0 µl of MM to each well</v>
-      </c>
-      <c r="G26" s="37"/>
+        <v>Add 17 µl of MM to each well</v>
+      </c>
+      <c r="G26" s="36"/>
       <c r="H26" s="8"/>
-      <c r="J26" s="84" t="str">
+      <c r="J26" s="106">
         <f>Reference!E75</f>
-        <v/>
-      </c>
-      <c r="K26" s="84"/>
-      <c r="L26" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="K26" s="106"/>
+      <c r="L26" s="36">
         <f>Reference!F75</f>
-        <v/>
-      </c>
-      <c r="M26" s="37" t="str">
+        <v>0</v>
+      </c>
+      <c r="M26" s="36">
         <f>Reference!G75</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="A27" s="106" t="str">
+        <f>_xlfn.CONCAT("(If dispensing MM from an 8-well strip tube with a multichannel, add ",ROUND((SUM(F20:G25)/8),0)," µl of MM to each strip tube well)")</f>
+        <v>(If dispensing MM from an 8-well strip tube with a multichannel, add 114 µl of MM to each strip tube well)</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="K28" s="78" t="s">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="K30" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-    </row>
-    <row r="29" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A29" s="94" t="s">
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+    </row>
+    <row r="31" spans="1:13" ht="35.25" customHeight="1">
+      <c r="A31" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A32" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="8"/>
-      <c r="K30" s="87" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="8"/>
+      <c r="K32" s="104" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>227</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" s="106" t="s">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="106"/>
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33"/>
-      <c r="B33" s="21">
+      <c r="G34" s="76"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A35"/>
+      <c r="B35" s="21">
         <v>1</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C35" s="21">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D35" s="21">
         <v>3</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E35" s="21">
         <v>4</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F35" s="21">
         <v>5</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G35" s="21">
         <v>6</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H35" s="21">
         <v>7</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I35" s="21">
         <v>8</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J35" s="21">
         <v>9</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K35" s="21">
         <v>10</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L35" s="21">
         <v>11</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M35" s="21">
         <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="20" t="str">
-        <f>PCR!$D4</f>
-        <v/>
-      </c>
-      <c r="C34" s="20" t="str">
-        <f>PCR!$D12</f>
-        <v/>
-      </c>
-      <c r="D34" s="20" t="str">
-        <f>PCR!$D20</f>
-        <v/>
-      </c>
-      <c r="E34" s="20" t="str">
-        <f>PCR!$D28</f>
-        <v/>
-      </c>
-      <c r="F34" s="20" t="str">
-        <f>PCR!$D36</f>
-        <v/>
-      </c>
-      <c r="G34" s="20" t="str">
-        <f>PCR!$D44</f>
-        <v/>
-      </c>
-      <c r="H34" s="20" t="str">
-        <f>PCR!$D52</f>
-        <v/>
-      </c>
-      <c r="I34" s="20" t="str">
-        <f>PCR!$D60</f>
-        <v/>
-      </c>
-      <c r="J34" s="20" t="str">
-        <f>PCR!$D68</f>
-        <v/>
-      </c>
-      <c r="K34" s="20" t="str">
-        <f>PCR!$D76</f>
-        <v/>
-      </c>
-      <c r="L34" s="20" t="str">
-        <f>PCR!$D84</f>
-        <v/>
-      </c>
-      <c r="M34" s="20" t="str">
-        <f>PCR!$D92</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="20" t="str">
-        <f>PCR!$D5</f>
-        <v/>
-      </c>
-      <c r="C35" s="20" t="str">
-        <f>PCR!$D13</f>
-        <v/>
-      </c>
-      <c r="D35" s="20" t="str">
-        <f>PCR!$D21</f>
-        <v/>
-      </c>
-      <c r="E35" s="20" t="str">
-        <f>PCR!$D29</f>
-        <v/>
-      </c>
-      <c r="F35" s="20" t="str">
-        <f>PCR!$D37</f>
-        <v/>
-      </c>
-      <c r="G35" s="20" t="str">
-        <f>PCR!$D45</f>
-        <v/>
-      </c>
-      <c r="H35" s="20" t="str">
-        <f>PCR!$D53</f>
-        <v/>
-      </c>
-      <c r="I35" s="20" t="str">
-        <f>PCR!$D61</f>
-        <v/>
-      </c>
-      <c r="J35" s="20" t="str">
-        <f>PCR!$D69</f>
-        <v/>
-      </c>
-      <c r="K35" s="20" t="str">
-        <f>PCR!$D77</f>
-        <v/>
-      </c>
-      <c r="L35" s="20" t="str">
-        <f>PCR!$D85</f>
-        <v/>
-      </c>
-      <c r="M35" s="20" t="str">
-        <f>PCR!$D93</f>
-        <v/>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="20" t="str">
-        <f>PCR!$D6</f>
+        <f>PCR!$D4</f>
         <v/>
       </c>
       <c r="C36" s="20" t="str">
-        <f>PCR!$D14</f>
+        <f>PCR!$D12</f>
         <v/>
       </c>
       <c r="D36" s="20" t="str">
-        <f>PCR!$D22</f>
+        <f>PCR!$D20</f>
         <v/>
       </c>
       <c r="E36" s="20" t="str">
-        <f>PCR!$D30</f>
+        <f>PCR!$D28</f>
         <v/>
       </c>
       <c r="F36" s="20" t="str">
-        <f>PCR!$D38</f>
+        <f>PCR!$D36</f>
         <v/>
       </c>
       <c r="G36" s="20" t="str">
-        <f>PCR!$D46</f>
+        <f>PCR!$D44</f>
         <v/>
       </c>
       <c r="H36" s="20" t="str">
-        <f>PCR!$D54</f>
+        <f>PCR!$D52</f>
         <v/>
       </c>
       <c r="I36" s="20" t="str">
-        <f>PCR!$D62</f>
+        <f>PCR!$D60</f>
         <v/>
       </c>
       <c r="J36" s="20" t="str">
-        <f>PCR!$D70</f>
+        <f>PCR!$D68</f>
         <v/>
       </c>
       <c r="K36" s="20" t="str">
-        <f>PCR!$D78</f>
+        <f>PCR!$D76</f>
         <v/>
       </c>
       <c r="L36" s="20" t="str">
-        <f>PCR!$D86</f>
+        <f>PCR!$D84</f>
         <v/>
       </c>
       <c r="M36" s="20" t="str">
-        <f>PCR!$D94</f>
+        <f>PCR!$D92</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="20" t="str">
-        <f>PCR!$D7</f>
+        <f>PCR!$D5</f>
         <v/>
       </c>
       <c r="C37" s="20" t="str">
-        <f>PCR!$D15</f>
+        <f>PCR!$D13</f>
         <v/>
       </c>
       <c r="D37" s="20" t="str">
-        <f>PCR!$D23</f>
+        <f>PCR!$D21</f>
         <v/>
       </c>
       <c r="E37" s="20" t="str">
-        <f>PCR!$D31</f>
+        <f>PCR!$D29</f>
         <v/>
       </c>
       <c r="F37" s="20" t="str">
-        <f>PCR!$D39</f>
+        <f>PCR!$D37</f>
         <v/>
       </c>
       <c r="G37" s="20" t="str">
-        <f>PCR!$D47</f>
+        <f>PCR!$D45</f>
         <v/>
       </c>
       <c r="H37" s="20" t="str">
-        <f>PCR!$D55</f>
+        <f>PCR!$D53</f>
         <v/>
       </c>
       <c r="I37" s="20" t="str">
-        <f>PCR!$D63</f>
+        <f>PCR!$D61</f>
         <v/>
       </c>
       <c r="J37" s="20" t="str">
-        <f>PCR!$D71</f>
+        <f>PCR!$D69</f>
         <v/>
       </c>
       <c r="K37" s="20" t="str">
-        <f>PCR!$D79</f>
+        <f>PCR!$D77</f>
         <v/>
       </c>
       <c r="L37" s="20" t="str">
-        <f>PCR!$D87</f>
+        <f>PCR!$D85</f>
         <v/>
       </c>
       <c r="M37" s="20" t="str">
-        <f>PCR!$D95</f>
+        <f>PCR!$D93</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="20" t="str">
-        <f>PCR!$D8</f>
+        <f>PCR!$D6</f>
         <v/>
       </c>
       <c r="C38" s="20" t="str">
-        <f>PCR!$D16</f>
+        <f>PCR!$D14</f>
         <v/>
       </c>
       <c r="D38" s="20" t="str">
-        <f>PCR!$D24</f>
+        <f>PCR!$D22</f>
         <v/>
       </c>
       <c r="E38" s="20" t="str">
-        <f>PCR!$D32</f>
+        <f>PCR!$D30</f>
         <v/>
       </c>
       <c r="F38" s="20" t="str">
-        <f>PCR!$D40</f>
+        <f>PCR!$D38</f>
         <v/>
       </c>
       <c r="G38" s="20" t="str">
-        <f>PCR!$D48</f>
+        <f>PCR!$D46</f>
         <v/>
       </c>
       <c r="H38" s="20" t="str">
-        <f>PCR!$D56</f>
+        <f>PCR!$D54</f>
         <v/>
       </c>
       <c r="I38" s="20" t="str">
-        <f>PCR!$D64</f>
+        <f>PCR!$D62</f>
         <v/>
       </c>
       <c r="J38" s="20" t="str">
-        <f>PCR!$D72</f>
+        <f>PCR!$D70</f>
         <v/>
       </c>
       <c r="K38" s="20" t="str">
-        <f>PCR!$D80</f>
+        <f>PCR!$D78</f>
         <v/>
       </c>
       <c r="L38" s="20" t="str">
-        <f>PCR!$D88</f>
+        <f>PCR!$D86</f>
         <v/>
       </c>
       <c r="M38" s="20" t="str">
-        <f>PCR!$D96</f>
+        <f>PCR!$D94</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B39" s="20" t="str">
-        <f>PCR!$D9</f>
+        <f>PCR!$D7</f>
         <v/>
       </c>
       <c r="C39" s="20" t="str">
-        <f>PCR!$D17</f>
+        <f>PCR!$D15</f>
         <v/>
       </c>
       <c r="D39" s="20" t="str">
-        <f>PCR!$D25</f>
+        <f>PCR!$D23</f>
         <v/>
       </c>
       <c r="E39" s="20" t="str">
-        <f>PCR!$D33</f>
+        <f>PCR!$D31</f>
         <v/>
       </c>
       <c r="F39" s="20" t="str">
-        <f>PCR!$D41</f>
+        <f>PCR!$D39</f>
         <v/>
       </c>
       <c r="G39" s="20" t="str">
-        <f>PCR!$D49</f>
+        <f>PCR!$D47</f>
         <v/>
       </c>
       <c r="H39" s="20" t="str">
-        <f>PCR!$D57</f>
+        <f>PCR!$D55</f>
         <v/>
       </c>
       <c r="I39" s="20" t="str">
-        <f>PCR!$D65</f>
+        <f>PCR!$D63</f>
         <v/>
       </c>
       <c r="J39" s="20" t="str">
-        <f>PCR!$D73</f>
+        <f>PCR!$D71</f>
         <v/>
       </c>
       <c r="K39" s="20" t="str">
-        <f>PCR!$D81</f>
+        <f>PCR!$D79</f>
         <v/>
       </c>
       <c r="L39" s="20" t="str">
-        <f>PCR!$D89</f>
+        <f>PCR!$D87</f>
         <v/>
       </c>
       <c r="M39" s="20" t="str">
-        <f>PCR!$D97</f>
+        <f>PCR!$D95</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B40" s="20" t="str">
-        <f>PCR!$D10</f>
+        <f>PCR!$D8</f>
         <v/>
       </c>
       <c r="C40" s="20" t="str">
-        <f>PCR!$D18</f>
+        <f>PCR!$D16</f>
         <v/>
       </c>
       <c r="D40" s="20" t="str">
-        <f>PCR!$D26</f>
+        <f>PCR!$D24</f>
         <v/>
       </c>
       <c r="E40" s="20" t="str">
-        <f>PCR!$D34</f>
+        <f>PCR!$D32</f>
         <v/>
       </c>
       <c r="F40" s="20" t="str">
-        <f>PCR!$D42</f>
+        <f>PCR!$D40</f>
         <v/>
       </c>
       <c r="G40" s="20" t="str">
-        <f>PCR!$D50</f>
+        <f>PCR!$D48</f>
         <v/>
       </c>
       <c r="H40" s="20" t="str">
-        <f>PCR!$D58</f>
+        <f>PCR!$D56</f>
         <v/>
       </c>
       <c r="I40" s="20" t="str">
-        <f>PCR!$D66</f>
+        <f>PCR!$D64</f>
         <v/>
       </c>
       <c r="J40" s="20" t="str">
-        <f>PCR!$D74</f>
+        <f>PCR!$D72</f>
         <v/>
       </c>
       <c r="K40" s="20" t="str">
-        <f>PCR!$D82</f>
+        <f>PCR!$D80</f>
         <v/>
       </c>
       <c r="L40" s="20" t="str">
-        <f>PCR!$D90</f>
+        <f>PCR!$D88</f>
         <v/>
       </c>
       <c r="M40" s="20" t="str">
-        <f>PCR!$D98</f>
+        <f>PCR!$D96</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
       <c r="A41" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="20" t="str">
+        <f>PCR!$D9</f>
+        <v/>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>PCR!$D17</f>
+        <v/>
+      </c>
+      <c r="D41" s="20" t="str">
+        <f>PCR!$D25</f>
+        <v/>
+      </c>
+      <c r="E41" s="20" t="str">
+        <f>PCR!$D33</f>
+        <v/>
+      </c>
+      <c r="F41" s="20" t="str">
+        <f>PCR!$D41</f>
+        <v/>
+      </c>
+      <c r="G41" s="20" t="str">
+        <f>PCR!$D49</f>
+        <v/>
+      </c>
+      <c r="H41" s="20" t="str">
+        <f>PCR!$D57</f>
+        <v/>
+      </c>
+      <c r="I41" s="20" t="str">
+        <f>PCR!$D65</f>
+        <v/>
+      </c>
+      <c r="J41" s="20" t="str">
+        <f>PCR!$D73</f>
+        <v/>
+      </c>
+      <c r="K41" s="20" t="str">
+        <f>PCR!$D81</f>
+        <v/>
+      </c>
+      <c r="L41" s="20" t="str">
+        <f>PCR!$D89</f>
+        <v/>
+      </c>
+      <c r="M41" s="20" t="str">
+        <f>PCR!$D97</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="20" t="str">
+        <f>PCR!$D10</f>
+        <v/>
+      </c>
+      <c r="C42" s="20" t="str">
+        <f>PCR!$D18</f>
+        <v/>
+      </c>
+      <c r="D42" s="20" t="str">
+        <f>PCR!$D26</f>
+        <v/>
+      </c>
+      <c r="E42" s="20" t="str">
+        <f>PCR!$D34</f>
+        <v/>
+      </c>
+      <c r="F42" s="20" t="str">
+        <f>PCR!$D42</f>
+        <v/>
+      </c>
+      <c r="G42" s="20" t="str">
+        <f>PCR!$D50</f>
+        <v/>
+      </c>
+      <c r="H42" s="20" t="str">
+        <f>PCR!$D58</f>
+        <v/>
+      </c>
+      <c r="I42" s="20" t="str">
+        <f>PCR!$D66</f>
+        <v/>
+      </c>
+      <c r="J42" s="20" t="str">
+        <f>PCR!$D74</f>
+        <v/>
+      </c>
+      <c r="K42" s="20" t="str">
+        <f>PCR!$D82</f>
+        <v/>
+      </c>
+      <c r="L42" s="20" t="str">
+        <f>PCR!$D90</f>
+        <v/>
+      </c>
+      <c r="M42" s="20" t="str">
+        <f>PCR!$D98</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="20" t="str">
+      <c r="B43" s="20" t="str">
         <f>PCR!$D11</f>
         <v/>
       </c>
-      <c r="C41" s="20" t="str">
+      <c r="C43" s="20" t="str">
         <f>PCR!$D19</f>
         <v/>
       </c>
-      <c r="D41" s="20" t="str">
+      <c r="D43" s="20" t="str">
         <f>PCR!$D27</f>
         <v/>
       </c>
-      <c r="E41" s="20" t="str">
+      <c r="E43" s="20" t="str">
         <f>PCR!$D35</f>
         <v/>
       </c>
-      <c r="F41" s="20" t="str">
+      <c r="F43" s="20" t="str">
         <f>PCR!$D43</f>
         <v/>
       </c>
-      <c r="G41" s="20" t="str">
+      <c r="G43" s="20" t="str">
         <f>PCR!$D51</f>
         <v/>
       </c>
-      <c r="H41" s="20" t="str">
+      <c r="H43" s="20" t="str">
         <f>PCR!$D59</f>
         <v/>
       </c>
-      <c r="I41" s="20" t="str">
+      <c r="I43" s="20" t="str">
         <f>PCR!$D67</f>
         <v/>
       </c>
-      <c r="J41" s="20" t="str">
+      <c r="J43" s="20" t="str">
         <f>PCR!$D75</f>
         <v/>
       </c>
-      <c r="K41" s="20" t="str">
+      <c r="K43" s="20" t="str">
         <f>PCR!$D83</f>
         <v/>
       </c>
-      <c r="L41" s="20" t="str">
+      <c r="L43" s="20" t="str">
         <f>PCR!$D91</f>
         <v/>
       </c>
-      <c r="M41" s="20" t="str">
+      <c r="M43" s="20" t="str">
         <f>PCR!$D99</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="68">
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A29:M29"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:B12"/>
+  <mergeCells count="69">
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="A3:B3"/>
@@ -4141,42 +4211,22 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C15:K16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:C25">
     <cfRule type="expression" dxfId="13" priority="9">
@@ -4203,9 +4253,9 @@
       <formula>A23="-"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
+  <conditionalFormatting sqref="F34">
     <cfRule type="expression" dxfId="7" priority="2">
-      <formula>COUNTIF(F32,"")</formula>
+      <formula>COUNTIF(F34,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G25">
@@ -4265,7 +4315,7 @@
           <x14:formula1>
             <xm:f>Reference!$E$120:$E$121</xm:f>
           </x14:formula1>
-          <xm:sqref>F32</xm:sqref>
+          <xm:sqref>F34</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58C9E0CC-D820-49E0-B8FE-F2C4BD08D2E5}">
           <x14:formula1>
@@ -4316,110 +4366,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="117"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="116"/>
       <c r="H2" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="114"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="47.4" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="45" t="s">
+      <c r="M3" s="44" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="str">
+      <c r="B4" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D4" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72" t="str">
+      <c r="H4" s="74"/>
+      <c r="I4" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="50" t="str">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="49" t="str">
         <f t="shared" ref="L4:L68" si="0">IF(OR(J4="",K4=""),"",SUM(J4*K4))</f>
         <v/>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="52">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
       <c r="B5" s="33" t="str">
@@ -4429,15 +4479,15 @@
       <c r="C5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D5" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="23"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="72" t="str">
+      <c r="I5" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4447,10 +4497,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M5" s="53"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="52">
+      <c r="A6" s="51">
         <v>3</v>
       </c>
       <c r="B6" s="33" t="str">
@@ -4460,15 +4510,15 @@
       <c r="C6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D6" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="23"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="72" t="str">
+      <c r="I6" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4478,10 +4528,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="52">
+      <c r="A7" s="51">
         <v>4</v>
       </c>
       <c r="B7" s="33" t="str">
@@ -4491,15 +4541,15 @@
       <c r="C7" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D7" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="67"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="23"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="72" t="str">
+      <c r="I7" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4509,10 +4559,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="53"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <v>5</v>
       </c>
       <c r="B8" s="33" t="str">
@@ -4522,15 +4572,15 @@
       <c r="C8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D8" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="67"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="23"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="72" t="str">
+      <c r="I8" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4540,10 +4590,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="53"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="52">
+      <c r="A9" s="51">
         <v>6</v>
       </c>
       <c r="B9" s="33" t="str">
@@ -4553,15 +4603,15 @@
       <c r="C9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D9" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="67"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="23"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="72" t="str">
+      <c r="I9" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4571,10 +4621,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="53"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="52">
+      <c r="A10" s="51">
         <v>7</v>
       </c>
       <c r="B10" s="33" t="str">
@@ -4584,15 +4634,15 @@
       <c r="C10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D10" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="72" t="str">
+      <c r="I10" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4602,72 +4652,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="54">
+      <c r="A11" s="53">
         <v>8</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="54" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="73" t="str">
+      <c r="D11" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="60" t="str">
+      <c r="J11" s="58"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="61"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>9</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>2</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="74" t="str">
+      <c r="D12" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="50" t="str">
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="52">
+      <c r="A13" s="51">
         <v>10</v>
       </c>
       <c r="B13" s="33" t="str">
@@ -4677,15 +4727,15 @@
       <c r="C13" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D13" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="72" t="str">
+      <c r="I13" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4695,10 +4745,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="52">
+      <c r="A14" s="51">
         <v>11</v>
       </c>
       <c r="B14" s="33" t="str">
@@ -4708,15 +4758,15 @@
       <c r="C14" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D14" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="72" t="str">
+      <c r="I14" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4726,10 +4776,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="53"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="52">
+      <c r="A15" s="51">
         <v>12</v>
       </c>
       <c r="B15" s="33" t="str">
@@ -4739,15 +4789,15 @@
       <c r="C15" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D15" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="72" t="str">
+      <c r="I15" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4757,10 +4807,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="53"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="52">
+      <c r="A16" s="51">
         <v>13</v>
       </c>
       <c r="B16" s="33" t="str">
@@ -4770,15 +4820,15 @@
       <c r="C16" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D16" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="72" t="str">
+      <c r="I16" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4788,10 +4838,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="53"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="52">
+      <c r="A17" s="51">
         <v>14</v>
       </c>
       <c r="B17" s="33" t="str">
@@ -4801,15 +4851,15 @@
       <c r="C17" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D17" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="72" t="str">
+      <c r="I17" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4819,10 +4869,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="53"/>
+      <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="52">
+      <c r="A18" s="51">
         <v>15</v>
       </c>
       <c r="B18" s="33" t="str">
@@ -4832,15 +4882,15 @@
       <c r="C18" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D18" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="72" t="str">
+      <c r="I18" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4850,72 +4900,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="53"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="54">
+      <c r="A19" s="53">
         <v>16</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="54" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="73" t="str">
+      <c r="D19" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="60" t="str">
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="61"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="46">
+      <c r="A20" s="45">
         <v>17</v>
       </c>
-      <c r="B20" s="47" t="str">
+      <c r="B20" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>3</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="74" t="str">
+      <c r="D20" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="50" t="str">
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="51"/>
+      <c r="M20" s="50"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="52">
+      <c r="A21" s="51">
         <v>18</v>
       </c>
       <c r="B21" s="33" t="str">
@@ -4925,15 +4975,15 @@
       <c r="C21" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D21" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="72" t="str">
+      <c r="I21" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4943,10 +4993,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="53"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="52">
+      <c r="A22" s="51">
         <v>19</v>
       </c>
       <c r="B22" s="33" t="str">
@@ -4956,15 +5006,15 @@
       <c r="C22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D22" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="72" t="str">
+      <c r="I22" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4974,10 +5024,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="53"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="52">
+      <c r="A23" s="51">
         <v>20</v>
       </c>
       <c r="B23" s="32" t="str">
@@ -4987,15 +5037,15 @@
       <c r="C23" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D23" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="72" t="str">
+      <c r="I23" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5005,10 +5055,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="53"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="52">
+      <c r="A24" s="51">
         <v>21</v>
       </c>
       <c r="B24" s="32" t="str">
@@ -5018,15 +5068,15 @@
       <c r="C24" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D24" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="72" t="str">
+      <c r="I24" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5036,10 +5086,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="53"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="52">
+      <c r="A25" s="51">
         <v>22</v>
       </c>
       <c r="B25" s="32" t="str">
@@ -5049,15 +5099,15 @@
       <c r="C25" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D25" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="72" t="str">
+      <c r="I25" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5067,10 +5117,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="53"/>
+      <c r="M25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="52">
+      <c r="A26" s="51">
         <v>23</v>
       </c>
       <c r="B26" s="32" t="str">
@@ -5080,15 +5130,15 @@
       <c r="C26" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D26" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="72" t="str">
+      <c r="I26" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5098,72 +5148,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="53"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="54">
+      <c r="A27" s="53">
         <v>24</v>
       </c>
-      <c r="B27" s="63" t="str">
+      <c r="B27" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>3</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="73" t="str">
+      <c r="D27" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="60" t="str">
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="61"/>
+      <c r="M27" s="60"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="46">
+      <c r="A28" s="45">
         <v>25</v>
       </c>
-      <c r="B28" s="47" t="str">
+      <c r="B28" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>4</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="74" t="str">
+      <c r="D28" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="50" t="str">
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="50"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="52">
+      <c r="A29" s="51">
         <v>26</v>
       </c>
       <c r="B29" s="32" t="str">
@@ -5173,15 +5223,15 @@
       <c r="C29" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D29" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="72" t="str">
+      <c r="I29" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5191,10 +5241,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="53"/>
+      <c r="M29" s="52"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="52">
+      <c r="A30" s="51">
         <v>27</v>
       </c>
       <c r="B30" s="32" t="str">
@@ -5204,15 +5254,15 @@
       <c r="C30" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D30" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="72" t="str">
+      <c r="I30" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5222,10 +5272,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="53"/>
+      <c r="M30" s="52"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="52">
+      <c r="A31" s="51">
         <v>28</v>
       </c>
       <c r="B31" s="32" t="str">
@@ -5235,15 +5285,15 @@
       <c r="C31" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D31" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="72" t="str">
+      <c r="I31" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5253,10 +5303,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="53"/>
+      <c r="M31" s="52"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="52">
+      <c r="A32" s="51">
         <v>29</v>
       </c>
       <c r="B32" s="32" t="str">
@@ -5266,15 +5316,15 @@
       <c r="C32" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D32" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="72" t="str">
+      <c r="I32" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5284,10 +5334,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="53"/>
+      <c r="M32" s="52"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="52">
+      <c r="A33" s="51">
         <v>30</v>
       </c>
       <c r="B33" s="32" t="str">
@@ -5297,15 +5347,15 @@
       <c r="C33" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D33" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="72" t="str">
+      <c r="I33" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5315,10 +5365,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M33" s="53"/>
+      <c r="M33" s="52"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="52">
+      <c r="A34" s="51">
         <v>31</v>
       </c>
       <c r="B34" s="32" t="str">
@@ -5328,15 +5378,15 @@
       <c r="C34" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D34" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="72" t="str">
+      <c r="I34" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5346,72 +5396,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M34" s="53"/>
+      <c r="M34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="54">
+      <c r="A35" s="53">
         <v>32</v>
       </c>
-      <c r="B35" s="63" t="str">
+      <c r="B35" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>4</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="73" t="str">
+      <c r="D35" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="60" t="str">
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M35" s="61"/>
+      <c r="M35" s="60"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="46">
+      <c r="A36" s="45">
         <v>33</v>
       </c>
-      <c r="B36" s="47" t="str">
+      <c r="B36" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>5</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="74" t="str">
+      <c r="D36" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="50" t="str">
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="51"/>
+      <c r="M36" s="50"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="52">
+      <c r="A37" s="51">
         <v>34</v>
       </c>
       <c r="B37" s="32" t="str">
@@ -5421,15 +5471,15 @@
       <c r="C37" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D37" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="72" t="str">
+      <c r="I37" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5439,10 +5489,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M37" s="53"/>
+      <c r="M37" s="52"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="52">
+      <c r="A38" s="51">
         <v>35</v>
       </c>
       <c r="B38" s="32" t="str">
@@ -5452,15 +5502,15 @@
       <c r="C38" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D38" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="72" t="str">
+      <c r="I38" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5470,10 +5520,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M38" s="53"/>
+      <c r="M38" s="52"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="52">
+      <c r="A39" s="51">
         <v>36</v>
       </c>
       <c r="B39" s="32" t="str">
@@ -5483,15 +5533,15 @@
       <c r="C39" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D39" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="72" t="str">
+      <c r="I39" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5501,10 +5551,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M39" s="53"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="52">
+      <c r="A40" s="51">
         <v>37</v>
       </c>
       <c r="B40" s="32" t="str">
@@ -5514,15 +5564,15 @@
       <c r="C40" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D40" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="72" t="str">
+      <c r="I40" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5532,10 +5582,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M40" s="53"/>
+      <c r="M40" s="52"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="52">
+      <c r="A41" s="51">
         <v>38</v>
       </c>
       <c r="B41" s="32" t="str">
@@ -5545,15 +5595,15 @@
       <c r="C41" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D41" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="72" t="str">
+      <c r="I41" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5563,10 +5613,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M41" s="53"/>
+      <c r="M41" s="52"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="52">
+      <c r="A42" s="51">
         <v>39</v>
       </c>
       <c r="B42" s="32" t="str">
@@ -5576,15 +5626,15 @@
       <c r="C42" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D42" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="72" t="str">
+      <c r="I42" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5594,72 +5644,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M42" s="53"/>
+      <c r="M42" s="52"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="54">
+      <c r="A43" s="53">
         <v>40</v>
       </c>
-      <c r="B43" s="63" t="str">
+      <c r="B43" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>5</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="73" t="str">
+      <c r="D43" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="60" t="str">
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M43" s="61"/>
+      <c r="M43" s="60"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="46">
+      <c r="A44" s="45">
         <v>41</v>
       </c>
-      <c r="B44" s="47" t="str">
+      <c r="B44" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>6</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="74" t="str">
+      <c r="D44" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="50" t="str">
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M44" s="51"/>
+      <c r="M44" s="50"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="52">
+      <c r="A45" s="51">
         <v>42</v>
       </c>
       <c r="B45" s="32" t="str">
@@ -5669,15 +5719,15 @@
       <c r="C45" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D45" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="72" t="str">
+      <c r="I45" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5687,10 +5737,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M45" s="53"/>
+      <c r="M45" s="52"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="52">
+      <c r="A46" s="51">
         <v>43</v>
       </c>
       <c r="B46" s="32" t="str">
@@ -5700,15 +5750,15 @@
       <c r="C46" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D46" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="72" t="str">
+      <c r="I46" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5718,10 +5768,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M46" s="53"/>
+      <c r="M46" s="52"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="52">
+      <c r="A47" s="51">
         <v>44</v>
       </c>
       <c r="B47" s="32" t="str">
@@ -5731,15 +5781,15 @@
       <c r="C47" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D47" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="72" t="str">
+      <c r="I47" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5749,10 +5799,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M47" s="53"/>
+      <c r="M47" s="52"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A48" s="52">
+      <c r="A48" s="51">
         <v>45</v>
       </c>
       <c r="B48" s="32" t="str">
@@ -5762,15 +5812,15 @@
       <c r="C48" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D48" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="72" t="str">
+      <c r="I48" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5780,10 +5830,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M48" s="53"/>
+      <c r="M48" s="52"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="52">
+      <c r="A49" s="51">
         <v>46</v>
       </c>
       <c r="B49" s="32" t="str">
@@ -5793,15 +5843,15 @@
       <c r="C49" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D49" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="72" t="str">
+      <c r="I49" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5811,10 +5861,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M49" s="53"/>
+      <c r="M49" s="52"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="52">
+      <c r="A50" s="51">
         <v>47</v>
       </c>
       <c r="B50" s="32" t="str">
@@ -5824,15 +5874,15 @@
       <c r="C50" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D50" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="72" t="str">
+      <c r="I50" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5842,72 +5892,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M50" s="53"/>
+      <c r="M50" s="52"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="54">
+      <c r="A51" s="53">
         <v>48</v>
       </c>
-      <c r="B51" s="63" t="str">
+      <c r="B51" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>6</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="73" t="str">
+      <c r="D51" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="60" t="str">
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M51" s="61"/>
+      <c r="M51" s="60"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="46">
+      <c r="A52" s="45">
         <v>49</v>
       </c>
-      <c r="B52" s="47" t="str">
+      <c r="B52" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>7</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="74" t="str">
+      <c r="D52" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="50" t="str">
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M52" s="51"/>
+      <c r="M52" s="50"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="52">
+      <c r="A53" s="51">
         <v>50</v>
       </c>
       <c r="B53" s="32" t="str">
@@ -5917,15 +5967,15 @@
       <c r="C53" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D53" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="72" t="str">
+      <c r="I53" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5935,10 +5985,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M53" s="53"/>
+      <c r="M53" s="52"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="52">
+      <c r="A54" s="51">
         <v>51</v>
       </c>
       <c r="B54" s="32" t="str">
@@ -5948,15 +5998,15 @@
       <c r="C54" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D54" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="72" t="str">
+      <c r="I54" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5966,10 +6016,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M54" s="53"/>
+      <c r="M54" s="52"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="52">
+      <c r="A55" s="51">
         <v>52</v>
       </c>
       <c r="B55" s="32" t="str">
@@ -5979,15 +6029,15 @@
       <c r="C55" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D55" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="72" t="str">
+      <c r="I55" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5997,10 +6047,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M55" s="53"/>
+      <c r="M55" s="52"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="52">
+      <c r="A56" s="51">
         <v>53</v>
       </c>
       <c r="B56" s="32" t="str">
@@ -6010,15 +6060,15 @@
       <c r="C56" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D56" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="72" t="str">
+      <c r="I56" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6028,10 +6078,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M56" s="53"/>
+      <c r="M56" s="52"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="52">
+      <c r="A57" s="51">
         <v>54</v>
       </c>
       <c r="B57" s="32" t="str">
@@ -6041,15 +6091,15 @@
       <c r="C57" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D57" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="72" t="str">
+      <c r="I57" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6059,10 +6109,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M57" s="53"/>
+      <c r="M57" s="52"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="52">
+      <c r="A58" s="51">
         <v>55</v>
       </c>
       <c r="B58" s="32" t="str">
@@ -6072,15 +6122,15 @@
       <c r="C58" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D58" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="72" t="str">
+      <c r="I58" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6090,72 +6140,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M58" s="53"/>
+      <c r="M58" s="52"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="54">
+      <c r="A59" s="53">
         <v>56</v>
       </c>
-      <c r="B59" s="63" t="str">
+      <c r="B59" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="73" t="str">
+      <c r="D59" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="55"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="60" t="str">
+      <c r="J59" s="58"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M59" s="61"/>
+      <c r="M59" s="60"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A60" s="46">
+      <c r="A60" s="45">
         <v>57</v>
       </c>
-      <c r="B60" s="47" t="str">
+      <c r="B60" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>8</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D60" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="74" t="str">
+      <c r="D60" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="50" t="str">
+      <c r="J60" s="47"/>
+      <c r="K60" s="47"/>
+      <c r="L60" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M60" s="51"/>
+      <c r="M60" s="50"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A61" s="52">
+      <c r="A61" s="51">
         <v>58</v>
       </c>
       <c r="B61" s="32" t="str">
@@ -6165,15 +6215,15 @@
       <c r="C61" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D61" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="72" t="str">
+      <c r="I61" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6183,10 +6233,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M61" s="53"/>
+      <c r="M61" s="52"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A62" s="52">
+      <c r="A62" s="51">
         <v>59</v>
       </c>
       <c r="B62" s="32" t="str">
@@ -6196,15 +6246,15 @@
       <c r="C62" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D62" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D62" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="72" t="str">
+      <c r="I62" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6214,10 +6264,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M62" s="53"/>
+      <c r="M62" s="52"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A63" s="52">
+      <c r="A63" s="51">
         <v>60</v>
       </c>
       <c r="B63" s="32" t="str">
@@ -6227,15 +6277,15 @@
       <c r="C63" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D63" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="72" t="str">
+      <c r="I63" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6245,10 +6295,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M63" s="53"/>
+      <c r="M63" s="52"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A64" s="52">
+      <c r="A64" s="51">
         <v>61</v>
       </c>
       <c r="B64" s="32" t="str">
@@ -6258,15 +6308,15 @@
       <c r="C64" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D64" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="72" t="str">
+      <c r="I64" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6276,10 +6326,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M64" s="53"/>
+      <c r="M64" s="52"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A65" s="52">
+      <c r="A65" s="51">
         <v>62</v>
       </c>
       <c r="B65" s="32" t="str">
@@ -6289,15 +6339,15 @@
       <c r="C65" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D65" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="72" t="str">
+      <c r="I65" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6307,10 +6357,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M65" s="53"/>
+      <c r="M65" s="52"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A66" s="52">
+      <c r="A66" s="51">
         <v>63</v>
       </c>
       <c r="B66" s="32" t="str">
@@ -6320,15 +6370,15 @@
       <c r="C66" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D66" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="72" t="str">
+      <c r="I66" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6338,72 +6388,72 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M66" s="53"/>
+      <c r="M66" s="52"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="54">
+      <c r="A67" s="53">
         <v>64</v>
       </c>
-      <c r="B67" s="63" t="str">
+      <c r="B67" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>8</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="73" t="str">
+      <c r="D67" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="55"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="60" t="str">
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M67" s="61"/>
+      <c r="M67" s="60"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A68" s="46">
+      <c r="A68" s="45">
         <v>65</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>9</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="74" t="str">
+      <c r="D68" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="50" t="str">
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M68" s="51"/>
+      <c r="M68" s="50"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A69" s="52">
+      <c r="A69" s="51">
         <v>66</v>
       </c>
       <c r="B69" s="32" t="str">
@@ -6413,15 +6463,15 @@
       <c r="C69" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D69" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="72" t="str">
+      <c r="I69" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6431,10 +6481,10 @@
         <f t="shared" ref="L69:L99" si="1">IF(OR(J69="",K69=""),"",SUM(J69*K69))</f>
         <v/>
       </c>
-      <c r="M69" s="53"/>
+      <c r="M69" s="52"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A70" s="52">
+      <c r="A70" s="51">
         <v>67</v>
       </c>
       <c r="B70" s="32" t="str">
@@ -6444,15 +6494,15 @@
       <c r="C70" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D70" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="72" t="str">
+      <c r="I70" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6462,10 +6512,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M70" s="53"/>
+      <c r="M70" s="52"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A71" s="52">
+      <c r="A71" s="51">
         <v>68</v>
       </c>
       <c r="B71" s="32" t="str">
@@ -6475,15 +6525,15 @@
       <c r="C71" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D71" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D71" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="72" t="str">
+      <c r="I71" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6493,10 +6543,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M71" s="53"/>
+      <c r="M71" s="52"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A72" s="52">
+      <c r="A72" s="51">
         <v>69</v>
       </c>
       <c r="B72" s="32" t="str">
@@ -6506,15 +6556,15 @@
       <c r="C72" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D72" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="72" t="str">
+      <c r="I72" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6524,10 +6574,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M72" s="53"/>
+      <c r="M72" s="52"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A73" s="52">
+      <c r="A73" s="51">
         <v>70</v>
       </c>
       <c r="B73" s="32" t="str">
@@ -6537,15 +6587,15 @@
       <c r="C73" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D73" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="72" t="str">
+      <c r="I73" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6555,10 +6605,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M73" s="53"/>
+      <c r="M73" s="52"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A74" s="52">
+      <c r="A74" s="51">
         <v>71</v>
       </c>
       <c r="B74" s="32" t="str">
@@ -6568,15 +6618,15 @@
       <c r="C74" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D74" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="72" t="str">
+      <c r="I74" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6586,72 +6636,72 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M74" s="53"/>
+      <c r="M74" s="52"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="54">
+      <c r="A75" s="53">
         <v>72</v>
       </c>
-      <c r="B75" s="63" t="str">
+      <c r="B75" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>9</v>
       </c>
-      <c r="C75" s="63" t="s">
+      <c r="C75" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="73" t="str">
+      <c r="D75" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="60" t="str">
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M75" s="61"/>
+      <c r="M75" s="60"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A76" s="46">
+      <c r="A76" s="45">
         <v>73</v>
       </c>
-      <c r="B76" s="47" t="str">
+      <c r="B76" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>10</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D76" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="62"/>
-      <c r="I76" s="74" t="str">
+      <c r="D76" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
-      <c r="L76" s="50" t="str">
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M76" s="51"/>
+      <c r="M76" s="50"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A77" s="52">
+      <c r="A77" s="51">
         <v>74</v>
       </c>
       <c r="B77" s="32" t="str">
@@ -6661,15 +6711,15 @@
       <c r="C77" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D77" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D77" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="72" t="str">
+      <c r="I77" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6679,10 +6729,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M77" s="53"/>
+      <c r="M77" s="52"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A78" s="52">
+      <c r="A78" s="51">
         <v>75</v>
       </c>
       <c r="B78" s="32" t="str">
@@ -6692,15 +6742,15 @@
       <c r="C78" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="D78" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D78" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="72" t="str">
+      <c r="I78" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6710,10 +6760,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M78" s="53"/>
+      <c r="M78" s="52"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A79" s="52">
+      <c r="A79" s="51">
         <v>76</v>
       </c>
       <c r="B79" s="32" t="str">
@@ -6723,15 +6773,15 @@
       <c r="C79" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D79" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D79" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="28"/>
-      <c r="I79" s="72" t="str">
+      <c r="I79" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6741,10 +6791,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M79" s="53"/>
+      <c r="M79" s="52"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A80" s="52">
+      <c r="A80" s="51">
         <v>77</v>
       </c>
       <c r="B80" s="32" t="str">
@@ -6754,15 +6804,15 @@
       <c r="C80" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D80" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="28"/>
-      <c r="I80" s="72" t="str">
+      <c r="I80" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6772,10 +6822,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M80" s="53"/>
+      <c r="M80" s="52"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A81" s="52">
+      <c r="A81" s="51">
         <v>78</v>
       </c>
       <c r="B81" s="32" t="str">
@@ -6785,15 +6835,15 @@
       <c r="C81" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D81" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="28"/>
-      <c r="I81" s="72" t="str">
+      <c r="I81" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6803,10 +6853,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M81" s="53"/>
+      <c r="M81" s="52"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A82" s="52">
+      <c r="A82" s="51">
         <v>79</v>
       </c>
       <c r="B82" s="32" t="str">
@@ -6816,15 +6866,15 @@
       <c r="C82" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D82" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="28"/>
-      <c r="I82" s="72" t="str">
+      <c r="I82" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6834,72 +6884,72 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M82" s="53"/>
+      <c r="M82" s="52"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="54">
+      <c r="A83" s="53">
         <v>80</v>
       </c>
-      <c r="B83" s="63" t="str">
+      <c r="B83" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>10</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C83" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="73" t="str">
+      <c r="D83" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="55"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="60" t="str">
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M83" s="61"/>
+      <c r="M83" s="60"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A84" s="46">
+      <c r="A84" s="45">
         <v>81</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>11</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="62"/>
-      <c r="I84" s="74" t="str">
+      <c r="D84" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
-      <c r="L84" s="50" t="str">
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M84" s="51"/>
+      <c r="M84" s="50"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A85" s="52">
+      <c r="A85" s="51">
         <v>82</v>
       </c>
       <c r="B85" s="32" t="str">
@@ -6909,15 +6959,15 @@
       <c r="C85" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D85" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D85" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="28"/>
-      <c r="I85" s="72" t="str">
+      <c r="I85" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6927,10 +6977,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M85" s="53"/>
+      <c r="M85" s="52"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A86" s="52">
+      <c r="A86" s="51">
         <v>83</v>
       </c>
       <c r="B86" s="32" t="str">
@@ -6940,15 +6990,15 @@
       <c r="C86" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D86" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D86" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
       <c r="H86" s="28"/>
-      <c r="I86" s="72" t="str">
+      <c r="I86" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6958,10 +7008,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M86" s="53"/>
+      <c r="M86" s="52"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A87" s="52">
+      <c r="A87" s="51">
         <v>84</v>
       </c>
       <c r="B87" s="32" t="str">
@@ -6971,15 +7021,15 @@
       <c r="C87" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D87" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D87" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
       <c r="H87" s="28"/>
-      <c r="I87" s="72" t="str">
+      <c r="I87" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6989,10 +7039,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M87" s="53"/>
+      <c r="M87" s="52"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A88" s="52">
+      <c r="A88" s="51">
         <v>85</v>
       </c>
       <c r="B88" s="32" t="str">
@@ -7002,15 +7052,15 @@
       <c r="C88" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D88" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D88" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
       <c r="H88" s="28"/>
-      <c r="I88" s="72" t="str">
+      <c r="I88" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7020,10 +7070,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M88" s="53"/>
+      <c r="M88" s="52"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A89" s="52">
+      <c r="A89" s="51">
         <v>86</v>
       </c>
       <c r="B89" s="32" t="str">
@@ -7033,15 +7083,15 @@
       <c r="C89" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D89" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
       <c r="H89" s="28"/>
-      <c r="I89" s="72" t="str">
+      <c r="I89" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7051,10 +7101,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M89" s="53"/>
+      <c r="M89" s="52"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A90" s="52">
+      <c r="A90" s="51">
         <v>87</v>
       </c>
       <c r="B90" s="32" t="str">
@@ -7064,15 +7114,15 @@
       <c r="C90" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D90" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
       <c r="H90" s="28"/>
-      <c r="I90" s="72" t="str">
+      <c r="I90" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7082,72 +7132,72 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M90" s="53"/>
+      <c r="M90" s="52"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A91" s="54">
+      <c r="A91" s="53">
         <v>88</v>
       </c>
-      <c r="B91" s="63" t="str">
+      <c r="B91" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>11</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="73" t="str">
+      <c r="D91" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="60" t="str">
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+      <c r="L91" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M91" s="61"/>
+      <c r="M91" s="60"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A92" s="46">
+      <c r="A92" s="45">
         <v>89</v>
       </c>
-      <c r="B92" s="47" t="str">
+      <c r="B92" s="46" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>12</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="C92" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="49" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="74" t="str">
+      <c r="D92" s="48" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="61"/>
+      <c r="I92" s="73" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="50" t="str">
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M92" s="51"/>
+      <c r="M92" s="50"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A93" s="52">
+      <c r="A93" s="51">
         <v>90</v>
       </c>
       <c r="B93" s="32" t="str">
@@ -7157,15 +7207,15 @@
       <c r="C93" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="D93" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D93" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
       <c r="H93" s="28"/>
-      <c r="I93" s="72" t="str">
+      <c r="I93" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7175,10 +7225,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M93" s="53"/>
+      <c r="M93" s="52"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A94" s="52">
+      <c r="A94" s="51">
         <v>91</v>
       </c>
       <c r="B94" s="32" t="str">
@@ -7188,15 +7238,15 @@
       <c r="C94" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="D94" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D94" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
       <c r="H94" s="28"/>
-      <c r="I94" s="72" t="str">
+      <c r="I94" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7206,10 +7256,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M94" s="53"/>
+      <c r="M94" s="52"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A95" s="52">
+      <c r="A95" s="51">
         <v>92</v>
       </c>
       <c r="B95" s="32" t="str">
@@ -7219,15 +7269,15 @@
       <c r="C95" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D95" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D95" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
       <c r="H95" s="28"/>
-      <c r="I95" s="72" t="str">
+      <c r="I95" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7237,10 +7287,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M95" s="53"/>
+      <c r="M95" s="52"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A96" s="52">
+      <c r="A96" s="51">
         <v>93</v>
       </c>
       <c r="B96" s="32" t="str">
@@ -7250,15 +7300,15 @@
       <c r="C96" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D96" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
       <c r="H96" s="28"/>
-      <c r="I96" s="72" t="str">
+      <c r="I96" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7268,10 +7318,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M96" s="53"/>
+      <c r="M96" s="52"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A97" s="52">
+      <c r="A97" s="51">
         <v>94</v>
       </c>
       <c r="B97" s="32" t="str">
@@ -7281,15 +7331,15 @@
       <c r="C97" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D97" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
       <c r="H97" s="28"/>
-      <c r="I97" s="72" t="str">
+      <c r="I97" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7299,10 +7349,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M97" s="53"/>
+      <c r="M97" s="52"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A98" s="52">
+      <c r="A98" s="51">
         <v>95</v>
       </c>
       <c r="B98" s="32" t="str">
@@ -7312,15 +7362,15 @@
       <c r="C98" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="D98" s="42" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+      <c r="D98" s="41" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
       <c r="H98" s="28"/>
-      <c r="I98" s="72" t="str">
+      <c r="I98" s="71" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7330,38 +7380,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M98" s="53"/>
+      <c r="M98" s="52"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A99" s="54">
+      <c r="A99" s="53">
         <v>96</v>
       </c>
-      <c r="B99" s="63" t="str">
+      <c r="B99" s="62" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>12</v>
       </c>
-      <c r="C99" s="63" t="s">
+      <c r="C99" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="57" t="str">
-        <f>IF(Assay!$F$32=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
-        <v/>
-      </c>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="73" t="str">
+      <c r="D99" s="56" t="str">
+        <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
+        <v/>
+      </c>
+      <c r="E99" s="55"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="72" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="60" t="str">
+      <c r="J99" s="58"/>
+      <c r="K99" s="58"/>
+      <c r="L99" s="59" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M99" s="61"/>
+      <c r="M99" s="60"/>
     </row>
     <row r="100" spans="1:13" s="13" customFormat="1">
       <c r="A100" s="12"/>
@@ -7370,15 +7420,15 @@
       <c r="D100" s="12">
         <v>1</v>
       </c>
-      <c r="E100" s="118" t="s">
+      <c r="E100" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="F100" s="118"/>
-      <c r="G100" s="118"/>
-      <c r="H100" s="118"/>
-      <c r="I100" s="118"/>
-      <c r="J100" s="118"/>
-      <c r="K100" s="118"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="117"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="117"/>
+      <c r="K100" s="117"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1"/>
@@ -7621,20 +7671,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="33.6">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33.6">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33.6">
-      <c r="A4" s="68"/>
+      <c r="A4" s="67"/>
     </row>
     <row r="5" spans="1:12" ht="33.6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7644,17 +7694,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="33.6">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.6">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="33.6">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7689,13 +7739,13 @@
       <c r="G16" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="70" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7706,7 +7756,7 @@
       <c r="B17" s="30">
         <v>30</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="65" t="s">
         <v>236</v>
       </c>
       <c r="E17" t="s">
@@ -7873,62 +7923,62 @@
       <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="40" t="str">
+      <c r="F31" s="39">
         <f>IF(pcr_enzyme=$E$21,F39,IF(pcr_enzyme=$E$22,F49,IF(pcr_enzyme=$E$23,F59,"")))</f>
-        <v/>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:18">
-      <c r="E32" s="40" t="str">
+      <c r="E32" s="39" t="str">
         <f t="shared" ref="E32:F36" si="0">IF(pcr_enzyme=$E$21,E42,IF(pcr_enzyme=$E$22,E52,IF(pcr_enzyme=$E$23,E62,"")))</f>
-        <v/>
-      </c>
-      <c r="F32" s="40" t="str">
+        <v>KAPA HiFI ReadyMix (2x)</v>
+      </c>
+      <c r="F32" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>15.5</v>
       </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="40" t="str">
+      <c r="E33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="40" t="str">
+        <v>Primer pool (10 μM)</v>
+      </c>
+      <c r="F33" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="40" t="str">
+      <c r="E34" s="39" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="40" t="str">
+        <v>Water</v>
+      </c>
+      <c r="F34" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="40" t="str">
+      <c r="E35" s="39" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="40" t="str">
+        <v>-</v>
+      </c>
+      <c r="F35" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="40" t="str">
+      <c r="E36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="40" t="str">
+        <v>-</v>
+      </c>
+      <c r="F36" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="5:7" ht="16.2" thickBot="1">
@@ -7998,11 +8048,11 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="65">
+      <c r="F46" s="64">
         <f>SUM(F41-F40-template_vol)</f>
-        <v>17.45</v>
-      </c>
-      <c r="G46" s="65"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G46" s="64"/>
     </row>
     <row r="48" spans="5:7" ht="16.2" thickBot="1">
       <c r="E48" s="17" t="s">
@@ -8055,9 +8105,9 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="65">
+      <c r="F54" s="64">
         <f>SUM(F51-F50-template_vol)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="5:6">
@@ -8081,7 +8131,7 @@
         <v>231</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="5:6">
@@ -8123,7 +8173,7 @@
       </c>
       <c r="F64">
         <f>SUM(F61-F60-template_vol)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="5:7">
@@ -8144,101 +8194,101 @@
       <c r="G68" s="17"/>
     </row>
     <row r="69" spans="5:7">
-      <c r="E69" s="40" t="str">
+      <c r="E69" s="39">
         <f t="shared" ref="E69:G75" si="1">IF(exp_assay=$E$77,E78,IF(exp_assay=$E$85,E86,IF(exp_assay=$E$94,E95,IF(exp_assay=$E$102,E103,IF(exp_assay=$E$110,E111,"")))))</f>
-        <v/>
-      </c>
-      <c r="F69" s="40" t="str">
+        <v>95</v>
+      </c>
+      <c r="F69" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G69" s="40" t="str">
+        <v>∞</v>
+      </c>
+      <c r="G69" s="39">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="5:7">
-      <c r="E70" s="40" t="str">
+      <c r="E70" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F70" s="40" t="str">
+        <v>95</v>
+      </c>
+      <c r="F70" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G70" s="40" t="str">
+        <v>3 min</v>
+      </c>
+      <c r="G70" s="39">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="5:7">
-      <c r="E71" s="40" t="str">
+      <c r="E71" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F71" s="40" t="str">
+        <v>98</v>
+      </c>
+      <c r="F71" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G71" s="40" t="str">
+        <v>20 sec</v>
+      </c>
+      <c r="G71" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>x35</v>
       </c>
     </row>
     <row r="72" spans="5:7">
-      <c r="E72" s="40" t="str">
+      <c r="E72" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F72" s="40" t="str">
+        <v>60</v>
+      </c>
+      <c r="F72" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G72" s="40" t="str">
+        <v>3 min</v>
+      </c>
+      <c r="G72" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>x35</v>
       </c>
     </row>
     <row r="73" spans="5:7">
-      <c r="E73" s="40" t="str">
+      <c r="E73" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F73" s="40" t="str">
+        <v>60</v>
+      </c>
+      <c r="F73" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G73" s="40" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="G73" s="39">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="5:7">
-      <c r="E74" s="40" t="str">
+      <c r="E74" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F74" s="40" t="str">
+        <v>8</v>
+      </c>
+      <c r="F74" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G74" s="40" t="str">
+        <v>∞</v>
+      </c>
+      <c r="G74" s="39">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="5:7">
-      <c r="E75" s="40" t="str">
+      <c r="E75" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F75" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="F75" s="39">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G75" s="40" t="str">
+        <v>0</v>
+      </c>
+      <c r="G75" s="39">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="5:7" ht="16.2" thickBot="1">
@@ -8252,10 +8302,10 @@
       <c r="E78">
         <v>93</v>
       </c>
-      <c r="F78" s="41" t="s">
+      <c r="F78" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G78" s="41"/>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="5:7">
       <c r="E79">
@@ -8310,7 +8360,7 @@
       <c r="E84">
         <v>8</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="F84" s="40" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8325,10 +8375,10 @@
       <c r="E86">
         <v>93</v>
       </c>
-      <c r="F86" s="41" t="s">
+      <c r="F86" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G86" s="41"/>
+      <c r="G86" s="40"/>
     </row>
     <row r="87" spans="5:7">
       <c r="E87">
@@ -8383,12 +8433,12 @@
       <c r="E92">
         <v>8</v>
       </c>
-      <c r="F92" s="41" t="s">
+      <c r="F92" s="40" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="93" spans="5:7">
-      <c r="F93" s="41"/>
+      <c r="F93" s="40"/>
     </row>
     <row r="94" spans="5:7" ht="16.2" thickBot="1">
       <c r="E94" s="17" t="s">
@@ -8401,7 +8451,7 @@
       <c r="E95">
         <v>95</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="F95" s="40" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8447,12 +8497,12 @@
       <c r="E100">
         <v>8</v>
       </c>
-      <c r="F100" s="41" t="s">
+      <c r="F100" s="40" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="101" spans="5:7">
-      <c r="F101" s="41"/>
+      <c r="F101" s="40"/>
     </row>
     <row r="102" spans="5:7" ht="16.2" thickBot="1">
       <c r="E102" s="17" t="s">
@@ -8465,10 +8515,10 @@
       <c r="E103">
         <v>93</v>
       </c>
-      <c r="F103" s="41" t="s">
+      <c r="F103" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G103" s="41"/>
+      <c r="G103" s="40"/>
     </row>
     <row r="104" spans="5:7">
       <c r="E104">
@@ -8523,7 +8573,7 @@
       <c r="E109">
         <v>8</v>
       </c>
-      <c r="F109" s="41" t="s">
+      <c r="F109" s="40" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8538,10 +8588,10 @@
       <c r="E111">
         <v>93</v>
       </c>
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G111" s="41"/>
+      <c r="G111" s="40"/>
     </row>
     <row r="112" spans="5:7">
       <c r="E112">
@@ -8596,7 +8646,7 @@
       <c r="E117">
         <v>8</v>
       </c>
-      <c r="F117" s="41" t="s">
+      <c r="F117" s="40" t="s">
         <v>226</v>
       </c>
     </row>
@@ -8709,7 +8759,7 @@
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_assay)=0,"",exp_assay)</f>
-        <v/>
+        <v>NOMADS_MVP</v>
       </c>
       <c r="G2" t="str">
         <f>IF(LEN(exp_notes)=0,"",exp_notes)</f>
@@ -8719,21 +8769,21 @@
         <f>IF(LEN(exp_summary)=0,"",exp_summary)</f>
         <v/>
       </c>
-      <c r="I2" t="str">
+      <c r="I2">
         <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
-        <v/>
+        <v>48</v>
       </c>
       <c r="J2" t="str">
         <f>IF(LEN(pcr_primersource)=0,"",pcr_primersource)</f>
         <v/>
       </c>
-      <c r="K2" t="str">
+      <c r="K2">
         <f>IF(LEN(template_vol)=0,"",template_vol)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="L2" t="str">
         <f>IF(pcr_enzyme=0,"",pcr_enzyme)</f>
-        <v/>
+        <v>KAPA HiFi ReadyMix</v>
       </c>
     </row>
   </sheetData>

--- a/templates/NOMADS_PCR_Worksheet.xlsx
+++ b/templates/NOMADS_PCR_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\warehouse\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5799900A-2860-4DEA-BE04-B6E48DC2CD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EDBBA2-CD13-4547-B0E0-858F069D39D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -1701,16 +1701,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,10 +1727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1777,30 +1765,29 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1808,7 +1795,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1816,8 +1803,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1855,38 +1865,23 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1917,11 +1912,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1935,6 +1935,23 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="46">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1962,6 +1979,30 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2120,45 +2161,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2639,31 +2641,31 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{734522B3-E102-4EBF-AD04-14C3F7B67107}" name="Qubit PCR [DNA] (ng/µl)" dataDxfId="32"/>
     <tableColumn id="11" xr3:uid="{D2BFD013-75EF-450B-A4E3-95DAB8A07EC6}" name="PCR Dilution Factor" dataDxfId="31"/>
-    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="30">
+    <tableColumn id="12" xr3:uid="{96ADB29E-A594-4912-850A-45B8B3904B4D}" name="PCR [DNA] (ng / µl)" dataDxfId="0">
       <calculatedColumnFormula>IF(OR(J4="",K4=""),"",SUM(J4*K4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{87CC627F-41F3-42EC-BA06-893DB14E3545}" name="Proceed with library prep" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{34E82C53-ECDE-4E40-AE8F-14C0883DF15F}" name="Table6" displayName="Table6" ref="I16:J26" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{34E82C53-ECDE-4E40-AE8F-14C0883DF15F}" name="Table6" displayName="Table6" ref="I16:J26" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29">
   <autoFilter ref="I16:J26" xr:uid="{34E82C53-ECDE-4E40-AE8F-14C0883DF15F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5B06F697-7F7D-426D-B022-15AAD5975A52}" name="User" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{0F17BF1B-AC02-4914-B092-1C925868E44F}" name="Initials" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{5B06F697-7F7D-426D-B022-15AAD5975A52}" name="User" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0F17BF1B-AC02-4914-B092-1C925868E44F}" name="Initials" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{864C33E2-A4DE-45ED-8B98-19FF3B051DD1}" name="Table7" displayName="Table7" ref="L16:L26" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{864C33E2-A4DE-45ED-8B98-19FF3B051DD1}" name="Table7" displayName="Table7" ref="L16:L26" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
   <autoFilter ref="L16:L26" xr:uid="{864C33E2-A4DE-45ED-8B98-19FF3B051DD1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{27F9B992-D2A2-44B5-BE5C-6C470B8D3CD3}" name="Project" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{27F9B992-D2A2-44B5-BE5C-6C470B8D3CD3}" name="Project" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2718,22 +2720,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}" name="tbl_rxn_metadata" displayName="tbl_rxn_metadata" ref="A1:G97" totalsRowShown="0">
   <autoFilter ref="A1:G97" xr:uid="{DBBF945E-5383-4B75-AC55-E268322A374B}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{1282264C-DD99-4BA3-8DB8-0E9363F6BA7C}" name="sample_id" dataDxfId="21">
       <calculatedColumnFormula>IF(LEN(PCR!E4),PCR!E4,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{3FFBD26A-1339-451E-AF0C-51A92B0387C9}" name="extraction_id" dataDxfId="20">
       <calculatedColumnFormula>IF(LEN(PCR!F4),PCR!F4,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="17">
+    <tableColumn id="6" xr3:uid="{AE08A273-A276-4DC2-A55C-31491BBF4293}" name="sample_type" dataDxfId="19">
       <calculatedColumnFormula>IF(LEN(PCR!G4),PCR!G4,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{5545E98D-0544-4375-81E6-330418C07C1D}" name="expt_id" dataDxfId="18">
       <calculatedColumnFormula>IF(LEN(PCR!H4)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{EA58F3D6-4DB3-46FB-B1A4-0E7CBCBBBC84}" name="swga_identifier" dataDxfId="17">
       <calculatedColumnFormula>IF(LEN(PCR!H4),PCR!H4,"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{0E0D5C67-8A41-4FE0-9D6C-4C0D6A331B2E}" name="pcr_identifier" dataDxfId="16">
       <calculatedColumnFormula>IF(LEN(PCR!I4),PCR!I4,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{4845F373-7505-41AE-BC4F-278230D9F085}" name="pcr_product_ngul">
@@ -3057,250 +3059,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="83" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="77" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="K2" s="96" t="s">
+      <c r="H2" s="92"/>
+      <c r="K2" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="100"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
       <c r="G3" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="97"/>
+      <c r="L3" s="101"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="98"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="93" t="str">
+      <c r="B5" s="94"/>
+      <c r="C5" s="97" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("PC",VLOOKUP(C3,Reference!I17:J26,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="103" t="s">
         <v>180</v>
       </c>
-      <c r="L5" s="99"/>
+      <c r="L5" s="103"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="94" t="str">
+      <c r="B6" s="94"/>
+      <c r="C6" s="98" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_PCR_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="16"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="105" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
       <c r="G7" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
       <c r="G8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="82" t="str">
+      <c r="B9" s="106"/>
+      <c r="C9" s="108" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="106" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="106"/>
+      <c r="C10" s="107" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary))</f>
         <v/>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="84"/>
+      <c r="C11" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
       <c r="G11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="83" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="83" t="s">
         <v>214</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
       <c r="G13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="79">
+      <c r="B14" s="84"/>
+      <c r="C14" s="89">
         <v>48</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="24"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8"/>
@@ -3313,39 +3315,39 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="60" t="s">
         <v>151</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="119">
+      <c r="D18" s="74">
         <v>0.12</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A19" s="103" t="s">
+      <c r="A19" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="101" t="s">
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101" t="str">
+      <c r="E19" s="87"/>
+      <c r="F19" s="87" t="str">
         <f>CONCATENATE("MM x",exp_rxns, " (µl)")</f>
         <v>MM x48 (µl)</v>
       </c>
-      <c r="G19" s="101"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="8"/>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="102"/>
+      <c r="K19" s="88"/>
       <c r="L19" s="34" t="s">
         <v>13</v>
       </c>
@@ -3354,26 +3356,26 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="110">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="80">
         <v>8</v>
       </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="109" t="s">
+      <c r="E20" s="80"/>
+      <c r="F20" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="109"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="106">
+      <c r="J20" s="82">
         <f>Reference!E69</f>
         <v>95</v>
       </c>
-      <c r="K20" s="106"/>
+      <c r="K20" s="82"/>
       <c r="L20" s="36" t="str">
         <f>Reference!F69</f>
         <v>∞</v>
@@ -3384,29 +3386,29 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="85" t="str">
+      <c r="A21" s="77" t="str">
         <f>Reference!E32</f>
         <v>KAPA HiFI ReadyMix (2x)</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="84">
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="81">
         <f>Reference!F32</f>
         <v>15.5</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="105">
+      <c r="E21" s="81"/>
+      <c r="F21" s="78">
         <f>IFERROR(SUM(D21*exp_rxns*(1+$D$18)),"")</f>
         <v>833.28000000000009</v>
       </c>
-      <c r="G21" s="105"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="106">
+      <c r="J21" s="82">
         <f>Reference!E70</f>
         <v>95</v>
       </c>
-      <c r="K21" s="106"/>
+      <c r="K21" s="82"/>
       <c r="L21" s="36" t="str">
         <f>Reference!F70</f>
         <v>3 min</v>
@@ -3417,29 +3419,29 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="85" t="str">
+      <c r="A22" s="77" t="str">
         <f>Reference!E33</f>
         <v>Primer pool (10 μM)</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="84">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="81">
         <f>Reference!F33</f>
         <v>1.5</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="105">
+      <c r="E22" s="81"/>
+      <c r="F22" s="78">
         <f>IFERROR(SUM(D22*exp_rxns*(1+$D$18)),"")</f>
         <v>80.640000000000015</v>
       </c>
-      <c r="G22" s="105"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="106">
+      <c r="J22" s="82">
         <f>Reference!E71</f>
         <v>98</v>
       </c>
-      <c r="K22" s="106"/>
+      <c r="K22" s="82"/>
       <c r="L22" s="36" t="str">
         <f>Reference!F71</f>
         <v>20 sec</v>
@@ -3450,29 +3452,29 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="85" t="str">
+      <c r="A23" s="77" t="str">
         <f>Reference!E34</f>
         <v>Water</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="84">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="81">
         <f>Reference!F34</f>
         <v>0</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="105">
+      <c r="E23" s="81"/>
+      <c r="F23" s="78">
         <f>IFERROR(SUM(D23*exp_rxns*(1+$D$18)),"")</f>
         <v>0</v>
       </c>
-      <c r="G23" s="105"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="106">
+      <c r="J23" s="82">
         <f>Reference!E72</f>
         <v>60</v>
       </c>
-      <c r="K23" s="106"/>
+      <c r="K23" s="82"/>
       <c r="L23" s="36" t="str">
         <f>Reference!F72</f>
         <v>3 min</v>
@@ -3483,29 +3485,29 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="85" t="str">
+      <c r="A24" s="77" t="str">
         <f>Reference!E35</f>
         <v>-</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="84">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="81">
         <f>Reference!F35</f>
         <v>0</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="105">
+      <c r="E24" s="81"/>
+      <c r="F24" s="78">
         <f>IFERROR(SUM(D24*exp_rxns*(1+$D$18)),"")</f>
         <v>0</v>
       </c>
-      <c r="G24" s="105"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="106">
+      <c r="J24" s="82">
         <f>Reference!E73</f>
         <v>60</v>
       </c>
-      <c r="K24" s="106"/>
+      <c r="K24" s="82"/>
       <c r="L24" s="36" t="str">
         <f>Reference!F73</f>
         <v>10 min</v>
@@ -3516,28 +3518,28 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="85" t="str">
+      <c r="A25" s="77" t="str">
         <f>Reference!E36</f>
         <v>-</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="84">
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="81">
         <f>Reference!F36</f>
         <v>0</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="105">
+      <c r="E25" s="81"/>
+      <c r="F25" s="78">
         <f>IFERROR(SUM(D25*exp_rxns*(1+$D$18)),"")</f>
         <v>0</v>
       </c>
-      <c r="G25" s="105"/>
+      <c r="G25" s="78"/>
       <c r="H25" s="8"/>
-      <c r="J25" s="106">
+      <c r="J25" s="82">
         <f>Reference!E74</f>
         <v>8</v>
       </c>
-      <c r="K25" s="106"/>
+      <c r="K25" s="82"/>
       <c r="L25" s="36" t="str">
         <f>Reference!F74</f>
         <v>∞</v>
@@ -3548,25 +3550,25 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="D26" s="107">
+      <c r="D26" s="75">
         <f>IF(SUM(D20:E25)=0,"",SUM(D20:E25))</f>
         <v>25</v>
       </c>
-      <c r="E26" s="107"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="38" t="str">
         <f>CONCATENATE("Add ",SUM(D21:D25)," µl of MM to each well")</f>
         <v>Add 17 µl of MM to each well</v>
       </c>
       <c r="G26" s="36"/>
       <c r="H26" s="8"/>
-      <c r="J26" s="106">
+      <c r="J26" s="82">
         <f>Reference!E75</f>
         <v>0</v>
       </c>
-      <c r="K26" s="106"/>
+      <c r="K26" s="82"/>
       <c r="L26" s="36">
         <f>Reference!F75</f>
         <v>0</v>
@@ -3577,22 +3579,22 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="106" t="str">
+      <c r="A27" s="82" t="str">
         <f>_xlfn.CONCAT("(If dispensing MM from an 8-well strip tube with a multichannel, add ",ROUND((SUM(F20:G25)/8),0)," µl of MM to each strip tube well)")</f>
         <v>(If dispensing MM from an 8-well strip tube with a multichannel, add 114 µl of MM to each strip tube well)</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
     </row>
     <row r="28" spans="1:13">
       <c r="D28" s="37"/>
@@ -3602,7 +3604,7 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="60" t="s">
         <v>260</v>
       </c>
       <c r="D29" s="37"/>
@@ -3622,28 +3624,28 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="K30" s="108" t="s">
+      <c r="K30" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
@@ -3656,11 +3658,11 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="8"/>
-      <c r="K32" s="104" t="s">
+      <c r="K32" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
@@ -3682,10 +3684,10 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="76"/>
+      <c r="G34" s="104"/>
       <c r="H34"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
@@ -4158,18 +4160,47 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="69">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A27:M27"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A31:M31"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="D22:E22"/>
@@ -4186,90 +4217,61 @@
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C15:K16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A31:M31"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A27:M27"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:C25">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>A23="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4 C11:C15">
-    <cfRule type="expression" dxfId="12" priority="22">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="containsBlanks" dxfId="9" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(D20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E25">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="10" priority="7">
       <formula>A23="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>COUNTIF(F34,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G25">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$A20="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:M26">
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>J20=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20:M26">
-    <cfRule type="expression" dxfId="4" priority="11">
+    <cfRule type="expression" dxfId="6" priority="11">
       <formula>LEN(M20)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,7 +4352,7 @@
   <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -4366,35 +4368,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="116"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
       <c r="H2" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="47.4" thickBot="1">
       <c r="A3" s="42" t="s">
@@ -4418,7 +4420,7 @@
       <c r="G3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="72" t="s">
         <v>168</v>
       </c>
       <c r="I3" s="44" t="s">
@@ -4453,10 +4455,10 @@
         <v/>
       </c>
       <c r="E4" s="23"/>
-      <c r="F4" s="66"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="71" t="str">
+      <c r="H4" s="71"/>
+      <c r="I4" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4466,10 +4468,10 @@
         <f t="shared" ref="L4:L68" si="0">IF(OR(J4="",K4=""),"",SUM(J4*K4))</f>
         <v/>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="117"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A5" s="51">
+      <c r="A5" s="50">
         <v>2</v>
       </c>
       <c r="B5" s="33" t="str">
@@ -4484,10 +4486,10 @@
         <v/>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="66"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="23"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="71" t="str">
+      <c r="I5" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4497,10 +4499,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M5" s="52"/>
+      <c r="M5" s="118"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="51">
+      <c r="A6" s="50">
         <v>3</v>
       </c>
       <c r="B6" s="33" t="str">
@@ -4515,10 +4517,10 @@
         <v/>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="66"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="23"/>
       <c r="H6" s="28"/>
-      <c r="I6" s="71" t="str">
+      <c r="I6" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4528,10 +4530,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="118"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="51">
+      <c r="A7" s="50">
         <v>4</v>
       </c>
       <c r="B7" s="33" t="str">
@@ -4546,10 +4548,10 @@
         <v/>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="66"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="23"/>
       <c r="H7" s="28"/>
-      <c r="I7" s="71" t="str">
+      <c r="I7" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4559,10 +4561,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="52"/>
+      <c r="M7" s="118"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="50">
         <v>5</v>
       </c>
       <c r="B8" s="33" t="str">
@@ -4577,10 +4579,10 @@
         <v/>
       </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="66"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="23"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="71" t="str">
+      <c r="I8" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4590,10 +4592,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="52"/>
+      <c r="M8" s="118"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>6</v>
       </c>
       <c r="B9" s="33" t="str">
@@ -4608,10 +4610,10 @@
         <v/>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="66"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="23"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="71" t="str">
+      <c r="I9" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4621,10 +4623,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="52"/>
+      <c r="M9" s="118"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>7</v>
       </c>
       <c r="B10" s="33" t="str">
@@ -4642,7 +4644,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="28"/>
-      <c r="I10" s="71" t="str">
+      <c r="I10" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4652,38 +4654,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="52"/>
+      <c r="M10" s="118"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="53">
+      <c r="A11" s="51">
         <v>8</v>
       </c>
-      <c r="B11" s="54" t="str">
+      <c r="B11" s="52" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>1</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="56" t="str">
+      <c r="D11" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="72" t="str">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="59" t="str">
+      <c r="J11" s="56"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="60"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="45">
@@ -4703,8 +4705,8 @@
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="73" t="str">
+      <c r="H12" s="58"/>
+      <c r="I12" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4714,10 +4716,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="50"/>
+      <c r="M12" s="117"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="51">
+      <c r="A13" s="50">
         <v>10</v>
       </c>
       <c r="B13" s="33" t="str">
@@ -4735,7 +4737,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="28"/>
-      <c r="I13" s="71" t="str">
+      <c r="I13" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4745,10 +4747,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="52"/>
+      <c r="M13" s="118"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="51">
+      <c r="A14" s="50">
         <v>11</v>
       </c>
       <c r="B14" s="33" t="str">
@@ -4766,7 +4768,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="71" t="str">
+      <c r="I14" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4776,10 +4778,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="52"/>
+      <c r="M14" s="118"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="51">
+      <c r="A15" s="50">
         <v>12</v>
       </c>
       <c r="B15" s="33" t="str">
@@ -4797,7 +4799,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="71" t="str">
+      <c r="I15" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4807,10 +4809,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="52"/>
+      <c r="M15" s="118"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="51">
+      <c r="A16" s="50">
         <v>13</v>
       </c>
       <c r="B16" s="33" t="str">
@@ -4828,7 +4830,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="71" t="str">
+      <c r="I16" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4838,10 +4840,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M16" s="52"/>
+      <c r="M16" s="118"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="51">
+      <c r="A17" s="50">
         <v>14</v>
       </c>
       <c r="B17" s="33" t="str">
@@ -4859,7 +4861,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="71" t="str">
+      <c r="I17" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4869,10 +4871,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M17" s="52"/>
+      <c r="M17" s="118"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="51">
+      <c r="A18" s="50">
         <v>15</v>
       </c>
       <c r="B18" s="33" t="str">
@@ -4890,7 +4892,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="71" t="str">
+      <c r="I18" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4900,38 +4902,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M18" s="52"/>
+      <c r="M18" s="118"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A19" s="53">
+      <c r="A19" s="51">
         <v>16</v>
       </c>
-      <c r="B19" s="54" t="str">
+      <c r="B19" s="52" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>2</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="56" t="str">
+      <c r="D19" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="72" t="str">
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="59" t="str">
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M19" s="60"/>
+      <c r="M19" s="119"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
       <c r="A20" s="45">
@@ -4951,8 +4953,8 @@
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="73" t="str">
+      <c r="H20" s="58"/>
+      <c r="I20" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4962,10 +4964,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M20" s="50"/>
+      <c r="M20" s="117"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="51">
+      <c r="A21" s="50">
         <v>18</v>
       </c>
       <c r="B21" s="33" t="str">
@@ -4983,7 +4985,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="71" t="str">
+      <c r="I21" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -4993,10 +4995,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M21" s="52"/>
+      <c r="M21" s="118"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="51">
+      <c r="A22" s="50">
         <v>19</v>
       </c>
       <c r="B22" s="33" t="str">
@@ -5014,7 +5016,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="71" t="str">
+      <c r="I22" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5024,10 +5026,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M22" s="52"/>
+      <c r="M22" s="118"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="51">
+      <c r="A23" s="50">
         <v>20</v>
       </c>
       <c r="B23" s="32" t="str">
@@ -5045,7 +5047,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="71" t="str">
+      <c r="I23" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5055,10 +5057,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M23" s="52"/>
+      <c r="M23" s="118"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="51">
+      <c r="A24" s="50">
         <v>21</v>
       </c>
       <c r="B24" s="32" t="str">
@@ -5076,7 +5078,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="71" t="str">
+      <c r="I24" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5086,10 +5088,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M24" s="52"/>
+      <c r="M24" s="118"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>22</v>
       </c>
       <c r="B25" s="32" t="str">
@@ -5107,7 +5109,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="71" t="str">
+      <c r="I25" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5117,10 +5119,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M25" s="52"/>
+      <c r="M25" s="118"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="51">
+      <c r="A26" s="50">
         <v>23</v>
       </c>
       <c r="B26" s="32" t="str">
@@ -5138,7 +5140,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="71" t="str">
+      <c r="I26" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5148,38 +5150,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M26" s="52"/>
+      <c r="M26" s="118"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="53">
+      <c r="A27" s="51">
         <v>24</v>
       </c>
-      <c r="B27" s="62" t="str">
+      <c r="B27" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>3</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="56" t="str">
+      <c r="D27" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="72" t="str">
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="59" t="str">
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M27" s="60"/>
+      <c r="M27" s="119"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="45">
@@ -5199,8 +5201,8 @@
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="73" t="str">
+      <c r="H28" s="58"/>
+      <c r="I28" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5210,10 +5212,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M28" s="50"/>
+      <c r="M28" s="117"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>26</v>
       </c>
       <c r="B29" s="32" t="str">
@@ -5231,7 +5233,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="71" t="str">
+      <c r="I29" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5241,10 +5243,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M29" s="52"/>
+      <c r="M29" s="118"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <v>27</v>
       </c>
       <c r="B30" s="32" t="str">
@@ -5262,7 +5264,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="71" t="str">
+      <c r="I30" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5272,10 +5274,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M30" s="52"/>
+      <c r="M30" s="118"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>28</v>
       </c>
       <c r="B31" s="32" t="str">
@@ -5293,7 +5295,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="71" t="str">
+      <c r="I31" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5303,10 +5305,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M31" s="52"/>
+      <c r="M31" s="118"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="51">
+      <c r="A32" s="50">
         <v>29</v>
       </c>
       <c r="B32" s="32" t="str">
@@ -5324,7 +5326,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="28"/>
-      <c r="I32" s="71" t="str">
+      <c r="I32" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5334,10 +5336,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M32" s="52"/>
+      <c r="M32" s="118"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="51">
+      <c r="A33" s="50">
         <v>30</v>
       </c>
       <c r="B33" s="32" t="str">
@@ -5355,7 +5357,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="28"/>
-      <c r="I33" s="71" t="str">
+      <c r="I33" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5365,10 +5367,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M33" s="52"/>
+      <c r="M33" s="118"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="51">
+      <c r="A34" s="50">
         <v>31</v>
       </c>
       <c r="B34" s="32" t="str">
@@ -5386,7 +5388,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="28"/>
-      <c r="I34" s="71" t="str">
+      <c r="I34" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5396,38 +5398,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M34" s="52"/>
+      <c r="M34" s="118"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="53">
+      <c r="A35" s="51">
         <v>32</v>
       </c>
-      <c r="B35" s="62" t="str">
+      <c r="B35" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>4</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="56" t="str">
+      <c r="D35" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="72" t="str">
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="59" t="str">
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M35" s="60"/>
+      <c r="M35" s="119"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="A36" s="45">
@@ -5447,8 +5449,8 @@
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="73" t="str">
+      <c r="H36" s="58"/>
+      <c r="I36" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5458,10 +5460,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M36" s="50"/>
+      <c r="M36" s="117"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="51">
+      <c r="A37" s="50">
         <v>34</v>
       </c>
       <c r="B37" s="32" t="str">
@@ -5479,7 +5481,7 @@
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="71" t="str">
+      <c r="I37" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5489,10 +5491,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M37" s="52"/>
+      <c r="M37" s="118"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="51">
+      <c r="A38" s="50">
         <v>35</v>
       </c>
       <c r="B38" s="32" t="str">
@@ -5510,7 +5512,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="28"/>
-      <c r="I38" s="71" t="str">
+      <c r="I38" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5520,10 +5522,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M38" s="52"/>
+      <c r="M38" s="118"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>36</v>
       </c>
       <c r="B39" s="32" t="str">
@@ -5541,7 +5543,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="71" t="str">
+      <c r="I39" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5551,10 +5553,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M39" s="52"/>
+      <c r="M39" s="118"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
         <v>37</v>
       </c>
       <c r="B40" s="32" t="str">
@@ -5572,7 +5574,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="71" t="str">
+      <c r="I40" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5582,10 +5584,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M40" s="52"/>
+      <c r="M40" s="118"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>38</v>
       </c>
       <c r="B41" s="32" t="str">
@@ -5603,7 +5605,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="28"/>
-      <c r="I41" s="71" t="str">
+      <c r="I41" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5613,10 +5615,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M41" s="52"/>
+      <c r="M41" s="118"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="51">
+      <c r="A42" s="50">
         <v>39</v>
       </c>
       <c r="B42" s="32" t="str">
@@ -5634,7 +5636,7 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="28"/>
-      <c r="I42" s="71" t="str">
+      <c r="I42" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5644,38 +5646,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M42" s="52"/>
+      <c r="M42" s="118"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="53">
+      <c r="A43" s="51">
         <v>40</v>
       </c>
-      <c r="B43" s="62" t="str">
+      <c r="B43" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>5</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="56" t="str">
+      <c r="D43" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="72" t="str">
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="59" t="str">
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M43" s="60"/>
+      <c r="M43" s="119"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
       <c r="A44" s="45">
@@ -5695,8 +5697,8 @@
       <c r="E44" s="47"/>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="73" t="str">
+      <c r="H44" s="58"/>
+      <c r="I44" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5706,10 +5708,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M44" s="50"/>
+      <c r="M44" s="117"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="51">
+      <c r="A45" s="50">
         <v>42</v>
       </c>
       <c r="B45" s="32" t="str">
@@ -5727,7 +5729,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="71" t="str">
+      <c r="I45" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5737,10 +5739,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M45" s="52"/>
+      <c r="M45" s="118"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="51">
+      <c r="A46" s="50">
         <v>43</v>
       </c>
       <c r="B46" s="32" t="str">
@@ -5758,7 +5760,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="71" t="str">
+      <c r="I46" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5768,10 +5770,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M46" s="52"/>
+      <c r="M46" s="118"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="51">
+      <c r="A47" s="50">
         <v>44</v>
       </c>
       <c r="B47" s="32" t="str">
@@ -5789,7 +5791,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="71" t="str">
+      <c r="I47" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5799,10 +5801,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M47" s="52"/>
+      <c r="M47" s="118"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>45</v>
       </c>
       <c r="B48" s="32" t="str">
@@ -5820,7 +5822,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="28"/>
-      <c r="I48" s="71" t="str">
+      <c r="I48" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5830,10 +5832,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M48" s="52"/>
+      <c r="M48" s="118"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>46</v>
       </c>
       <c r="B49" s="32" t="str">
@@ -5851,7 +5853,7 @@
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
       <c r="H49" s="28"/>
-      <c r="I49" s="71" t="str">
+      <c r="I49" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5861,10 +5863,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M49" s="52"/>
+      <c r="M49" s="118"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="51">
+      <c r="A50" s="50">
         <v>47</v>
       </c>
       <c r="B50" s="32" t="str">
@@ -5882,7 +5884,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="28"/>
-      <c r="I50" s="71" t="str">
+      <c r="I50" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5892,38 +5894,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M50" s="52"/>
+      <c r="M50" s="118"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A51" s="53">
+      <c r="A51" s="51">
         <v>48</v>
       </c>
-      <c r="B51" s="62" t="str">
+      <c r="B51" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>6</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="56" t="str">
+      <c r="D51" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="72" t="str">
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="59" t="str">
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M51" s="60"/>
+      <c r="M51" s="119"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="45">
@@ -5943,8 +5945,8 @@
       <c r="E52" s="47"/>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="73" t="str">
+      <c r="H52" s="58"/>
+      <c r="I52" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5954,10 +5956,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M52" s="50"/>
+      <c r="M52" s="117"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="51">
+      <c r="A53" s="50">
         <v>50</v>
       </c>
       <c r="B53" s="32" t="str">
@@ -5975,7 +5977,7 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="28"/>
-      <c r="I53" s="71" t="str">
+      <c r="I53" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -5985,10 +5987,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M53" s="52"/>
+      <c r="M53" s="118"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="51">
+      <c r="A54" s="50">
         <v>51</v>
       </c>
       <c r="B54" s="32" t="str">
@@ -6006,7 +6008,7 @@
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
       <c r="H54" s="28"/>
-      <c r="I54" s="71" t="str">
+      <c r="I54" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6016,10 +6018,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M54" s="52"/>
+      <c r="M54" s="118"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="51">
+      <c r="A55" s="50">
         <v>52</v>
       </c>
       <c r="B55" s="32" t="str">
@@ -6037,7 +6039,7 @@
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
       <c r="H55" s="28"/>
-      <c r="I55" s="71" t="str">
+      <c r="I55" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6047,10 +6049,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M55" s="52"/>
+      <c r="M55" s="118"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>53</v>
       </c>
       <c r="B56" s="32" t="str">
@@ -6068,7 +6070,7 @@
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
       <c r="H56" s="28"/>
-      <c r="I56" s="71" t="str">
+      <c r="I56" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6078,10 +6080,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M56" s="52"/>
+      <c r="M56" s="118"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="51">
+      <c r="A57" s="50">
         <v>54</v>
       </c>
       <c r="B57" s="32" t="str">
@@ -6099,7 +6101,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
       <c r="H57" s="28"/>
-      <c r="I57" s="71" t="str">
+      <c r="I57" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6109,10 +6111,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M57" s="52"/>
+      <c r="M57" s="118"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="51">
+      <c r="A58" s="50">
         <v>55</v>
       </c>
       <c r="B58" s="32" t="str">
@@ -6130,7 +6132,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="28"/>
-      <c r="I58" s="71" t="str">
+      <c r="I58" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6140,38 +6142,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M58" s="52"/>
+      <c r="M58" s="118"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A59" s="53">
+      <c r="A59" s="51">
         <v>56</v>
       </c>
-      <c r="B59" s="62" t="str">
+      <c r="B59" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>7</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="56" t="str">
+      <c r="D59" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="72" t="str">
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="59" t="str">
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M59" s="60"/>
+      <c r="M59" s="119"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1">
       <c r="A60" s="45">
@@ -6191,8 +6193,8 @@
       <c r="E60" s="47"/>
       <c r="F60" s="47"/>
       <c r="G60" s="47"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="73" t="str">
+      <c r="H60" s="58"/>
+      <c r="I60" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6202,10 +6204,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M60" s="50"/>
+      <c r="M60" s="117"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A61" s="51">
+      <c r="A61" s="50">
         <v>58</v>
       </c>
       <c r="B61" s="32" t="str">
@@ -6223,7 +6225,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
       <c r="H61" s="28"/>
-      <c r="I61" s="71" t="str">
+      <c r="I61" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6233,10 +6235,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M61" s="52"/>
+      <c r="M61" s="118"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A62" s="51">
+      <c r="A62" s="50">
         <v>59</v>
       </c>
       <c r="B62" s="32" t="str">
@@ -6254,7 +6256,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="28"/>
-      <c r="I62" s="71" t="str">
+      <c r="I62" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6264,10 +6266,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M62" s="52"/>
+      <c r="M62" s="118"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A63" s="51">
+      <c r="A63" s="50">
         <v>60</v>
       </c>
       <c r="B63" s="32" t="str">
@@ -6285,7 +6287,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
       <c r="H63" s="28"/>
-      <c r="I63" s="71" t="str">
+      <c r="I63" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6295,10 +6297,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M63" s="52"/>
+      <c r="M63" s="118"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A64" s="51">
+      <c r="A64" s="50">
         <v>61</v>
       </c>
       <c r="B64" s="32" t="str">
@@ -6316,7 +6318,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="28"/>
-      <c r="I64" s="71" t="str">
+      <c r="I64" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6326,10 +6328,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M64" s="52"/>
+      <c r="M64" s="118"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A65" s="51">
+      <c r="A65" s="50">
         <v>62</v>
       </c>
       <c r="B65" s="32" t="str">
@@ -6347,7 +6349,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="28"/>
-      <c r="I65" s="71" t="str">
+      <c r="I65" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6357,10 +6359,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M65" s="52"/>
+      <c r="M65" s="118"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A66" s="51">
+      <c r="A66" s="50">
         <v>63</v>
       </c>
       <c r="B66" s="32" t="str">
@@ -6378,7 +6380,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="28"/>
-      <c r="I66" s="71" t="str">
+      <c r="I66" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6388,38 +6390,38 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M66" s="52"/>
+      <c r="M66" s="118"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A67" s="53">
+      <c r="A67" s="51">
         <v>64</v>
       </c>
-      <c r="B67" s="62" t="str">
+      <c r="B67" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>8</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="56" t="str">
+      <c r="D67" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="72" t="str">
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="59" t="str">
+      <c r="J67" s="56"/>
+      <c r="K67" s="56"/>
+      <c r="L67" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M67" s="60"/>
+      <c r="M67" s="119"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1">
       <c r="A68" s="45">
@@ -6439,8 +6441,8 @@
       <c r="E68" s="47"/>
       <c r="F68" s="47"/>
       <c r="G68" s="47"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="73" t="str">
+      <c r="H68" s="58"/>
+      <c r="I68" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6450,10 +6452,10 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M68" s="50"/>
+      <c r="M68" s="117"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A69" s="51">
+      <c r="A69" s="50">
         <v>66</v>
       </c>
       <c r="B69" s="32" t="str">
@@ -6471,7 +6473,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="23"/>
       <c r="H69" s="28"/>
-      <c r="I69" s="71" t="str">
+      <c r="I69" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6481,10 +6483,10 @@
         <f t="shared" ref="L69:L99" si="1">IF(OR(J69="",K69=""),"",SUM(J69*K69))</f>
         <v/>
       </c>
-      <c r="M69" s="52"/>
+      <c r="M69" s="118"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A70" s="51">
+      <c r="A70" s="50">
         <v>67</v>
       </c>
       <c r="B70" s="32" t="str">
@@ -6502,7 +6504,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
       <c r="H70" s="28"/>
-      <c r="I70" s="71" t="str">
+      <c r="I70" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6512,10 +6514,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M70" s="52"/>
+      <c r="M70" s="118"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A71" s="51">
+      <c r="A71" s="50">
         <v>68</v>
       </c>
       <c r="B71" s="32" t="str">
@@ -6533,7 +6535,7 @@
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
       <c r="H71" s="28"/>
-      <c r="I71" s="71" t="str">
+      <c r="I71" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6543,10 +6545,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M71" s="52"/>
+      <c r="M71" s="118"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A72" s="51">
+      <c r="A72" s="50">
         <v>69</v>
       </c>
       <c r="B72" s="32" t="str">
@@ -6564,7 +6566,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="28"/>
-      <c r="I72" s="71" t="str">
+      <c r="I72" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6574,10 +6576,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M72" s="52"/>
+      <c r="M72" s="118"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A73" s="51">
+      <c r="A73" s="50">
         <v>70</v>
       </c>
       <c r="B73" s="32" t="str">
@@ -6595,7 +6597,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="23"/>
       <c r="H73" s="28"/>
-      <c r="I73" s="71" t="str">
+      <c r="I73" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6605,10 +6607,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M73" s="52"/>
+      <c r="M73" s="118"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A74" s="51">
+      <c r="A74" s="50">
         <v>71</v>
       </c>
       <c r="B74" s="32" t="str">
@@ -6626,7 +6628,7 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="28"/>
-      <c r="I74" s="71" t="str">
+      <c r="I74" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6636,38 +6638,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M74" s="52"/>
+      <c r="M74" s="118"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A75" s="53">
+      <c r="A75" s="51">
         <v>72</v>
       </c>
-      <c r="B75" s="62" t="str">
+      <c r="B75" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>9</v>
       </c>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="56" t="str">
+      <c r="D75" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="72" t="str">
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="59" t="str">
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M75" s="60"/>
+      <c r="M75" s="119"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1">
       <c r="A76" s="45">
@@ -6687,8 +6689,8 @@
       <c r="E76" s="47"/>
       <c r="F76" s="47"/>
       <c r="G76" s="47"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="73" t="str">
+      <c r="H76" s="58"/>
+      <c r="I76" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6698,10 +6700,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M76" s="50"/>
+      <c r="M76" s="117"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A77" s="51">
+      <c r="A77" s="50">
         <v>74</v>
       </c>
       <c r="B77" s="32" t="str">
@@ -6719,7 +6721,7 @@
       <c r="F77" s="23"/>
       <c r="G77" s="23"/>
       <c r="H77" s="28"/>
-      <c r="I77" s="71" t="str">
+      <c r="I77" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6729,10 +6731,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M77" s="52"/>
+      <c r="M77" s="118"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A78" s="51">
+      <c r="A78" s="50">
         <v>75</v>
       </c>
       <c r="B78" s="32" t="str">
@@ -6750,7 +6752,7 @@
       <c r="F78" s="23"/>
       <c r="G78" s="23"/>
       <c r="H78" s="28"/>
-      <c r="I78" s="71" t="str">
+      <c r="I78" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6760,10 +6762,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M78" s="52"/>
+      <c r="M78" s="118"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A79" s="51">
+      <c r="A79" s="50">
         <v>76</v>
       </c>
       <c r="B79" s="32" t="str">
@@ -6781,7 +6783,7 @@
       <c r="F79" s="23"/>
       <c r="G79" s="23"/>
       <c r="H79" s="28"/>
-      <c r="I79" s="71" t="str">
+      <c r="I79" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6791,10 +6793,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M79" s="52"/>
+      <c r="M79" s="118"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A80" s="51">
+      <c r="A80" s="50">
         <v>77</v>
       </c>
       <c r="B80" s="32" t="str">
@@ -6812,7 +6814,7 @@
       <c r="F80" s="23"/>
       <c r="G80" s="23"/>
       <c r="H80" s="28"/>
-      <c r="I80" s="71" t="str">
+      <c r="I80" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6822,10 +6824,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M80" s="52"/>
+      <c r="M80" s="118"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A81" s="51">
+      <c r="A81" s="50">
         <v>78</v>
       </c>
       <c r="B81" s="32" t="str">
@@ -6843,7 +6845,7 @@
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="28"/>
-      <c r="I81" s="71" t="str">
+      <c r="I81" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6853,10 +6855,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M81" s="52"/>
+      <c r="M81" s="118"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A82" s="51">
+      <c r="A82" s="50">
         <v>79</v>
       </c>
       <c r="B82" s="32" t="str">
@@ -6874,7 +6876,7 @@
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="28"/>
-      <c r="I82" s="71" t="str">
+      <c r="I82" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6884,38 +6886,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M82" s="52"/>
+      <c r="M82" s="118"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="53">
+      <c r="A83" s="51">
         <v>80</v>
       </c>
-      <c r="B83" s="62" t="str">
+      <c r="B83" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>10</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="56" t="str">
+      <c r="D83" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="57"/>
-      <c r="I83" s="72" t="str">
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="59" t="str">
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M83" s="60"/>
+      <c r="M83" s="119"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1">
       <c r="A84" s="45">
@@ -6935,8 +6937,8 @@
       <c r="E84" s="47"/>
       <c r="F84" s="47"/>
       <c r="G84" s="47"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="73" t="str">
+      <c r="H84" s="58"/>
+      <c r="I84" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6946,10 +6948,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M84" s="50"/>
+      <c r="M84" s="117"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A85" s="51">
+      <c r="A85" s="50">
         <v>82</v>
       </c>
       <c r="B85" s="32" t="str">
@@ -6967,7 +6969,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="23"/>
       <c r="H85" s="28"/>
-      <c r="I85" s="71" t="str">
+      <c r="I85" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -6977,10 +6979,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M85" s="52"/>
+      <c r="M85" s="118"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A86" s="51">
+      <c r="A86" s="50">
         <v>83</v>
       </c>
       <c r="B86" s="32" t="str">
@@ -6998,7 +7000,7 @@
       <c r="F86" s="23"/>
       <c r="G86" s="23"/>
       <c r="H86" s="28"/>
-      <c r="I86" s="71" t="str">
+      <c r="I86" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7008,10 +7010,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M86" s="52"/>
+      <c r="M86" s="118"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A87" s="51">
+      <c r="A87" s="50">
         <v>84</v>
       </c>
       <c r="B87" s="32" t="str">
@@ -7029,7 +7031,7 @@
       <c r="F87" s="23"/>
       <c r="G87" s="23"/>
       <c r="H87" s="28"/>
-      <c r="I87" s="71" t="str">
+      <c r="I87" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7039,10 +7041,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M87" s="52"/>
+      <c r="M87" s="118"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A88" s="51">
+      <c r="A88" s="50">
         <v>85</v>
       </c>
       <c r="B88" s="32" t="str">
@@ -7060,7 +7062,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="23"/>
       <c r="H88" s="28"/>
-      <c r="I88" s="71" t="str">
+      <c r="I88" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7070,10 +7072,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M88" s="52"/>
+      <c r="M88" s="118"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A89" s="51">
+      <c r="A89" s="50">
         <v>86</v>
       </c>
       <c r="B89" s="32" t="str">
@@ -7091,7 +7093,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="23"/>
       <c r="H89" s="28"/>
-      <c r="I89" s="71" t="str">
+      <c r="I89" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7101,10 +7103,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M89" s="52"/>
+      <c r="M89" s="118"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A90" s="51">
+      <c r="A90" s="50">
         <v>87</v>
       </c>
       <c r="B90" s="32" t="str">
@@ -7122,7 +7124,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="23"/>
       <c r="H90" s="28"/>
-      <c r="I90" s="71" t="str">
+      <c r="I90" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7132,38 +7134,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M90" s="52"/>
+      <c r="M90" s="118"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A91" s="53">
+      <c r="A91" s="51">
         <v>88</v>
       </c>
-      <c r="B91" s="62" t="str">
+      <c r="B91" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>11</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D91" s="56" t="str">
+      <c r="D91" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="72" t="str">
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="59" t="str">
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M91" s="60"/>
+      <c r="M91" s="119"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" customHeight="1">
       <c r="A92" s="45">
@@ -7183,8 +7185,8 @@
       <c r="E92" s="47"/>
       <c r="F92" s="47"/>
       <c r="G92" s="47"/>
-      <c r="H92" s="61"/>
-      <c r="I92" s="73" t="str">
+      <c r="H92" s="58"/>
+      <c r="I92" s="70" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7194,10 +7196,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M92" s="50"/>
+      <c r="M92" s="117"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A93" s="51">
+      <c r="A93" s="50">
         <v>90</v>
       </c>
       <c r="B93" s="32" t="str">
@@ -7215,7 +7217,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="23"/>
       <c r="H93" s="28"/>
-      <c r="I93" s="71" t="str">
+      <c r="I93" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7225,10 +7227,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M93" s="52"/>
+      <c r="M93" s="118"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A94" s="51">
+      <c r="A94" s="50">
         <v>91</v>
       </c>
       <c r="B94" s="32" t="str">
@@ -7246,7 +7248,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
       <c r="H94" s="28"/>
-      <c r="I94" s="71" t="str">
+      <c r="I94" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7256,10 +7258,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M94" s="52"/>
+      <c r="M94" s="118"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A95" s="51">
+      <c r="A95" s="50">
         <v>92</v>
       </c>
       <c r="B95" s="32" t="str">
@@ -7277,7 +7279,7 @@
       <c r="F95" s="23"/>
       <c r="G95" s="23"/>
       <c r="H95" s="28"/>
-      <c r="I95" s="71" t="str">
+      <c r="I95" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7287,10 +7289,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M95" s="52"/>
+      <c r="M95" s="118"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A96" s="51">
+      <c r="A96" s="50">
         <v>93</v>
       </c>
       <c r="B96" s="32" t="str">
@@ -7308,7 +7310,7 @@
       <c r="F96" s="23"/>
       <c r="G96" s="23"/>
       <c r="H96" s="28"/>
-      <c r="I96" s="71" t="str">
+      <c r="I96" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7318,10 +7320,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M96" s="52"/>
+      <c r="M96" s="118"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A97" s="51">
+      <c r="A97" s="50">
         <v>94</v>
       </c>
       <c r="B97" s="32" t="str">
@@ -7339,7 +7341,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="23"/>
       <c r="H97" s="28"/>
-      <c r="I97" s="71" t="str">
+      <c r="I97" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7349,10 +7351,10 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M97" s="52"/>
+      <c r="M97" s="118"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A98" s="51">
+      <c r="A98" s="50">
         <v>95</v>
       </c>
       <c r="B98" s="32" t="str">
@@ -7370,7 +7372,7 @@
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
       <c r="H98" s="28"/>
-      <c r="I98" s="71" t="str">
+      <c r="I98" s="68" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
@@ -7380,38 +7382,38 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M98" s="52"/>
+      <c r="M98" s="118"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A99" s="53">
+      <c r="A99" s="51">
         <v>96</v>
       </c>
-      <c r="B99" s="62" t="str">
+      <c r="B99" s="59" t="str">
         <f>RIGHT(tbl_PCR[[#This Row],[Well]],LEN(tbl_PCR[[#This Row],[Well]])-1)</f>
         <v>12</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="56" t="str">
+      <c r="D99" s="54" t="str">
         <f>IF(Assay!$F$34=Reference!$E$120,IF(LEN(tbl_PCR[[#This Row],[Sample ID]])&gt;0,tbl_PCR[[#This Row],[Sample ID]],""),IF(LEN(tbl_PCR[[#This Row],[Extraction ID]])&gt;0,tbl_PCR[[#This Row],[Extraction ID]],""))</f>
         <v/>
       </c>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="57"/>
-      <c r="I99" s="72" t="str">
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="69" t="str">
         <f>IF(LEN(tbl_PCR[[#This Row],[Sample ID]])=0,"",CONCATENATE(exp_id,"_",tbl_PCR[[#This Row],[Well]]))</f>
         <v/>
       </c>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="59" t="str">
+      <c r="J99" s="56"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="57" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M99" s="60"/>
+      <c r="M99" s="119"/>
     </row>
     <row r="100" spans="1:13" s="13" customFormat="1">
       <c r="A100" s="12"/>
@@ -7420,15 +7422,15 @@
       <c r="D100" s="12">
         <v>1</v>
       </c>
-      <c r="E100" s="117" t="s">
+      <c r="E100" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
-      <c r="J100" s="117"/>
-      <c r="K100" s="117"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="116"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="116"/>
+      <c r="J100" s="116"/>
+      <c r="K100" s="116"/>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1"/>
@@ -7547,20 +7549,20 @@
     <mergeCell ref="E100:K100"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="E4:G99 J4:K99">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="E4:G99 J4:K99 M4:M99">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>COUNTIF(E4,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L99">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>COUNTIF(L4,"")</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="between">
       <formula>0</formula>
       <formula>Post_PCR_target_DNA_conc</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThanOrEqual">
       <formula>Post_PCR_target_DNA_conc</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7599,14 +7601,12 @@
   </sheetPr>
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7671,20 +7671,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="33.6">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33.6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33.6">
-      <c r="A4" s="67"/>
+      <c r="A4" s="64"/>
     </row>
     <row r="5" spans="1:12" ht="33.6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="65" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7694,17 +7694,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="33.6">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="66" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33.6">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="64" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="33.6">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="64" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7739,13 +7739,13 @@
       <c r="G16" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="70" t="s">
+      <c r="J16" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="67" t="s">
         <v>187</v>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       <c r="B17" s="30">
         <v>30</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="62" t="s">
         <v>236</v>
       </c>
       <c r="E17" t="s">
@@ -8048,11 +8048,11 @@
       <c r="E46" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="61">
         <f>SUM(F41-F40-template_vol)</f>
         <v>9.4499999999999993</v>
       </c>
-      <c r="G46" s="64"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="48" spans="5:7" ht="16.2" thickBot="1">
       <c r="E48" s="17" t="s">
@@ -8105,7 +8105,7 @@
       <c r="E54" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="64">
+      <c r="F54" s="61">
         <f>SUM(F51-F50-template_vol)</f>
         <v>0</v>
       </c>
